--- a/Graphs/Energy_and_equilibrium_study.xlsx
+++ b/Graphs/Energy_and_equilibrium_study.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Birgitte\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Birgitte\Documents\GitHub\Project5\Graphs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="23">
   <si>
     <t>E_kin initial</t>
   </si>
@@ -42,18 +42,6 @@
   </si>
   <si>
     <t>final:</t>
-  </si>
-  <si>
-    <t>E_kin bound</t>
-  </si>
-  <si>
-    <t>E_kin eject</t>
-  </si>
-  <si>
-    <t>E_pot bound</t>
-  </si>
-  <si>
-    <t>E_pot eject</t>
   </si>
   <si>
     <t>time = 1 t_crunch</t>
@@ -96,6 +84,24 @@
   </si>
   <si>
     <t>Particles within sphere of radius 10 ly</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>E_pot</t>
+  </si>
+  <si>
+    <t>E_kin</t>
+  </si>
+  <si>
+    <t>E_tot</t>
+  </si>
+  <si>
+    <t>Energy loss</t>
+  </si>
+  <si>
+    <t>percentage</t>
   </si>
 </sst>
 </file>
@@ -340,11 +346,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="352614000"/>
-        <c:axId val="352611256"/>
+        <c:axId val="297747384"/>
+        <c:axId val="297780536"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="352614000"/>
+        <c:axId val="297747384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -401,12 +407,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="352611256"/>
+        <c:crossAx val="297780536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="352611256"/>
+        <c:axId val="297780536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -463,7 +469,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="352614000"/>
+        <c:crossAx val="297747384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -676,11 +682,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="413788640"/>
-        <c:axId val="413790208"/>
+        <c:axId val="297780928"/>
+        <c:axId val="297782496"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="413788640"/>
+        <c:axId val="297780928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -737,12 +743,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="413790208"/>
+        <c:crossAx val="297782496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="413790208"/>
+        <c:axId val="297782496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -799,7 +805,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="413788640"/>
+        <c:crossAx val="297780928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2288,10 +2294,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H1"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2304,7 +2310,10 @@
     <col min="8" max="8" width="10.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -2315,16 +2324,108 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>21</v>
+      </c>
+      <c r="I1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>62384.3</v>
+      </c>
+      <c r="E2">
+        <v>15766.4</v>
+      </c>
+      <c r="F2">
+        <v>23308.9</v>
+      </c>
+      <c r="G2">
+        <f>SUM(E2:F2)</f>
+        <v>39075.300000000003</v>
+      </c>
+      <c r="H2">
+        <f>C2-G2</f>
+        <v>23309</v>
+      </c>
+      <c r="I2">
+        <f>H2/C2*100</f>
+        <v>37.363567436037592</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <v>107840</v>
+      </c>
+      <c r="E3">
+        <v>38332.6</v>
+      </c>
+      <c r="F3">
+        <v>34753.800000000003</v>
+      </c>
+      <c r="G3">
+        <f>SUM(E3:F3)</f>
+        <v>73086.399999999994</v>
+      </c>
+      <c r="H3">
+        <f>C3-G3</f>
+        <v>34753.600000000006</v>
+      </c>
+      <c r="I3">
+        <f>H3/C3*100</f>
+        <v>32.227002967359056</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>30</v>
+      </c>
+      <c r="C4">
+        <v>180199</v>
+      </c>
+      <c r="E4">
+        <v>58605.3</v>
+      </c>
+      <c r="F4">
+        <v>60796.800000000003</v>
+      </c>
+      <c r="G4">
+        <f>SUM(E4:F4)</f>
+        <v>119402.1</v>
+      </c>
+      <c r="H4">
+        <f>C4-G4</f>
+        <v>60796.899999999994</v>
+      </c>
+      <c r="I4">
+        <f>H4/C4*100</f>
+        <v>33.738755486989383</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C5">
+        <v>214005</v>
+      </c>
+      <c r="E5">
+        <v>78745.5</v>
+      </c>
+      <c r="F5">
+        <v>67629.899999999994</v>
       </c>
     </row>
   </sheetData>
@@ -2337,7 +2438,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
@@ -2345,10 +2446,10 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -2409,7 +2510,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -2486,10 +2587,10 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>3492.47</v>
@@ -2507,16 +2608,16 @@
     </row>
     <row r="3" spans="1:9" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F3">
         <v>297.13099999999997</v>
@@ -2709,7 +2810,7 @@
         <v>49.976599999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>19.337199999999999</v>
       </c>
@@ -2720,7 +2821,7 @@
         <v>49.410699999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>4.5030700000000001</v>
       </c>
@@ -2731,7 +2832,7 @@
         <v>47.158999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>14.4718</v>
       </c>
@@ -2742,7 +2843,7 @@
         <v>41.105400000000003</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>10.851000000000001</v>
       </c>
@@ -2753,7 +2854,7 @@
         <v>40.470599999999997</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>13.364100000000001</v>
       </c>
@@ -2764,7 +2865,7 @@
         <v>39.158299999999997</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>16.158999999999999</v>
       </c>
@@ -2775,7 +2876,7 @@
         <v>38.154400000000003</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>19.143699999999999</v>
       </c>
@@ -2786,7 +2887,7 @@
         <v>33.192500000000003</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>18.476500000000001</v>
       </c>
@@ -2797,7 +2898,7 @@
         <v>33.0413</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>17.917200000000001</v>
       </c>
@@ -2808,7 +2909,7 @@
         <v>28.668600000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>12.2585</v>
       </c>
@@ -2819,7 +2920,7 @@
         <v>28.571000000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>17.616099999999999</v>
       </c>
@@ -2830,7 +2931,7 @@
         <v>24.183499999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>16.656300000000002</v>
       </c>
@@ -2841,7 +2942,7 @@
         <v>23.469100000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>19.308599999999998</v>
       </c>
@@ -2852,7 +2953,7 @@
         <v>22.733899999999998</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>17.760899999999999</v>
       </c>
@@ -2863,7 +2964,7 @@
         <v>19.7639</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>18.191600000000001</v>
       </c>
@@ -2874,7 +2975,7 @@
         <v>12.452199999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>14.968999999999999</v>
       </c>
@@ -2885,7 +2986,7 @@
         <v>12.083399999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>13.582800000000001</v>
       </c>
@@ -2896,7 +2997,7 @@
         <v>11.2644</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>17.247</v>
       </c>
@@ -2907,7 +3008,7 @@
         <v>10.2332</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <v>12.285500000000001</v>
       </c>
@@ -2918,7 +3019,7 @@
         <v>7.9282700000000004</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <v>19.0854</v>
       </c>
@@ -2929,7 +3030,7 @@
         <v>7.5705</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <v>9.3107699999999998</v>
       </c>
@@ -2940,7 +3041,7 @@
         <v>7.3676899999999996</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
         <v>19.0733</v>
       </c>
@@ -2951,7 +3052,7 @@
         <v>7.2483500000000003</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
         <v>15.1214</v>
       </c>
@@ -2962,7 +3063,7 @@
         <v>7.0667799999999996</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
         <v>7.46957</v>
       </c>
@@ -2973,7 +3074,7 @@
         <v>7.00631</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
         <v>12.3087</v>
       </c>
@@ -2984,7 +3085,7 @@
         <v>6.9902800000000003</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
         <v>9.8798499999999994</v>
       </c>
@@ -2995,7 +3096,7 @@
         <v>6.9756299999999998</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
         <v>14.5817</v>
       </c>
@@ -3006,7 +3107,7 @@
         <v>6.8936599999999997</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
         <v>17.730399999999999</v>
       </c>
@@ -3017,7 +3118,7 @@
         <v>6.8544099999999997</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
         <v>12.443099999999999</v>
       </c>
@@ -3028,7 +3129,7 @@
         <v>6.6444400000000003</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
         <v>15.176</v>
       </c>
@@ -3039,7 +3140,7 @@
         <v>6.52996</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="2">
         <v>16.822099999999999</v>
       </c>
@@ -3050,7 +3151,7 @@
         <v>6.4270199999999997</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="2">
         <v>12.8066</v>
       </c>
@@ -3061,7 +3162,7 @@
         <v>6.3836599999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="2">
         <v>14.272</v>
       </c>
@@ -3072,7 +3173,7 @@
         <v>6.3193799999999998</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="2">
         <v>13.081099999999999</v>
       </c>
@@ -3083,7 +3184,7 @@
         <v>6.2738100000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="2">
         <v>6.2914599999999998</v>
       </c>
@@ -3094,7 +3195,7 @@
         <v>6.1206699999999996</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="2">
         <v>17.182200000000002</v>
       </c>
@@ -3105,7 +3206,7 @@
         <v>6.0581100000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="2">
         <v>15.3965</v>
       </c>
@@ -3116,7 +3217,7 @@
         <v>6.05532</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="2">
         <v>10.865500000000001</v>
       </c>
@@ -3127,7 +3228,7 @@
         <v>5.9745600000000003</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="2">
         <v>6.6582499999999998</v>
       </c>
@@ -3138,7 +3239,7 @@
         <v>5.8116899999999996</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="2">
         <v>14.055</v>
       </c>
@@ -3149,7 +3250,7 @@
         <v>5.75793</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="2">
         <v>15.892899999999999</v>
       </c>
@@ -3160,7 +3261,7 @@
         <v>5.6434699999999998</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="2">
         <v>19.744700000000002</v>
       </c>
@@ -3171,7 +3272,7 @@
         <v>5.6046100000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="2">
         <v>10.986800000000001</v>
       </c>
@@ -3182,7 +3283,7 @@
         <v>5.5580299999999996</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="2">
         <v>18.695900000000002</v>
       </c>
@@ -3193,7 +3294,7 @@
         <v>5.53878</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="2">
         <v>8.1631199999999993</v>
       </c>
@@ -3204,7 +3305,7 @@
         <v>5.3877100000000002</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="2">
         <v>17.677499999999998</v>
       </c>
@@ -3215,7 +3316,7 @@
         <v>5.33439</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="2">
         <v>16.760100000000001</v>
       </c>
@@ -3226,7 +3327,7 @@
         <v>5.26485</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="2">
         <v>16.262799999999999</v>
       </c>
@@ -3237,7 +3338,7 @@
         <v>5.2398600000000002</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="2">
         <v>16.4634</v>
       </c>
@@ -3248,7 +3349,7 @@
         <v>5.2284100000000002</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="2">
         <v>19.045500000000001</v>
       </c>
@@ -3259,7 +3360,7 @@
         <v>5.1778199999999996</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="2">
         <v>10.575100000000001</v>
       </c>
@@ -3270,7 +3371,7 @@
         <v>5.14154</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="2">
         <v>17.932600000000001</v>
       </c>
@@ -3281,7 +3382,7 @@
         <v>5.0501699999999996</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="2">
         <v>16.802299999999999</v>
       </c>
@@ -3292,7 +3393,7 @@
         <v>5.0494599999999998</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="2">
         <v>12.851100000000001</v>
       </c>
@@ -3303,7 +3404,7 @@
         <v>5.0152000000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="2">
         <v>17.397300000000001</v>
       </c>
@@ -3314,7 +3415,7 @@
         <v>4.9547600000000003</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="2">
         <v>13.985799999999999</v>
       </c>
@@ -3325,7 +3426,7 @@
         <v>4.9323699999999997</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="2">
         <v>14.4496</v>
       </c>
@@ -3336,7 +3437,7 @@
         <v>4.9315100000000003</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="2">
         <v>13.061</v>
       </c>
@@ -3347,7 +3448,7 @@
         <v>4.7068099999999999</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="2">
         <v>16.309699999999999</v>
       </c>
@@ -3358,7 +3459,7 @@
         <v>4.6197999999999997</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="2">
         <v>8.00624</v>
       </c>
@@ -3369,7 +3470,7 @@
         <v>4.6040000000000001</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="2">
         <v>14.492699999999999</v>
       </c>
@@ -3380,7 +3481,7 @@
         <v>4.4987000000000004</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="2">
         <v>16.044799999999999</v>
       </c>
@@ -3391,7 +3492,7 @@
         <v>4.4881200000000003</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="2">
         <v>14.7384</v>
       </c>
@@ -3402,7 +3503,7 @@
         <v>4.2919900000000002</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="2">
         <v>3.9839799999999999</v>
       </c>
@@ -3413,7 +3514,7 @@
         <v>4.26891</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="2">
         <v>11.5158</v>
       </c>
@@ -3424,7 +3525,7 @@
         <v>4.1956499999999997</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="2">
         <v>19.808599999999998</v>
       </c>
@@ -3435,7 +3536,7 @@
         <v>4.0402199999999997</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="2">
         <v>16.898900000000001</v>
       </c>
@@ -3446,7 +3547,7 @@
         <v>3.9341900000000001</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="2">
         <v>18.830200000000001</v>
       </c>
@@ -3457,7 +3558,7 @@
         <v>3.8704100000000001</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="2">
         <v>19.125299999999999</v>
       </c>
@@ -3468,7 +3569,7 @@
         <v>3.76993</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="2">
         <v>14.7654</v>
       </c>
@@ -3479,7 +3580,7 @@
         <v>3.7665099999999998</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="2">
         <v>15.951599999999999</v>
       </c>
@@ -3490,7 +3591,7 @@
         <v>3.7327300000000001</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="2">
         <v>9.6877099999999992</v>
       </c>
@@ -3501,7 +3602,7 @@
         <v>3.70994</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="2">
         <v>17.671500000000002</v>
       </c>
@@ -3512,7 +3613,7 @@
         <v>3.5590999999999999</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="2">
         <v>11.144299999999999</v>
       </c>
@@ -3523,7 +3624,7 @@
         <v>3.4159299999999999</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="2">
         <v>14.476800000000001</v>
       </c>
@@ -3534,7 +3635,7 @@
         <v>3.32524</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="2">
         <v>15.232699999999999</v>
       </c>
@@ -3545,7 +3646,7 @@
         <v>2.9603600000000001</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="2">
         <v>15.8706</v>
       </c>
@@ -3556,7 +3657,7 @@
         <v>2.8316699999999999</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="2">
         <v>12.898300000000001</v>
       </c>
@@ -3567,7 +3668,7 @@
         <v>2.6654200000000001</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="2">
         <v>17.137699999999999</v>
       </c>
@@ -3578,7 +3679,7 @@
         <v>1.4656100000000001</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="2">
         <v>13.122299999999999</v>
       </c>
@@ -3589,7 +3690,7 @@
         <v>1.0716300000000001</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="2">
         <v>17.953099999999999</v>
       </c>
@@ -3597,7 +3698,7 @@
         <v>5.9745600000000003</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="2">
         <v>17.761700000000001</v>
       </c>
@@ -3605,7 +3706,7 @@
         <v>3.4159299999999999</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="2">
         <v>15.257899999999999</v>
       </c>
@@ -12627,10 +12728,10 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>1420.18</v>
@@ -12647,16 +12748,16 @@
     </row>
     <row r="3" spans="1:9" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F3">
         <v>696.73199999999997</v>
@@ -12849,7 +12950,7 @@
         <v>198.535</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>6.9818699999999998</v>
       </c>
@@ -12860,7 +12961,7 @@
         <v>191.00700000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>14.553699999999999</v>
       </c>
@@ -12871,7 +12972,7 @@
         <v>183.08099999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>19.578399999999998</v>
       </c>
@@ -12882,7 +12983,7 @@
         <v>178.34899999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>17.2317</v>
       </c>
@@ -12893,7 +12994,7 @@
         <v>151.904</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>15.145899999999999</v>
       </c>
@@ -12904,7 +13005,7 @@
         <v>148.83000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>18.950600000000001</v>
       </c>
@@ -12915,7 +13016,7 @@
         <v>148.363</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>9.8973200000000006</v>
       </c>
@@ -12926,7 +13027,7 @@
         <v>140.58099999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>19.235900000000001</v>
       </c>
@@ -12937,7 +13038,7 @@
         <v>136.48500000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>14.3491</v>
       </c>
@@ -12948,7 +13049,7 @@
         <v>119.60299999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>19.871600000000001</v>
       </c>
@@ -12959,7 +13060,7 @@
         <v>117.88</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>18.6921</v>
       </c>
@@ -12970,7 +13071,7 @@
         <v>102.514</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>19.099900000000002</v>
       </c>
@@ -12981,7 +13082,7 @@
         <v>87.135599999999997</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>17.567399999999999</v>
       </c>
@@ -12992,7 +13093,7 @@
         <v>78.0809</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>17.890799999999999</v>
       </c>
@@ -13003,7 +13104,7 @@
         <v>37.071300000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>16.213999999999999</v>
       </c>
@@ -13014,7 +13115,7 @@
         <v>35.924199999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>13.7841</v>
       </c>
@@ -13025,7 +13126,7 @@
         <v>33.665999999999997</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>15.541</v>
       </c>
@@ -13036,7 +13137,7 @@
         <v>32.063299999999998</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>12.6813</v>
       </c>
@@ -13047,7 +13148,7 @@
         <v>31.270600000000002</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <v>7.4107599999999998</v>
       </c>
@@ -13058,7 +13159,7 @@
         <v>28.935199999999998</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <v>13.3972</v>
       </c>
@@ -13069,7 +13170,7 @@
         <v>26.232299999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <v>10.715199999999999</v>
       </c>
@@ -13080,7 +13181,7 @@
         <v>25.165500000000002</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
         <v>17.038499999999999</v>
       </c>
@@ -13091,7 +13192,7 @@
         <v>24.102399999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
         <v>19.2315</v>
       </c>
@@ -13102,7 +13203,7 @@
         <v>23.926100000000002</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
         <v>17.247800000000002</v>
       </c>
@@ -13113,7 +13214,7 @@
         <v>23.166799999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
         <v>12.6616</v>
       </c>
@@ -13124,7 +13225,7 @@
         <v>23.155000000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
         <v>18.950800000000001</v>
       </c>
@@ -13135,7 +13236,7 @@
         <v>22.911200000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
         <v>14.9994</v>
       </c>
@@ -13146,7 +13247,7 @@
         <v>22.802499999999998</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
         <v>19.735900000000001</v>
       </c>
@@ -13157,7 +13258,7 @@
         <v>21.321899999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
         <v>14.0961</v>
       </c>
@@ -13168,7 +13269,7 @@
         <v>21.087599999999998</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
         <v>16.746700000000001</v>
       </c>
@@ -13179,7 +13280,7 @@
         <v>21.055900000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="2">
         <v>12.4452</v>
       </c>
@@ -13190,7 +13291,7 @@
         <v>20.613099999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="2">
         <v>19.931000000000001</v>
       </c>
@@ -13201,7 +13302,7 @@
         <v>20.4482</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="2">
         <v>4.0145099999999996</v>
       </c>
@@ -13212,7 +13313,7 @@
         <v>19.911899999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="2">
         <v>11.6492</v>
       </c>
@@ -13223,7 +13324,7 @@
         <v>19.616299999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="2">
         <v>18.9861</v>
       </c>
@@ -13234,7 +13335,7 @@
         <v>17.6541</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="2">
         <v>18.674900000000001</v>
       </c>
@@ -13245,7 +13346,7 @@
         <v>17.560199999999998</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="2">
         <v>5.7947800000000003</v>
       </c>
@@ -13256,7 +13357,7 @@
         <v>17.276900000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="2">
         <v>12.2936</v>
       </c>
@@ -13267,7 +13368,7 @@
         <v>17.2212</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="2">
         <v>13.7178</v>
       </c>
@@ -13278,7 +13379,7 @@
         <v>17.1081</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="2">
         <v>19.716899999999999</v>
       </c>
@@ -13289,7 +13390,7 @@
         <v>16.965599999999998</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="2">
         <v>18.8735</v>
       </c>
@@ -13300,7 +13401,7 @@
         <v>16.838999999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="2">
         <v>14.515499999999999</v>
       </c>
@@ -13311,7 +13412,7 @@
         <v>16.814699999999998</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="2">
         <v>19.343900000000001</v>
       </c>
@@ -13322,7 +13423,7 @@
         <v>16.794</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="2">
         <v>18.407900000000001</v>
       </c>
@@ -13333,7 +13434,7 @@
         <v>15.983700000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="2">
         <v>15.504899999999999</v>
       </c>
@@ -13344,7 +13445,7 @@
         <v>15.8057</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="2">
         <v>17.5761</v>
       </c>
@@ -13355,7 +13456,7 @@
         <v>15.715199999999999</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="2">
         <v>14.022399999999999</v>
       </c>
@@ -13366,7 +13467,7 @@
         <v>15.2668</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="2">
         <v>10.632300000000001</v>
       </c>
@@ -13377,7 +13478,7 @@
         <v>14.224600000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="2">
         <v>18.2164</v>
       </c>
@@ -13388,7 +13489,7 @@
         <v>13.736499999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="2">
         <v>10.507</v>
       </c>
@@ -13399,7 +13500,7 @@
         <v>13.166700000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="2">
         <v>18.979800000000001</v>
       </c>
@@ -13410,7 +13511,7 @@
         <v>12.9803</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="2">
         <v>19.212499999999999</v>
       </c>
@@ -13421,7 +13522,7 @@
         <v>12.93</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="2">
         <v>14.5237</v>
       </c>
@@ -13432,7 +13533,7 @@
         <v>12.6158</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="2">
         <v>17.096599999999999</v>
       </c>
@@ -13443,7 +13544,7 @@
         <v>11.4575</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="2">
         <v>14.8765</v>
       </c>
@@ -13454,7 +13555,7 @@
         <v>11.455399999999999</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="2">
         <v>19.325199999999999</v>
       </c>
@@ -13465,7 +13566,7 @@
         <v>11.2532</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="2">
         <v>14.165699999999999</v>
       </c>
@@ -13476,7 +13577,7 @@
         <v>10.8224</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="2">
         <v>1.4309099999999999</v>
       </c>
@@ -13487,7 +13588,7 @@
         <v>10.6122</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="2">
         <v>15.3552</v>
       </c>
@@ -13498,7 +13599,7 @@
         <v>9.0266800000000007</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="2">
         <v>16.388300000000001</v>
       </c>
@@ -13509,7 +13610,7 @@
         <v>8.8956</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="2">
         <v>14.9041</v>
       </c>
@@ -13520,7 +13621,7 @@
         <v>8.5836000000000006</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="2">
         <v>16.137499999999999</v>
       </c>
@@ -13531,7 +13632,7 @@
         <v>8.1458499999999994</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="2">
         <v>16.534300000000002</v>
       </c>
@@ -13542,7 +13643,7 @@
         <v>7.9970100000000004</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="2">
         <v>9.9263200000000005</v>
       </c>
@@ -13553,7 +13654,7 @@
         <v>7.3737000000000004</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="2">
         <v>10.8909</v>
       </c>
@@ -13564,7 +13665,7 @@
         <v>7.3376299999999999</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="2">
         <v>15.700799999999999</v>
       </c>
@@ -13575,7 +13676,7 @@
         <v>6.5811200000000003</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="2">
         <v>12.830399999999999</v>
       </c>
@@ -13586,7 +13687,7 @@
         <v>6.2276400000000001</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="2">
         <v>19.837499999999999</v>
       </c>
@@ -13597,7 +13698,7 @@
         <v>5.9019899999999996</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="2">
         <v>12.828900000000001</v>
       </c>
@@ -13608,7 +13709,7 @@
         <v>4.8284500000000001</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="2">
         <v>19.32</v>
       </c>
@@ -13619,7 +13720,7 @@
         <v>4.7084400000000004</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="2">
         <v>15.347899999999999</v>
       </c>
@@ -13630,7 +13731,7 @@
         <v>4.55314</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="2">
         <v>12.7051</v>
       </c>
@@ -13641,7 +13742,7 @@
         <v>4.3021500000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="2">
         <v>16.542000000000002</v>
       </c>
@@ -13652,7 +13753,7 @@
         <v>4.2724299999999999</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="2">
         <v>16.1065</v>
       </c>
@@ -13663,7 +13764,7 @@
         <v>3.9992399999999999</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="2">
         <v>17.350899999999999</v>
       </c>
@@ -13674,7 +13775,7 @@
         <v>3.9398599999999999</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="2">
         <v>17.628399999999999</v>
       </c>
@@ -13685,7 +13786,7 @@
         <v>3.5549499999999998</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="2">
         <v>15.520799999999999</v>
       </c>
@@ -13696,7 +13797,7 @@
         <v>3.4234200000000001</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="2">
         <v>18.354399999999998</v>
       </c>
@@ -13707,7 +13808,7 @@
         <v>3.0882200000000002</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="2">
         <v>17.027799999999999</v>
       </c>
@@ -13718,7 +13819,7 @@
         <v>2.38422</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="2">
         <v>14.4504</v>
       </c>
@@ -13729,7 +13830,7 @@
         <v>2.0501200000000002</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="2">
         <v>14.785500000000001</v>
       </c>
@@ -13737,7 +13838,7 @@
         <v>3.4234200000000001</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="2">
         <v>19.5275</v>
       </c>
@@ -13745,7 +13846,7 @@
         <v>21.087599999999998</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="2">
         <v>14.5771</v>
       </c>
@@ -13773,7 +13874,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F1">
         <v>2012.67</v>
@@ -13789,16 +13890,16 @@
     </row>
     <row r="3" spans="1:9" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F3">
         <v>718.67100000000005</v>
@@ -14497,7 +14598,7 @@
         <v>34.2483</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="2">
         <v>14.1714</v>
       </c>
@@ -14508,7 +14609,7 @@
         <v>33.636099999999999</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="2">
         <v>15.2502</v>
       </c>
@@ -14519,7 +14620,7 @@
         <v>31.781500000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="2">
         <v>19.1493</v>
       </c>
@@ -14530,7 +14631,7 @@
         <v>30.516500000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="2">
         <v>15.9276</v>
       </c>
@@ -14541,7 +14642,7 @@
         <v>30.065000000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="2">
         <v>12.471399999999999</v>
       </c>
@@ -14552,7 +14653,7 @@
         <v>29.7042</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="2">
         <v>5.8380799999999997</v>
       </c>
@@ -14563,7 +14664,7 @@
         <v>27.953199999999999</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="2">
         <v>11.2514</v>
       </c>
@@ -14574,7 +14675,7 @@
         <v>27.082699999999999</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="2">
         <v>5.6147499999999999</v>
       </c>
@@ -14585,7 +14686,7 @@
         <v>25.7318</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="2">
         <v>8.8737600000000008</v>
       </c>
@@ -14596,7 +14697,7 @@
         <v>23.869499999999999</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="2">
         <v>16.263999999999999</v>
       </c>
@@ -14607,7 +14708,7 @@
         <v>21.757300000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="2">
         <v>17.867899999999999</v>
       </c>
@@ -14618,7 +14719,7 @@
         <v>20.955200000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="2">
         <v>7.9756499999999999</v>
       </c>
@@ -14629,7 +14730,7 @@
         <v>20.7804</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="2">
         <v>13.6844</v>
       </c>
@@ -14640,7 +14741,7 @@
         <v>20.382000000000001</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="2">
         <v>18.762899999999998</v>
       </c>
@@ -14651,7 +14752,7 @@
         <v>19.664000000000001</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="2">
         <v>4.3234199999999996</v>
       </c>
@@ -14662,7 +14763,7 @@
         <v>19.390999999999998</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="2">
         <v>17.322500000000002</v>
       </c>
@@ -14673,7 +14774,7 @@
         <v>18.5413</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="2">
         <v>18.977499999999999</v>
       </c>
@@ -14684,7 +14785,7 @@
         <v>16.0867</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="2">
         <v>19.764900000000001</v>
       </c>
@@ -14695,7 +14796,7 @@
         <v>15.5778</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="2">
         <v>19.470099999999999</v>
       </c>
@@ -14706,7 +14807,7 @@
         <v>15.2014</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="2">
         <v>13.923999999999999</v>
       </c>
@@ -14717,7 +14818,7 @@
         <v>15.066800000000001</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="2">
         <v>8.1814</v>
       </c>
@@ -14739,7 +14840,7 @@
         <v>14.5778</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="2">
         <v>17.657900000000001</v>
       </c>
@@ -14750,7 +14851,7 @@
         <v>14.264900000000001</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="2">
         <v>12.845700000000001</v>
       </c>
@@ -14761,7 +14862,7 @@
         <v>13.781700000000001</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="2">
         <v>17.6221</v>
       </c>
@@ -14772,7 +14873,7 @@
         <v>13.458399999999999</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="2">
         <v>17.146599999999999</v>
       </c>
@@ -14783,7 +14884,7 @@
         <v>12.3461</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="2">
         <v>17.561299999999999</v>
       </c>
@@ -14794,7 +14895,7 @@
         <v>11.594900000000001</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="2">
         <v>16.714200000000002</v>
       </c>
@@ -14805,7 +14906,7 @@
         <v>11.0664</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="2">
         <v>12.6259</v>
       </c>
@@ -14816,7 +14917,7 @@
         <v>10.661099999999999</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="2">
         <v>12.7403</v>
       </c>
@@ -14827,7 +14928,7 @@
         <v>9.6757100000000005</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="2">
         <v>18.5471</v>
       </c>
@@ -14838,7 +14939,7 @@
         <v>8.3909199999999995</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="2">
         <v>9.7923600000000004</v>
       </c>
@@ -14849,7 +14950,7 @@
         <v>8.2800200000000004</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="2">
         <v>15.530900000000001</v>
       </c>
@@ -14860,7 +14961,7 @@
         <v>7.4803100000000002</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="2">
         <v>15.5961</v>
       </c>
@@ -14871,7 +14972,7 @@
         <v>5.78186</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="2">
         <v>6.1996599999999997</v>
       </c>
@@ -14879,7 +14980,7 @@
         <v>52.013300000000001</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="2">
         <v>16.815799999999999</v>
       </c>
@@ -14887,7 +14988,7 @@
         <v>2012.67</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="2">
         <v>7.0513000000000003</v>
       </c>
@@ -14915,7 +15016,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F1">
         <v>3055.48</v>
@@ -14931,16 +15032,16 @@
     </row>
     <row r="3" spans="1:9" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F3">
         <v>2071.14</v>
@@ -15133,7 +15234,7 @@
         <v>312.08100000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>17.846699999999998</v>
       </c>
@@ -15144,7 +15245,7 @@
         <v>293.44600000000003</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>18.613499999999998</v>
       </c>
@@ -15155,7 +15256,7 @@
         <v>284.52499999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>15.8279</v>
       </c>
@@ -15166,7 +15267,7 @@
         <v>283.12400000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>18.2575</v>
       </c>
@@ -15177,7 +15278,7 @@
         <v>253.61099999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>15.3081</v>
       </c>
@@ -15188,7 +15289,7 @@
         <v>227.10900000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>19.933499999999999</v>
       </c>
@@ -15199,7 +15300,7 @@
         <v>225.15700000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>19.758600000000001</v>
       </c>
@@ -15210,7 +15311,7 @@
         <v>222.40600000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>13.986700000000001</v>
       </c>
@@ -15221,7 +15322,7 @@
         <v>201.23</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>19.705100000000002</v>
       </c>
@@ -15232,7 +15333,7 @@
         <v>186.18100000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>19.880500000000001</v>
       </c>
@@ -15243,7 +15344,7 @@
         <v>185.417</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>7.5231500000000002</v>
       </c>
@@ -15254,7 +15355,7 @@
         <v>181.11699999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>16.2622</v>
       </c>
@@ -15265,7 +15366,7 @@
         <v>173.88</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>14.305099999999999</v>
       </c>
@@ -15276,7 +15377,7 @@
         <v>173.68700000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>16.194800000000001</v>
       </c>
@@ -15287,7 +15388,7 @@
         <v>167.71199999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>5.8760399999999997</v>
       </c>
@@ -15298,7 +15399,7 @@
         <v>161.423</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>6.5271800000000004</v>
       </c>
@@ -15309,7 +15410,7 @@
         <v>158.63999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>17.017399999999999</v>
       </c>
@@ -15320,7 +15421,7 @@
         <v>151.23599999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>13.7074</v>
       </c>
@@ -15331,7 +15432,7 @@
         <v>145.77500000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <v>18.576799999999999</v>
       </c>
@@ -15342,7 +15443,7 @@
         <v>145.52699999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <v>18.616399999999999</v>
       </c>
@@ -15353,7 +15454,7 @@
         <v>145.01599999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <v>15.455299999999999</v>
       </c>
@@ -15364,7 +15465,7 @@
         <v>135.35599999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
         <v>19.1814</v>
       </c>
@@ -15375,7 +15476,7 @@
         <v>130.70400000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
         <v>11.1279</v>
       </c>
@@ -15386,7 +15487,7 @@
         <v>130.553</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
         <v>15.920500000000001</v>
       </c>
@@ -15397,7 +15498,7 @@
         <v>127.014</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
         <v>15.607100000000001</v>
       </c>
@@ -15408,7 +15509,7 @@
         <v>125.158</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
         <v>17.2547</v>
       </c>
@@ -15419,7 +15520,7 @@
         <v>112.18899999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
         <v>18.093900000000001</v>
       </c>
@@ -15430,7 +15531,7 @@
         <v>111.934</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
         <v>11.3508</v>
       </c>
@@ -15441,7 +15542,7 @@
         <v>110.15300000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
         <v>10.3453</v>
       </c>
@@ -15452,7 +15553,7 @@
         <v>102.057</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
         <v>17.104900000000001</v>
       </c>
@@ -15463,7 +15564,7 @@
         <v>99.309600000000003</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="2">
         <v>19.5396</v>
       </c>
@@ -15474,7 +15575,7 @@
         <v>97.796999999999997</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="2">
         <v>8.2632499999999993</v>
       </c>
@@ -15485,7 +15586,7 @@
         <v>92.981700000000004</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="2">
         <v>16.984500000000001</v>
       </c>
@@ -15496,7 +15597,7 @@
         <v>88.829300000000003</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="2">
         <v>18.042100000000001</v>
       </c>
@@ -15507,7 +15608,7 @@
         <v>78.7624</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="2">
         <v>19.510200000000001</v>
       </c>
@@ -15518,7 +15619,7 @@
         <v>70.137</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="2">
         <v>16.973500000000001</v>
       </c>
@@ -15529,7 +15630,7 @@
         <v>69.505499999999998</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="2">
         <v>13.1778</v>
       </c>
@@ -15540,7 +15641,7 @@
         <v>62.844700000000003</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="2">
         <v>9.1909399999999994</v>
       </c>
@@ -15551,7 +15652,7 @@
         <v>61.243899999999996</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="2">
         <v>18.945399999999999</v>
       </c>
@@ -15562,7 +15663,7 @@
         <v>59.4</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="2">
         <v>15.760999999999999</v>
       </c>
@@ -15573,7 +15674,7 @@
         <v>54.7136</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="2">
         <v>17.688199999999998</v>
       </c>
@@ -15584,7 +15685,7 @@
         <v>54.031300000000002</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="2">
         <v>15.37</v>
       </c>
@@ -15595,7 +15696,7 @@
         <v>53.325899999999997</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="2">
         <v>7.5660499999999997</v>
       </c>
@@ -15606,7 +15707,7 @@
         <v>51.226999999999997</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="2">
         <v>19.032299999999999</v>
       </c>
@@ -15617,7 +15718,7 @@
         <v>49.663200000000003</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="2">
         <v>19.203299999999999</v>
       </c>
@@ -15628,7 +15729,7 @@
         <v>42.438499999999998</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="2">
         <v>6.7772699999999997</v>
       </c>
@@ -15639,7 +15740,7 @@
         <v>40.743499999999997</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="2">
         <v>19.104299999999999</v>
       </c>
@@ -15650,7 +15751,7 @@
         <v>39.838200000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="2">
         <v>16.004200000000001</v>
       </c>
@@ -15661,7 +15762,7 @@
         <v>39.834800000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="2">
         <v>19.171399999999998</v>
       </c>
@@ -15672,7 +15773,7 @@
         <v>33.865600000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="2">
         <v>19.569700000000001</v>
       </c>
@@ -15683,7 +15784,7 @@
         <v>33.246600000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="2">
         <v>17.2163</v>
       </c>
@@ -15694,7 +15795,7 @@
         <v>32.966099999999997</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="2">
         <v>10.6417</v>
       </c>
@@ -15705,7 +15806,7 @@
         <v>29.670999999999999</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="2">
         <v>12.401400000000001</v>
       </c>
@@ -15716,7 +15817,7 @@
         <v>25.340900000000001</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="2">
         <v>14.45</v>
       </c>
@@ -15727,7 +15828,7 @@
         <v>24.927299999999999</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="2">
         <v>14.211399999999999</v>
       </c>
@@ -15738,7 +15839,7 @@
         <v>21.159500000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="2">
         <v>16.581399999999999</v>
       </c>
@@ -15749,7 +15850,7 @@
         <v>21.0383</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="2">
         <v>14.656700000000001</v>
       </c>
@@ -15760,7 +15861,7 @@
         <v>18.697500000000002</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="2">
         <v>19.574999999999999</v>
       </c>
@@ -15771,7 +15872,7 @@
         <v>18.244800000000001</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="2">
         <v>18.9771</v>
       </c>
@@ -15782,7 +15883,7 @@
         <v>17.670100000000001</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="2">
         <v>19.215399999999999</v>
       </c>
@@ -15793,7 +15894,7 @@
         <v>17.024899999999999</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="2">
         <v>18.7638</v>
       </c>
@@ -15804,7 +15905,7 @@
         <v>13.994199999999999</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="2">
         <v>9.9666200000000007</v>
       </c>
@@ -15815,7 +15916,7 @@
         <v>12.7174</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="2">
         <v>17.963200000000001</v>
       </c>
@@ -15826,7 +15927,7 @@
         <v>12.0642</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="2">
         <v>16.674800000000001</v>
       </c>
@@ -15837,7 +15938,7 @@
         <v>11.6958</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="2">
         <v>17.401599999999998</v>
       </c>
@@ -15848,7 +15949,7 @@
         <v>10.9818</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="2">
         <v>13.313700000000001</v>
       </c>
@@ -15859,7 +15960,7 @@
         <v>10.5921</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="2">
         <v>19.881499999999999</v>
       </c>
@@ -15870,7 +15971,7 @@
         <v>10.553800000000001</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="2">
         <v>16.314599999999999</v>
       </c>
@@ -15881,7 +15982,7 @@
         <v>10.395</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="2">
         <v>18.451000000000001</v>
       </c>
@@ -15892,7 +15993,7 @@
         <v>10.071099999999999</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="2">
         <v>14.788500000000001</v>
       </c>
@@ -15903,7 +16004,7 @@
         <v>9.8390500000000003</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="2">
         <v>17.714400000000001</v>
       </c>
@@ -15914,7 +16015,7 @@
         <v>9.6085100000000008</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="2">
         <v>19.166599999999999</v>
       </c>
@@ -15925,7 +16026,7 @@
         <v>9.0645799999999994</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="2">
         <v>9.6441499999999998</v>
       </c>
@@ -15936,7 +16037,7 @@
         <v>8.1931499999999993</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="2">
         <v>16.100899999999999</v>
       </c>
@@ -15947,7 +16048,7 @@
         <v>7.9285600000000001</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="2">
         <v>15.6518</v>
       </c>
@@ -15958,7 +16059,7 @@
         <v>7.4630700000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="2">
         <v>17.3309</v>
       </c>
@@ -15969,7 +16070,7 @@
         <v>6.9565299999999999</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="2">
         <v>5.2152700000000003</v>
       </c>
@@ -15980,7 +16081,7 @@
         <v>6.2535600000000002</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="2">
         <v>16.9605</v>
       </c>
@@ -15991,7 +16092,7 @@
         <v>5.9567500000000004</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="2">
         <v>11.6089</v>
       </c>
@@ -16002,7 +16103,7 @@
         <v>5.6623999999999999</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="2">
         <v>13.238</v>
       </c>
@@ -16013,7 +16114,7 @@
         <v>5.6385699999999996</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="2">
         <v>17.011800000000001</v>
       </c>
@@ -16021,7 +16122,7 @@
         <v>39.834800000000001</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="2">
         <v>16.0763</v>
       </c>
@@ -16029,7 +16130,7 @@
         <v>21.159500000000001</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="2">
         <v>17.587700000000002</v>
       </c>
@@ -16057,7 +16158,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D1">
         <v>525.49400000000003</v>
@@ -16074,13 +16175,13 @@
     </row>
     <row r="3" spans="1:6" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D3">
         <v>83.935000000000002</v>
@@ -16273,7 +16374,7 @@
         <v>17.178000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>19.9923</v>
       </c>
@@ -16284,7 +16385,7 @@
         <v>17.171099999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>13.713900000000001</v>
       </c>
@@ -16295,7 +16396,7 @@
         <v>17.065000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>10.5342</v>
       </c>
@@ -16306,7 +16407,7 @@
         <v>17.0486</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>18.839600000000001</v>
       </c>
@@ -16317,7 +16418,7 @@
         <v>16.989899999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>19.922799999999999</v>
       </c>
@@ -16328,7 +16429,7 @@
         <v>16.96</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>6.7236900000000004</v>
       </c>
@@ -16339,7 +16440,7 @@
         <v>16.816199999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>17.643799999999999</v>
       </c>
@@ -16350,7 +16451,7 @@
         <v>16.744800000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>10.714499999999999</v>
       </c>
@@ -16361,7 +16462,7 @@
         <v>16.6936</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>7.3660399999999999</v>
       </c>
@@ -16372,7 +16473,7 @@
         <v>16.646599999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>16.011199999999999</v>
       </c>
@@ -16383,7 +16484,7 @@
         <v>16.579499999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>18.908999999999999</v>
       </c>
@@ -16394,7 +16495,7 @@
         <v>16.578700000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>16.908300000000001</v>
       </c>
@@ -16405,7 +16506,7 @@
         <v>16.278199999999998</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>10.124700000000001</v>
       </c>
@@ -16416,7 +16517,7 @@
         <v>16.1935</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>12.9465</v>
       </c>
@@ -16427,7 +16528,7 @@
         <v>16.085000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>19.400300000000001</v>
       </c>
@@ -16438,7 +16539,7 @@
         <v>16.0428</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>12.0222</v>
       </c>
@@ -16449,7 +16550,7 @@
         <v>16.041</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>5.2948300000000001</v>
       </c>
@@ -16460,7 +16561,7 @@
         <v>15.963100000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>13.5855</v>
       </c>
@@ -16471,7 +16572,7 @@
         <v>15.768599999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <v>19.412400000000002</v>
       </c>
@@ -16482,7 +16583,7 @@
         <v>15.6563</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <v>16.253599999999999</v>
       </c>
@@ -16493,7 +16594,7 @@
         <v>15.5641</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <v>16.420300000000001</v>
       </c>
@@ -16504,7 +16605,7 @@
         <v>15.4048</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
         <v>13.204499999999999</v>
       </c>
@@ -16515,7 +16616,7 @@
         <v>15.2278</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
         <v>10.3026</v>
       </c>
@@ -16526,7 +16627,7 @@
         <v>15.190799999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
         <v>4.4625700000000004</v>
       </c>
@@ -16537,7 +16638,7 @@
         <v>15.040699999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
         <v>11.9308</v>
       </c>
@@ -16548,7 +16649,7 @@
         <v>15.0312</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
         <v>7.8627599999999997</v>
       </c>
@@ -16559,7 +16660,7 @@
         <v>14.9459</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
         <v>18.9011</v>
       </c>
@@ -16570,7 +16671,7 @@
         <v>14.7796</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
         <v>12.889900000000001</v>
       </c>
@@ -16581,7 +16682,7 @@
         <v>14.7736</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
         <v>18.720500000000001</v>
       </c>
@@ -16592,7 +16693,7 @@
         <v>14.575699999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
         <v>13.1105</v>
       </c>
@@ -16603,7 +16704,7 @@
         <v>14.405200000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="2">
         <v>10.715199999999999</v>
       </c>
@@ -16614,7 +16715,7 @@
         <v>13.872299999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="2">
         <v>9.7565899999999992</v>
       </c>
@@ -16625,7 +16726,7 @@
         <v>13.764699999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="2">
         <v>16.722000000000001</v>
       </c>
@@ -16636,7 +16737,7 @@
         <v>13.5329</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="2">
         <v>6.5708200000000003</v>
       </c>
@@ -16647,7 +16748,7 @@
         <v>13.5268</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="2">
         <v>16.267399999999999</v>
       </c>
@@ -16658,7 +16759,7 @@
         <v>13.3973</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="2">
         <v>17.088200000000001</v>
       </c>
@@ -16669,7 +16770,7 @@
         <v>13.318</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="2">
         <v>11.312799999999999</v>
       </c>
@@ -16680,7 +16781,7 @@
         <v>13.2781</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="2">
         <v>11.231400000000001</v>
       </c>
@@ -16691,7 +16792,7 @@
         <v>13.2418</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="2">
         <v>19.461500000000001</v>
       </c>
@@ -16702,7 +16803,7 @@
         <v>13.221399999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="2">
         <v>9.5083800000000007</v>
       </c>
@@ -16713,7 +16814,7 @@
         <v>13.1547</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="2">
         <v>9.43947</v>
       </c>
@@ -16724,7 +16825,7 @@
         <v>13.0525</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="2">
         <v>15.2264</v>
       </c>
@@ -16735,7 +16836,7 @@
         <v>12.863899999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="2">
         <v>18.887799999999999</v>
       </c>
@@ -16746,7 +16847,7 @@
         <v>12.7058</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="2">
         <v>14.5495</v>
       </c>
@@ -16757,7 +16858,7 @@
         <v>12.280200000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="2">
         <v>4.5110799999999998</v>
       </c>
@@ -16768,7 +16869,7 @@
         <v>12.0504</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="2">
         <v>19.461099999999998</v>
       </c>
@@ -16779,7 +16880,7 @@
         <v>11.725300000000001</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="2">
         <v>17.3154</v>
       </c>
@@ -16790,7 +16891,7 @@
         <v>11.6797</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="2">
         <v>10.1191</v>
       </c>
@@ -16801,7 +16902,7 @@
         <v>11.5319</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="2">
         <v>12.717700000000001</v>
       </c>
@@ -16812,7 +16913,7 @@
         <v>10.7079</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="2">
         <v>4.4296300000000004</v>
       </c>
@@ -16823,7 +16924,7 @@
         <v>10.5519</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="2">
         <v>11.6198</v>
       </c>
@@ -16834,7 +16935,7 @@
         <v>10.4712</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="2">
         <v>17.519300000000001</v>
       </c>
@@ -16845,7 +16946,7 @@
         <v>10.4488</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="2">
         <v>14.3535</v>
       </c>
@@ -16856,7 +16957,7 @@
         <v>10.3195</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="2">
         <v>14.767200000000001</v>
       </c>
@@ -16867,7 +16968,7 @@
         <v>10.1614</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="2">
         <v>4.6954000000000002</v>
       </c>
@@ -16878,7 +16979,7 @@
         <v>10.1411</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="2">
         <v>9.1181099999999997</v>
       </c>
@@ -16889,7 +16990,7 @@
         <v>10.076700000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="2">
         <v>17.388400000000001</v>
       </c>
@@ -16900,7 +17001,7 @@
         <v>9.9176599999999997</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="2">
         <v>12.366400000000001</v>
       </c>
@@ -16911,7 +17012,7 @@
         <v>9.8274699999999999</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="2">
         <v>14.8622</v>
       </c>
@@ -16922,7 +17023,7 @@
         <v>9.2947299999999995</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="2">
         <v>19.716699999999999</v>
       </c>
@@ -16933,7 +17034,7 @@
         <v>9.2592599999999994</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="2">
         <v>17.587199999999999</v>
       </c>
@@ -16944,7 +17045,7 @@
         <v>8.5911200000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="2">
         <v>19.9543</v>
       </c>
@@ -16955,7 +17056,7 @@
         <v>8.5239700000000003</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="2">
         <v>15.837300000000001</v>
       </c>
@@ -16966,7 +17067,7 @@
         <v>8.4856400000000001</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="2">
         <v>15.959</v>
       </c>
@@ -16977,7 +17078,7 @@
         <v>8.2024500000000007</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="2">
         <v>18.5823</v>
       </c>
@@ -16988,7 +17089,7 @@
         <v>7.99777</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="2">
         <v>12.161300000000001</v>
       </c>
@@ -16999,7 +17100,7 @@
         <v>7.6796600000000002</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="2">
         <v>16.5761</v>
       </c>
@@ -17010,7 +17111,7 @@
         <v>7.5465099999999996</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="2">
         <v>17.796199999999999</v>
       </c>
@@ -17021,7 +17122,7 @@
         <v>7.2301599999999997</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="2">
         <v>16.304200000000002</v>
       </c>
@@ -17032,7 +17133,7 @@
         <v>7.0582900000000004</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="2">
         <v>17.9038</v>
       </c>
@@ -17043,7 +17144,7 @@
         <v>6.8924000000000003</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="2">
         <v>18.978899999999999</v>
       </c>
@@ -17054,7 +17155,7 @@
         <v>6.6464800000000004</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="2">
         <v>19.423200000000001</v>
       </c>
@@ -17065,7 +17166,7 @@
         <v>5.8348899999999997</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="2">
         <v>19.589400000000001</v>
       </c>
@@ -17076,7 +17177,7 @@
         <v>5.3756399999999998</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="2">
         <v>11.2598</v>
       </c>
@@ -17087,7 +17188,7 @@
         <v>4.9851900000000002</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="2">
         <v>7.7519400000000003</v>
       </c>
@@ -17098,7 +17199,7 @@
         <v>4.9117899999999999</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="2">
         <v>17.089099999999998</v>
       </c>
@@ -17109,7 +17210,7 @@
         <v>3.9698899999999999</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="2">
         <v>17.438800000000001</v>
       </c>
@@ -17120,7 +17221,7 @@
         <v>3.8585799999999999</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="2">
         <v>7.0838900000000002</v>
       </c>
@@ -17131,7 +17232,7 @@
         <v>3.77522</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="2">
         <v>17.784099999999999</v>
       </c>
@@ -17142,7 +17243,7 @@
         <v>3.67293</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="2">
         <v>19.871200000000002</v>
       </c>
@@ -17153,7 +17254,7 @@
         <v>3.0088499999999998</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="2">
         <v>8.0391200000000005</v>
       </c>
@@ -17161,7 +17262,7 @@
         <v>6.8924000000000003</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="2">
         <v>15.878</v>
       </c>
@@ -17169,7 +17270,7 @@
         <v>13.3973</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="2">
         <v>17.8888</v>
       </c>
@@ -17197,7 +17298,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F1">
         <v>536.40899999999999</v>
@@ -17214,16 +17315,16 @@
     </row>
     <row r="3" spans="1:9" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F3">
         <v>444.572</v>
@@ -17416,7 +17517,7 @@
         <v>85.661100000000005</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>11.124599999999999</v>
       </c>
@@ -17427,7 +17528,7 @@
         <v>83.126199999999997</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>13.1228</v>
       </c>
@@ -17438,7 +17539,7 @@
         <v>83.083500000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>10.3741</v>
       </c>
@@ -17449,7 +17550,7 @@
         <v>82.218000000000004</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>6.0321300000000004</v>
       </c>
@@ -17460,7 +17561,7 @@
         <v>81.628900000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>6.6674100000000003</v>
       </c>
@@ -17471,7 +17572,7 @@
         <v>78.828900000000004</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>6.2583900000000003</v>
       </c>
@@ -17482,7 +17583,7 @@
         <v>76.488799999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>13.0572</v>
       </c>
@@ -17493,7 +17594,7 @@
         <v>68.292000000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>12.4215</v>
       </c>
@@ -17504,7 +17605,7 @@
         <v>66.407899999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>18.386900000000001</v>
       </c>
@@ -17515,7 +17616,7 @@
         <v>63.261400000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>7.0018500000000001</v>
       </c>
@@ -17526,7 +17627,7 @@
         <v>48.885599999999997</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>16.6493</v>
       </c>
@@ -17537,7 +17638,7 @@
         <v>45.359699999999997</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>17.567399999999999</v>
       </c>
@@ -17548,7 +17649,7 @@
         <v>42.5398</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>18.445699999999999</v>
       </c>
@@ -17559,7 +17660,7 @@
         <v>40.642400000000002</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>6.58399</v>
       </c>
@@ -17570,7 +17671,7 @@
         <v>39.443800000000003</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>17.671700000000001</v>
       </c>
@@ -17581,7 +17682,7 @@
         <v>20.784800000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>12.823499999999999</v>
       </c>
@@ -17592,7 +17693,7 @@
         <v>19.067599999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>17.567900000000002</v>
       </c>
@@ -17603,7 +17704,7 @@
         <v>18.934000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>9.0261499999999995</v>
       </c>
@@ -17614,7 +17715,7 @@
         <v>18.895199999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <v>19.505700000000001</v>
       </c>
@@ -17625,7 +17726,7 @@
         <v>18.766500000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <v>12.229200000000001</v>
       </c>
@@ -17636,7 +17737,7 @@
         <v>17.485199999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <v>8.8861399999999993</v>
       </c>
@@ -17647,7 +17748,7 @@
         <v>16.6629</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
         <v>6.7001999999999997</v>
       </c>
@@ -17658,7 +17759,7 @@
         <v>16.652799999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
         <v>12.087199999999999</v>
       </c>
@@ -17669,7 +17770,7 @@
         <v>15.9975</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
         <v>17.903500000000001</v>
       </c>
@@ -17680,7 +17781,7 @@
         <v>15.774900000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
         <v>15.6408</v>
       </c>
@@ -17691,7 +17792,7 @@
         <v>15.6488</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
         <v>19.462599999999998</v>
       </c>
@@ -17702,7 +17803,7 @@
         <v>15.021699999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
         <v>13.2087</v>
       </c>
@@ -17713,7 +17814,7 @@
         <v>14.9175</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
         <v>18.978000000000002</v>
       </c>
@@ -17724,7 +17825,7 @@
         <v>14.4686</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
         <v>15.5313</v>
       </c>
@@ -17735,7 +17836,7 @@
         <v>14.4285</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
         <v>19.607800000000001</v>
       </c>
@@ -17746,7 +17847,7 @@
         <v>13.5228</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="2">
         <v>18.0077</v>
       </c>
@@ -17757,7 +17858,7 @@
         <v>13.095700000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="2">
         <v>19.0778</v>
       </c>
@@ -17768,7 +17869,7 @@
         <v>13.0556</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="2">
         <v>17.096</v>
       </c>
@@ -17779,7 +17880,7 @@
         <v>12.6449</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="2">
         <v>17.472999999999999</v>
       </c>
@@ -17790,7 +17891,7 @@
         <v>12.0093</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="2">
         <v>12.8155</v>
       </c>
@@ -17801,7 +17902,7 @@
         <v>11.6759</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="2">
         <v>14.273199999999999</v>
       </c>
@@ -17812,7 +17913,7 @@
         <v>11.528</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="2">
         <v>11.5787</v>
       </c>
@@ -17823,7 +17924,7 @@
         <v>11.4825</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="2">
         <v>19.1858</v>
       </c>
@@ -17834,7 +17935,7 @@
         <v>11.2972</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="2">
         <v>18.7012</v>
       </c>
@@ -17845,7 +17946,7 @@
         <v>11.1852</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="2">
         <v>13.9817</v>
       </c>
@@ -17856,7 +17957,7 @@
         <v>11.039899999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="2">
         <v>18.125399999999999</v>
       </c>
@@ -17867,7 +17968,7 @@
         <v>11.0351</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="2">
         <v>19.524699999999999</v>
       </c>
@@ -17878,7 +17979,7 @@
         <v>10.7583</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="2">
         <v>17.866099999999999</v>
       </c>
@@ -17889,7 +17990,7 @@
         <v>10.6852</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="2">
         <v>7.5717299999999996</v>
       </c>
@@ -17900,7 +18001,7 @@
         <v>10.5228</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="2">
         <v>11.319100000000001</v>
       </c>
@@ -17911,7 +18012,7 @@
         <v>9.8426399999999994</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="2">
         <v>18.989000000000001</v>
       </c>
@@ -17922,7 +18023,7 @@
         <v>9.7125900000000005</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="2">
         <v>17.1797</v>
       </c>
@@ -17933,7 +18034,7 @@
         <v>9.6417599999999997</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="2">
         <v>13.263500000000001</v>
       </c>
@@ -17944,7 +18045,7 @@
         <v>9.61416</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="2">
         <v>9.6380300000000005</v>
       </c>
@@ -17955,7 +18056,7 @@
         <v>9.2006099999999993</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="2">
         <v>12.2774</v>
       </c>
@@ -17966,7 +18067,7 @@
         <v>9.1669999999999998</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="2">
         <v>17.0854</v>
       </c>
@@ -17977,7 +18078,7 @@
         <v>8.9335100000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="2">
         <v>11.6083</v>
       </c>
@@ -17988,7 +18089,7 @@
         <v>8.1238899999999994</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="2">
         <v>5.6250600000000004</v>
       </c>
@@ -17999,7 +18100,7 @@
         <v>7.9996700000000001</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="2">
         <v>19.893799999999999</v>
       </c>
@@ -18010,7 +18111,7 @@
         <v>7.5842299999999998</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="2">
         <v>18.661300000000001</v>
       </c>
@@ -18021,7 +18122,7 @@
         <v>6.95275</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="2">
         <v>11.5189</v>
       </c>
@@ -18032,7 +18133,7 @@
         <v>6.9001299999999999</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="2">
         <v>12.395099999999999</v>
       </c>
@@ -18043,7 +18144,7 @@
         <v>6.8584199999999997</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="2">
         <v>8.6096699999999995</v>
       </c>
@@ -18054,7 +18155,7 @@
         <v>6.8064400000000003</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="2">
         <v>9.3797200000000007</v>
       </c>
@@ -18065,7 +18166,7 @@
         <v>5.9955299999999996</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="2">
         <v>10.1768</v>
       </c>
@@ -18076,7 +18177,7 @@
         <v>5.5841099999999999</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="2">
         <v>10.3224</v>
       </c>
@@ -18087,7 +18188,7 @@
         <v>5.5226499999999996</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="2">
         <v>14.7654</v>
       </c>
@@ -18098,7 +18199,7 @@
         <v>5.1121400000000001</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="2">
         <v>16.174299999999999</v>
       </c>
@@ -18109,7 +18210,7 @@
         <v>4.7995099999999997</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="2">
         <v>12.6142</v>
       </c>
@@ -18120,7 +18221,7 @@
         <v>4.7582300000000002</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="2">
         <v>16.724900000000002</v>
       </c>
@@ -18131,7 +18232,7 @@
         <v>4.7522700000000002</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="2">
         <v>17.550799999999999</v>
       </c>
@@ -18142,7 +18243,7 @@
         <v>4.7183400000000004</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="2">
         <v>15.9132</v>
       </c>
@@ -18153,7 +18254,7 @@
         <v>4.6982799999999996</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="2">
         <v>4.7859299999999996</v>
       </c>
@@ -18164,7 +18265,7 @@
         <v>4.6225199999999997</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="2">
         <v>7.5145200000000001</v>
       </c>
@@ -18175,7 +18276,7 @@
         <v>4.5773000000000001</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="2">
         <v>18.3278</v>
       </c>
@@ -18186,7 +18287,7 @@
         <v>4.2858000000000001</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="2">
         <v>17.630700000000001</v>
       </c>
@@ -18197,7 +18298,7 @@
         <v>4.1722299999999999</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="2">
         <v>15.473699999999999</v>
       </c>
@@ -18208,7 +18309,7 @@
         <v>4.1315200000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="2">
         <v>14.8019</v>
       </c>
@@ -18219,7 +18320,7 @@
         <v>3.7066599999999998</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="2">
         <v>12.318300000000001</v>
       </c>
@@ -18230,7 +18331,7 @@
         <v>3.0190700000000001</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="2">
         <v>17.466100000000001</v>
       </c>
@@ -18241,7 +18342,7 @@
         <v>2.9996999999999998</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="2">
         <v>10.7194</v>
       </c>
@@ -18252,7 +18353,7 @@
         <v>2.8406799999999999</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="2">
         <v>18.589600000000001</v>
       </c>
@@ -18263,7 +18364,7 @@
         <v>2.6477300000000001</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="2">
         <v>14.8</v>
       </c>
@@ -18274,7 +18375,7 @@
         <v>2.6301700000000001</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="2">
         <v>12.008699999999999</v>
       </c>
@@ -18285,7 +18386,7 @@
         <v>2.2780800000000001</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="2">
         <v>12.902200000000001</v>
       </c>
@@ -18296,7 +18397,7 @@
         <v>1.1098300000000001</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="2">
         <v>17.8339</v>
       </c>
@@ -18304,7 +18405,7 @@
         <v>3.0190700000000001</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="2">
         <v>19.531300000000002</v>
       </c>
@@ -18312,7 +18413,7 @@
         <v>11.6759</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="2">
         <v>13.2621</v>
       </c>
@@ -18340,7 +18441,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F1">
         <v>1791.76</v>
@@ -18357,16 +18458,16 @@
     </row>
     <row r="3" spans="1:8" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F3">
         <v>1416.98</v>
@@ -18559,7 +18660,7 @@
         <v>164.56899999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>19.618200000000002</v>
       </c>
@@ -18570,7 +18671,7 @@
         <v>148.05000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>16.630400000000002</v>
       </c>
@@ -18581,7 +18682,7 @@
         <v>136.60900000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>7.5518000000000001</v>
       </c>
@@ -18592,7 +18693,7 @@
         <v>129.02500000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>11.0791</v>
       </c>
@@ -18603,7 +18704,7 @@
         <v>125.482</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>12.0351</v>
       </c>
@@ -18614,7 +18715,7 @@
         <v>124.992</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>18.783899999999999</v>
       </c>
@@ -18625,7 +18726,7 @@
         <v>110.785</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>16.2499</v>
       </c>
@@ -18636,7 +18737,7 @@
         <v>96.723699999999994</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>16.735099999999999</v>
       </c>
@@ -18647,7 +18748,7 @@
         <v>84.702299999999994</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>19.101400000000002</v>
       </c>
@@ -18658,7 +18759,7 @@
         <v>74.378799999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>16.8903</v>
       </c>
@@ -18669,7 +18770,7 @@
         <v>69.726200000000006</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>17.564499999999999</v>
       </c>
@@ -18680,7 +18781,7 @@
         <v>56.3</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>18.971</v>
       </c>
@@ -18691,7 +18792,7 @@
         <v>56.1845</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>15.155200000000001</v>
       </c>
@@ -18702,7 +18803,7 @@
         <v>55.590899999999998</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>18.825399999999998</v>
       </c>
@@ -18713,7 +18814,7 @@
         <v>53.063600000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>18.9556</v>
       </c>
@@ -18724,7 +18825,7 @@
         <v>52.936399999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>19.601900000000001</v>
       </c>
@@ -18735,7 +18836,7 @@
         <v>51.410800000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>5.9711299999999996</v>
       </c>
@@ -18746,7 +18847,7 @@
         <v>50.392800000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>16.1297</v>
       </c>
@@ -18757,7 +18858,7 @@
         <v>50.354700000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <v>13.263500000000001</v>
       </c>
@@ -18768,7 +18869,7 @@
         <v>47.783799999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <v>18.672999999999998</v>
       </c>
@@ -18779,7 +18880,7 @@
         <v>43.774000000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <v>6.7074499999999997</v>
       </c>
@@ -18790,7 +18891,7 @@
         <v>43.749000000000002</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
         <v>12.4168</v>
       </c>
@@ -18801,7 +18902,7 @@
         <v>43.673099999999998</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
         <v>12.0458</v>
       </c>
@@ -18812,7 +18913,7 @@
         <v>42.375100000000003</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
         <v>8.99709</v>
       </c>
@@ -18823,7 +18924,7 @@
         <v>41.853000000000002</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
         <v>19.404</v>
       </c>
@@ -18834,7 +18935,7 @@
         <v>40.990600000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
         <v>12.3253</v>
       </c>
@@ -18845,7 +18946,7 @@
         <v>38.739100000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
         <v>6.8195300000000003</v>
       </c>
@@ -18856,7 +18957,7 @@
         <v>38.413499999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
         <v>18.247699999999998</v>
       </c>
@@ -18867,7 +18968,7 @@
         <v>36.0931</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
         <v>16.963000000000001</v>
       </c>
@@ -18878,7 +18979,7 @@
         <v>35.954900000000002</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
         <v>11.2456</v>
       </c>
@@ -18889,7 +18990,7 @@
         <v>34.161099999999998</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="2">
         <v>15.5167</v>
       </c>
@@ -18900,7 +19001,7 @@
         <v>33.819000000000003</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="2">
         <v>10.6092</v>
       </c>
@@ -18911,7 +19012,7 @@
         <v>32.972299999999997</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="2">
         <v>18.813600000000001</v>
       </c>
@@ -18922,7 +19023,7 @@
         <v>31.484200000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="2">
         <v>19.59</v>
       </c>
@@ -18933,7 +19034,7 @@
         <v>30.789400000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="2">
         <v>19.2592</v>
       </c>
@@ -18944,7 +19045,7 @@
         <v>30.1357</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="2">
         <v>19.293800000000001</v>
       </c>
@@ -18955,7 +19056,7 @@
         <v>29.011800000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="2">
         <v>17.1877</v>
       </c>
@@ -18966,7 +19067,7 @@
         <v>28.029699999999998</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="2">
         <v>14.853300000000001</v>
       </c>
@@ -18977,7 +19078,7 @@
         <v>27.792200000000001</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="2">
         <v>19.093599999999999</v>
       </c>
@@ -18988,7 +19089,7 @@
         <v>27.096699999999998</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="2">
         <v>9.8219799999999999</v>
       </c>
@@ -18999,7 +19100,7 @@
         <v>23.360800000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="2">
         <v>15.760999999999999</v>
       </c>
@@ -19010,7 +19111,7 @@
         <v>22.685099999999998</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="2">
         <v>18.716100000000001</v>
       </c>
@@ -19021,7 +19122,7 @@
         <v>22.6554</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="2">
         <v>6.7595000000000001</v>
       </c>
@@ -19032,7 +19133,7 @@
         <v>22.31</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="2">
         <v>15.807399999999999</v>
       </c>
@@ -19043,7 +19144,7 @@
         <v>21.263000000000002</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="2">
         <v>14.856299999999999</v>
       </c>
@@ -19054,7 +19155,7 @@
         <v>21.146699999999999</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="2">
         <v>16.256599999999999</v>
       </c>
@@ -19065,7 +19166,7 @@
         <v>19.756699999999999</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="2">
         <v>14.0161</v>
       </c>
@@ -19076,7 +19177,7 @@
         <v>19.060700000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="2">
         <v>15.978400000000001</v>
       </c>
@@ -19087,7 +19188,7 @@
         <v>19.037700000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="2">
         <v>12.1487</v>
       </c>
@@ -19098,7 +19199,7 @@
         <v>18.271899999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="2">
         <v>18.5459</v>
       </c>
@@ -19109,7 +19210,7 @@
         <v>18.1523</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="2">
         <v>19.245100000000001</v>
       </c>
@@ -19120,7 +19221,7 @@
         <v>18.113499999999998</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="2">
         <v>16.4255</v>
       </c>
@@ -19131,7 +19232,7 @@
         <v>17.873799999999999</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="2">
         <v>16.8034</v>
       </c>
@@ -19142,7 +19243,7 @@
         <v>17.422000000000001</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="2">
         <v>14.0128</v>
       </c>
@@ -19153,7 +19254,7 @@
         <v>16.385999999999999</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="2">
         <v>12.975099999999999</v>
       </c>
@@ -19164,7 +19265,7 @@
         <v>14.454800000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="2">
         <v>8.9607500000000009</v>
       </c>
@@ -19175,7 +19276,7 @@
         <v>12.854200000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="2">
         <v>19.064599999999999</v>
       </c>
@@ -19186,7 +19287,7 @@
         <v>11.007</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="2">
         <v>15.279199999999999</v>
       </c>
@@ -19197,7 +19298,7 @@
         <v>10.917999999999999</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="2">
         <v>17.992899999999999</v>
       </c>
@@ -19208,7 +19309,7 @@
         <v>10.8721</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="2">
         <v>17.188300000000002</v>
       </c>
@@ -19219,7 +19320,7 @@
         <v>10.839399999999999</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="2">
         <v>14.3424</v>
       </c>
@@ -19230,7 +19331,7 @@
         <v>10.6599</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="2">
         <v>12.7813</v>
       </c>
@@ -19241,7 +19342,7 @@
         <v>10.5884</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="2">
         <v>19.7102</v>
       </c>
@@ -19252,7 +19353,7 @@
         <v>9.9908800000000006</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="2">
         <v>18.178799999999999</v>
       </c>
@@ -19263,7 +19364,7 @@
         <v>9.7605599999999999</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="2">
         <v>11.9894</v>
       </c>
@@ -19274,7 +19375,7 @@
         <v>9.5507399999999993</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="2">
         <v>4.7716799999999999</v>
       </c>
@@ -19285,7 +19386,7 @@
         <v>9.49892</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="2">
         <v>19.6875</v>
       </c>
@@ -19296,7 +19397,7 @@
         <v>9.1786799999999999</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="2">
         <v>18.3795</v>
       </c>
@@ -19307,7 +19408,7 @@
         <v>9.1709899999999998</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="2">
         <v>12.452500000000001</v>
       </c>
@@ -19318,7 +19419,7 @@
         <v>8.7152999999999992</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="2">
         <v>19.6965</v>
       </c>
@@ -19329,7 +19430,7 @@
         <v>8.3252400000000009</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="2">
         <v>17.653500000000001</v>
       </c>
@@ -19340,7 +19441,7 @@
         <v>8.2737400000000001</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="2">
         <v>15.952299999999999</v>
       </c>
@@ -19351,7 +19452,7 @@
         <v>8.1303099999999997</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="2">
         <v>10.572900000000001</v>
       </c>
@@ -19362,7 +19463,7 @@
         <v>8.0600199999999997</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="2">
         <v>16.6525</v>
       </c>
@@ -19373,7 +19474,7 @@
         <v>7.9730999999999996</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="2">
         <v>19.893999999999998</v>
       </c>
@@ -19384,7 +19485,7 @@
         <v>7.0536199999999996</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="2">
         <v>16.4847</v>
       </c>
@@ -19395,7 +19496,7 @@
         <v>6.6851599999999998</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="2">
         <v>15.3614</v>
       </c>
@@ -19406,7 +19507,7 @@
         <v>6.0851600000000001</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="2">
         <v>7.1000699999999997</v>
       </c>
@@ -19417,7 +19518,7 @@
         <v>5.7735099999999999</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="2">
         <v>15.2813</v>
       </c>
@@ -19428,7 +19529,7 @@
         <v>5.6213600000000001</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="2">
         <v>17.029499999999999</v>
       </c>
@@ -19439,7 +19540,7 @@
         <v>4.9717399999999996</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="2">
         <v>14.0298</v>
       </c>
@@ -19447,7 +19548,7 @@
         <v>195.66399999999999</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="2">
         <v>13.667</v>
       </c>
@@ -19455,7 +19556,7 @@
         <v>18.113499999999998</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="2">
         <v>18.246300000000002</v>
       </c>
@@ -19483,7 +19584,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F1">
         <v>9724</v>
@@ -19500,16 +19601,16 @@
     </row>
     <row r="3" spans="1:8" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F3">
         <v>7226.73</v>
@@ -19702,7 +19803,7 @@
         <v>437.6</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>11.920500000000001</v>
       </c>
@@ -19713,7 +19814,7 @@
         <v>433.87099999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>7.0134499999999997</v>
       </c>
@@ -19724,7 +19825,7 @@
         <v>433.08800000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>9.29101</v>
       </c>
@@ -19735,7 +19836,7 @@
         <v>418.55799999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>11.232699999999999</v>
       </c>
@@ -19746,7 +19847,7 @@
         <v>409.59300000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>13.8042</v>
       </c>
@@ -19757,7 +19858,7 @@
         <v>393.75900000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>19.9099</v>
       </c>
@@ -19768,7 +19869,7 @@
         <v>270.78300000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>18.785299999999999</v>
       </c>
@@ -19779,7 +19880,7 @@
         <v>266.63499999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>18.2075</v>
       </c>
@@ -19790,7 +19891,7 @@
         <v>250.92699999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>10.3703</v>
       </c>
@@ -19801,7 +19902,7 @@
         <v>248.87200000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>12.1099</v>
       </c>
@@ -19812,7 +19913,7 @@
         <v>244.589</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>19.781300000000002</v>
       </c>
@@ -19823,7 +19924,7 @@
         <v>238.74799999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>9.81691</v>
       </c>
@@ -19834,7 +19935,7 @@
         <v>221.37700000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>17.866900000000001</v>
       </c>
@@ -19845,7 +19946,7 @@
         <v>214.501</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>17.074000000000002</v>
       </c>
@@ -19856,7 +19957,7 @@
         <v>196.87299999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>14.13</v>
       </c>
@@ -19867,7 +19968,7 @@
         <v>192.26499999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>16.306699999999999</v>
       </c>
@@ -19878,7 +19979,7 @@
         <v>189.00899999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>17.1709</v>
       </c>
@@ -19889,7 +19990,7 @@
         <v>160.761</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>18.2758</v>
       </c>
@@ -19900,7 +20001,7 @@
         <v>159.26599999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <v>3.8514400000000002</v>
       </c>
@@ -19911,7 +20012,7 @@
         <v>143.37799999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <v>14.486499999999999</v>
       </c>
@@ -19922,7 +20023,7 @@
         <v>141.685</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <v>13.291700000000001</v>
       </c>
@@ -19933,7 +20034,7 @@
         <v>119.854</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
         <v>16.2517</v>
       </c>
@@ -19944,7 +20045,7 @@
         <v>107.79600000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
         <v>17.966999999999999</v>
       </c>
@@ -19955,7 +20056,7 @@
         <v>96.235100000000003</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
         <v>19.692299999999999</v>
       </c>
@@ -19966,7 +20067,7 @@
         <v>77.927800000000005</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
         <v>8.3992599999999999</v>
       </c>
@@ -19977,7 +20078,7 @@
         <v>74.685100000000006</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
         <v>8.8238699999999994</v>
       </c>
@@ -19988,7 +20089,7 @@
         <v>71.555700000000002</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
         <v>19.676400000000001</v>
       </c>
@@ -19999,7 +20100,7 @@
         <v>68.862499999999997</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
         <v>14.414</v>
       </c>
@@ -20010,7 +20111,7 @@
         <v>68.480400000000003</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
         <v>14.1957</v>
       </c>
@@ -20021,7 +20122,7 @@
         <v>66.868399999999994</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
         <v>19.353300000000001</v>
       </c>
@@ -20032,7 +20133,7 @@
         <v>65.720399999999998</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="2">
         <v>11.4298</v>
       </c>
@@ -20043,7 +20144,7 @@
         <v>60.477400000000003</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="2">
         <v>14.4733</v>
       </c>
@@ -20054,7 +20155,7 @@
         <v>60.061199999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="2">
         <v>19.0565</v>
       </c>
@@ -20065,7 +20166,7 @@
         <v>55.388300000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="2">
         <v>15.3803</v>
       </c>
@@ -20076,7 +20177,7 @@
         <v>50.365200000000002</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="2">
         <v>16.991499999999998</v>
       </c>
@@ -20087,7 +20188,7 @@
         <v>50.101999999999997</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="2">
         <v>18.581499999999998</v>
       </c>
@@ -20098,7 +20199,7 @@
         <v>47.768000000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="2">
         <v>12.964</v>
       </c>
@@ -20109,7 +20210,7 @@
         <v>46.106299999999997</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="2">
         <v>9.7736599999999996</v>
       </c>
@@ -20120,7 +20221,7 @@
         <v>45.646799999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="2">
         <v>11.5908</v>
       </c>
@@ -20131,7 +20232,7 @@
         <v>42.357399999999998</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="2">
         <v>18.145499999999998</v>
       </c>
@@ -20142,7 +20243,7 @@
         <v>38.823799999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="2">
         <v>16.674199999999999</v>
       </c>
@@ -20153,7 +20254,7 @@
         <v>38.473700000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="2">
         <v>19.055399999999999</v>
       </c>
@@ -20164,7 +20265,7 @@
         <v>36.694800000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="2">
         <v>19.566299999999998</v>
       </c>
@@ -20175,7 +20276,7 @@
         <v>36.675699999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="2">
         <v>8.2465299999999999</v>
       </c>
@@ -20186,7 +20287,7 @@
         <v>31.729900000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="2">
         <v>11.696999999999999</v>
       </c>
@@ -20197,7 +20298,7 @@
         <v>28.0395</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="2">
         <v>15.4754</v>
       </c>
@@ -20208,7 +20309,7 @@
         <v>27.5379</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="2">
         <v>16.316199999999998</v>
       </c>
@@ -20219,7 +20320,7 @@
         <v>27.534099999999999</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="2">
         <v>12.8378</v>
       </c>
@@ -20230,7 +20331,7 @@
         <v>27.359400000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="2">
         <v>12.439399999999999</v>
       </c>
@@ -20241,7 +20342,7 @@
         <v>27.036300000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="2">
         <v>16.427600000000002</v>
       </c>
@@ -20252,7 +20353,7 @@
         <v>26.792400000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="2">
         <v>11.4435</v>
       </c>
@@ -20263,7 +20364,7 @@
         <v>25.113299999999999</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="2">
         <v>13.902100000000001</v>
       </c>
@@ -20274,7 +20375,7 @@
         <v>24.7195</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="2">
         <v>19.577100000000002</v>
       </c>
@@ -20285,7 +20386,7 @@
         <v>20.833300000000001</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="2">
         <v>15.5901</v>
       </c>
@@ -20296,7 +20397,7 @@
         <v>19.658999999999999</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="2">
         <v>16.95</v>
       </c>
@@ -20307,7 +20408,7 @@
         <v>17.627400000000002</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="2">
         <v>18.322700000000001</v>
       </c>
@@ -20318,7 +20419,7 @@
         <v>17.4208</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="2">
         <v>17.9526</v>
       </c>
@@ -20329,7 +20430,7 @@
         <v>15.508100000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="2">
         <v>10.387</v>
       </c>
@@ -20340,7 +20441,7 @@
         <v>14.8324</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="2">
         <v>12.766299999999999</v>
       </c>
@@ -20351,7 +20452,7 @@
         <v>14.6312</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="2">
         <v>11.1594</v>
       </c>
@@ -20362,7 +20463,7 @@
         <v>14.4842</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="2">
         <v>19.185400000000001</v>
       </c>
@@ -20373,7 +20474,7 @@
         <v>14.1783</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="2">
         <v>19.003699999999998</v>
       </c>
@@ -20384,7 +20485,7 @@
         <v>13.6775</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="2">
         <v>17.9526</v>
       </c>
@@ -20395,7 +20496,7 @@
         <v>13.4747</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="2">
         <v>17.826000000000001</v>
       </c>
@@ -20406,7 +20507,7 @@
         <v>13.259399999999999</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="2">
         <v>13.1043</v>
       </c>
@@ -20417,7 +20518,7 @@
         <v>12.7521</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="2">
         <v>14.5047</v>
       </c>
@@ -20428,7 +20529,7 @@
         <v>12.509600000000001</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="2">
         <v>9.5816300000000005</v>
       </c>
@@ -20439,7 +20540,7 @@
         <v>12.290100000000001</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="2">
         <v>19.084299999999999</v>
       </c>
@@ -20450,7 +20551,7 @@
         <v>10.2827</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="2">
         <v>9.8898399999999995</v>
       </c>
@@ -20461,7 +20562,7 @@
         <v>10.0572</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="2">
         <v>8.7073599999999995</v>
       </c>
@@ -20472,7 +20573,7 @@
         <v>9.6974999999999998</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="2">
         <v>17.485800000000001</v>
       </c>
@@ -20483,7 +20584,7 @@
         <v>9.5161899999999999</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="2">
         <v>18.140999999999998</v>
       </c>
@@ -20494,7 +20595,7 @@
         <v>7.4758800000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="2">
         <v>11.694599999999999</v>
       </c>
@@ -20505,7 +20606,7 @@
         <v>7.1264000000000003</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="2">
         <v>16.5334</v>
       </c>
@@ -20516,7 +20617,7 @@
         <v>7.0625999999999998</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="2">
         <v>13.574400000000001</v>
       </c>
@@ -20527,7 +20628,7 @@
         <v>7.0369200000000003</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="2">
         <v>13.8886</v>
       </c>
@@ -20538,7 +20639,7 @@
         <v>6.84415</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="2">
         <v>17.266400000000001</v>
       </c>
@@ -20549,7 +20650,7 @@
         <v>6.6954599999999997</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="2">
         <v>16.581700000000001</v>
       </c>
@@ -20560,7 +20661,7 @@
         <v>6.6589600000000004</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="2">
         <v>13.341699999999999</v>
       </c>
@@ -20571,7 +20672,7 @@
         <v>5.5611499999999996</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="2">
         <v>19.9651</v>
       </c>
@@ -20582,7 +20683,7 @@
         <v>4.9491500000000004</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="2">
         <v>16.613399999999999</v>
       </c>
@@ -20590,7 +20691,7 @@
         <v>409.59300000000002</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="2">
         <v>16.050799999999999</v>
       </c>
@@ -20598,7 +20699,7 @@
         <v>7.0369200000000003</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="2">
         <v>18.152899999999999</v>
       </c>

--- a/Graphs/Energy_and_equilibrium_study.xlsx
+++ b/Graphs/Energy_and_equilibrium_study.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="30">
   <si>
     <t>E_kin initial</t>
   </si>
@@ -102,6 +102,27 @@
   </si>
   <si>
     <t>percentage</t>
+  </si>
+  <si>
+    <t>t_final = 2tau</t>
+  </si>
+  <si>
+    <t>G = 986.96/number_of_particles</t>
+  </si>
+  <si>
+    <t>Number of times steps: 2e3</t>
+  </si>
+  <si>
+    <t>dt = 1e-3</t>
+  </si>
+  <si>
+    <t>N = 50</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>E_kin af E_tot</t>
   </si>
 </sst>
 </file>
@@ -204,7 +225,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -346,11 +366,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="297747384"/>
-        <c:axId val="297780536"/>
+        <c:axId val="188045488"/>
+        <c:axId val="188048232"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="297747384"/>
+        <c:axId val="188045488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -407,12 +427,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="297780536"/>
+        <c:crossAx val="188048232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="297780536"/>
+        <c:axId val="188048232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -469,7 +489,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="297747384"/>
+        <c:crossAx val="188045488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -682,11 +702,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="297780928"/>
-        <c:axId val="297782496"/>
+        <c:axId val="188046272"/>
+        <c:axId val="188046664"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="297780928"/>
+        <c:axId val="188046272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -743,12 +763,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="297782496"/>
+        <c:crossAx val="188046664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="297782496"/>
+        <c:axId val="188046664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -805,7 +825,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="297780928"/>
+        <c:crossAx val="188046272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2294,10 +2314,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2310,7 +2330,7 @@
     <col min="8" max="8" width="10.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -2338,8 +2358,11 @@
       <c r="I1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>10</v>
       </c>
@@ -2347,13 +2370,13 @@
         <v>62384.3</v>
       </c>
       <c r="E2">
+        <v>23308.9</v>
+      </c>
+      <c r="F2">
         <v>15766.4</v>
       </c>
-      <c r="F2">
-        <v>23308.9</v>
-      </c>
       <c r="G2">
-        <f>SUM(E2:F2)</f>
+        <f t="shared" ref="G2:G6" si="0">SUM(E2:F2)</f>
         <v>39075.300000000003</v>
       </c>
       <c r="H2">
@@ -2364,8 +2387,12 @@
         <f>H2/C2*100</f>
         <v>37.363567436037592</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K2">
+        <f>F2/G2*100</f>
+        <v>40.348762517498258</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>20</v>
       </c>
@@ -2379,7 +2406,7 @@
         <v>34753.800000000003</v>
       </c>
       <c r="G3">
-        <f>SUM(E3:F3)</f>
+        <f t="shared" si="0"/>
         <v>73086.399999999994</v>
       </c>
       <c r="H3">
@@ -2390,8 +2417,12 @@
         <f>H3/C3*100</f>
         <v>32.227002967359056</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K3">
+        <f t="shared" ref="K3:K11" si="1">F3/G3*100</f>
+        <v>47.551664878828355</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>30</v>
       </c>
@@ -2399,13 +2430,13 @@
         <v>180199</v>
       </c>
       <c r="E4">
+        <v>60796.800000000003</v>
+      </c>
+      <c r="F4">
         <v>58605.3</v>
       </c>
-      <c r="F4">
-        <v>60796.800000000003</v>
-      </c>
       <c r="G4">
-        <f>SUM(E4:F4)</f>
+        <f t="shared" si="0"/>
         <v>119402.1</v>
       </c>
       <c r="H4">
@@ -2416,16 +2447,339 @@
         <f>H4/C4*100</f>
         <v>33.738755486989383</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K4">
+        <f t="shared" si="1"/>
+        <v>49.082302572567819</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>40</v>
+      </c>
       <c r="C5">
-        <v>214005</v>
+        <v>212556</v>
       </c>
       <c r="E5">
-        <v>78745.5</v>
+        <v>80960</v>
       </c>
       <c r="F5">
-        <v>67629.899999999994</v>
+        <v>65798</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>146758</v>
+      </c>
+      <c r="H5">
+        <f>C5-G5</f>
+        <v>65798</v>
+      </c>
+      <c r="I5">
+        <f>H5/C5*100</f>
+        <v>30.955606992980673</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="1"/>
+        <v>44.834353152809385</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>50</v>
+      </c>
+      <c r="C6">
+        <v>276332</v>
+      </c>
+      <c r="E6">
+        <v>98204</v>
+      </c>
+      <c r="F6">
+        <v>89064</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>187268</v>
+      </c>
+      <c r="H6">
+        <f>C6-G6</f>
+        <v>89064</v>
+      </c>
+      <c r="I6">
+        <f>H6/C6*100</f>
+        <v>32.230794840988374</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>47.559647136723839</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>60</v>
+      </c>
+      <c r="C7">
+        <v>360979</v>
+      </c>
+      <c r="E7">
+        <v>132859</v>
+      </c>
+      <c r="F7">
+        <v>114060</v>
+      </c>
+      <c r="G7">
+        <f>SUM(E7:F7)</f>
+        <v>246919</v>
+      </c>
+      <c r="H7">
+        <f>C7-G7</f>
+        <v>114060</v>
+      </c>
+      <c r="I7">
+        <f>H7/C7*100</f>
+        <v>31.59740594328202</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="1"/>
+        <v>46.19328605737104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>70</v>
+      </c>
+      <c r="C8">
+        <v>407283</v>
+      </c>
+      <c r="E8">
+        <v>143120</v>
+      </c>
+      <c r="F8">
+        <v>132081</v>
+      </c>
+      <c r="G8">
+        <f>SUM(E8:F8)</f>
+        <v>275201</v>
+      </c>
+      <c r="H8">
+        <f>C8-G8</f>
+        <v>132082</v>
+      </c>
+      <c r="I8">
+        <f>H8/C8*100</f>
+        <v>32.430030224684067</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="1"/>
+        <v>47.994375020439605</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>80</v>
+      </c>
+      <c r="C9">
+        <v>446740</v>
+      </c>
+      <c r="E9">
+        <v>168708</v>
+      </c>
+      <c r="F9">
+        <v>139016</v>
+      </c>
+      <c r="G9">
+        <f>SUM(E9:F9)</f>
+        <v>307724</v>
+      </c>
+      <c r="H9">
+        <f>C9-G9</f>
+        <v>139016</v>
+      </c>
+      <c r="I9">
+        <f>H9/C9*100</f>
+        <v>31.117876169584097</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>45.175546918667372</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>90</v>
+      </c>
+      <c r="C10">
+        <v>544320</v>
+      </c>
+      <c r="E10">
+        <v>184534</v>
+      </c>
+      <c r="F10">
+        <v>179893</v>
+      </c>
+      <c r="G10">
+        <f>SUM(E10:F10)</f>
+        <v>364427</v>
+      </c>
+      <c r="H10">
+        <f>C10-G10</f>
+        <v>179893</v>
+      </c>
+      <c r="I10">
+        <f>H10/C10*100</f>
+        <v>33.049125514403293</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="1"/>
+        <v>49.363246960296578</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>100</v>
+      </c>
+      <c r="C11">
+        <v>599065</v>
+      </c>
+      <c r="E11">
+        <v>219157</v>
+      </c>
+      <c r="F11">
+        <v>189954</v>
+      </c>
+      <c r="G11">
+        <f>SUM(E11:F11)</f>
+        <v>409111</v>
+      </c>
+      <c r="H11">
+        <f>C11-G11</f>
+        <v>189954</v>
+      </c>
+      <c r="I11">
+        <f>H11/C11*100</f>
+        <v>31.708412275796448</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="1"/>
+        <v>46.430919725942346</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>50</v>
+      </c>
+      <c r="C20">
+        <v>276332</v>
+      </c>
+      <c r="E20">
+        <v>98204</v>
+      </c>
+      <c r="F20">
+        <v>89064</v>
+      </c>
+      <c r="G20">
+        <f t="shared" ref="G20" si="2">SUM(E20:F20)</f>
+        <v>187268</v>
+      </c>
+      <c r="H20">
+        <f>C20-G20</f>
+        <v>89064</v>
+      </c>
+      <c r="I20">
+        <f>H20/C20*100</f>
+        <v>32.230794840988374</v>
+      </c>
+      <c r="K20">
+        <f t="shared" ref="K20:K22" si="3">F20/G20*100</f>
+        <v>47.559647136723839</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <v>268708</v>
+      </c>
+      <c r="E21">
+        <v>72139</v>
+      </c>
+      <c r="F21">
+        <v>98284</v>
+      </c>
+      <c r="G21">
+        <f>SUM(E21:F21)</f>
+        <v>170423</v>
+      </c>
+      <c r="H21">
+        <f>C21-G21</f>
+        <v>98285</v>
+      </c>
+      <c r="I21">
+        <f>H21/C21*100</f>
+        <v>36.576878991321429</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="3"/>
+        <v>57.670619575996199</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>4</v>
+      </c>
+      <c r="C22">
+        <v>302486</v>
+      </c>
+      <c r="E22">
+        <v>52461</v>
+      </c>
+      <c r="F22">
+        <v>125012</v>
+      </c>
+      <c r="G22">
+        <f>SUM(E22:F22)</f>
+        <v>177473</v>
+      </c>
+      <c r="H22">
+        <f>C22-G22</f>
+        <v>125013</v>
+      </c>
+      <c r="I22">
+        <f>H22/C22*100</f>
+        <v>41.328524295339285</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="3"/>
+        <v>70.44001059316065</v>
       </c>
     </row>
   </sheetData>

--- a/Graphs/Energy_and_equilibrium_study.xlsx
+++ b/Graphs/Energy_and_equilibrium_study.xlsx
@@ -9,19 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
-    <sheet name="Ark2" sheetId="2" r:id="rId2"/>
-    <sheet name="Ark3" sheetId="3" r:id="rId3"/>
-    <sheet name="Ark4" sheetId="4" r:id="rId4"/>
-    <sheet name="Ark5" sheetId="5" r:id="rId5"/>
-    <sheet name="Ark6" sheetId="6" r:id="rId6"/>
-    <sheet name="Ark7" sheetId="7" r:id="rId7"/>
-    <sheet name="Ark8" sheetId="8" r:id="rId8"/>
-    <sheet name="Ark9" sheetId="9" r:id="rId9"/>
-    <sheet name="Ark10" sheetId="10" r:id="rId10"/>
+    <sheet name="Ark11" sheetId="11" r:id="rId2"/>
+    <sheet name="Ark2" sheetId="2" r:id="rId3"/>
+    <sheet name="Ark3" sheetId="3" r:id="rId4"/>
+    <sheet name="Ark4" sheetId="4" r:id="rId5"/>
+    <sheet name="Ark5" sheetId="5" r:id="rId6"/>
+    <sheet name="Ark6" sheetId="6" r:id="rId7"/>
+    <sheet name="Ark7" sheetId="7" r:id="rId8"/>
+    <sheet name="Ark8" sheetId="8" r:id="rId9"/>
+    <sheet name="Ark9" sheetId="9" r:id="rId10"/>
+    <sheet name="Ark10" sheetId="10" r:id="rId11"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="48">
   <si>
     <t>E_kin initial</t>
   </si>
@@ -124,6 +125,60 @@
   <si>
     <t>E_kin af E_tot</t>
   </si>
+  <si>
+    <t>G = 1.536e-13</t>
+  </si>
+  <si>
+    <t>time = 1.0e7 years</t>
+  </si>
+  <si>
+    <t>number of time steps: 2e4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in en </t>
+  </si>
+  <si>
+    <t>fin bound en</t>
+  </si>
+  <si>
+    <t>dev</t>
+  </si>
+  <si>
+    <t>20 (dt 1e5)</t>
+  </si>
+  <si>
+    <t>bound particles</t>
+  </si>
+  <si>
+    <t>70 (1e4)</t>
+  </si>
+  <si>
+    <t>70 (tau)</t>
+  </si>
+  <si>
+    <t>100 (tau)</t>
+  </si>
+  <si>
+    <t>tau:</t>
+  </si>
+  <si>
+    <t>t_final = 1</t>
+  </si>
+  <si>
+    <t>G m tau</t>
+  </si>
+  <si>
+    <t>dt = 1e3</t>
+  </si>
+  <si>
+    <t>70 (xtau)</t>
+  </si>
+  <si>
+    <t>70 (2tau)</t>
+  </si>
+  <si>
+    <t>70 (2e4)</t>
+  </si>
 </sst>
 </file>
 
@@ -187,12 +242,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -366,11 +422,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="188045488"/>
-        <c:axId val="188048232"/>
+        <c:axId val="274325656"/>
+        <c:axId val="274327616"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="188045488"/>
+        <c:axId val="274325656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -427,12 +483,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="188048232"/>
+        <c:crossAx val="274327616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="188048232"/>
+        <c:axId val="274327616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -489,7 +545,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="188045488"/>
+        <c:crossAx val="274325656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -702,11 +758,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="188046272"/>
-        <c:axId val="188046664"/>
+        <c:axId val="274325264"/>
+        <c:axId val="274331144"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="188046272"/>
+        <c:axId val="274325264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -763,12 +819,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="188046664"/>
+        <c:crossAx val="274331144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="188046664"/>
+        <c:axId val="274331144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -825,7 +881,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="188046272"/>
+        <c:crossAx val="274325264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2316,7 +2372,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
@@ -2380,11 +2436,11 @@
         <v>39075.300000000003</v>
       </c>
       <c r="H2">
-        <f>C2-G2</f>
+        <f t="shared" ref="H2:H11" si="1">C2-G2</f>
         <v>23309</v>
       </c>
       <c r="I2">
-        <f>H2/C2*100</f>
+        <f t="shared" ref="I2:I11" si="2">H2/C2*100</f>
         <v>37.363567436037592</v>
       </c>
       <c r="K2">
@@ -2410,15 +2466,15 @@
         <v>73086.399999999994</v>
       </c>
       <c r="H3">
-        <f>C3-G3</f>
+        <f t="shared" si="1"/>
         <v>34753.600000000006</v>
       </c>
       <c r="I3">
-        <f>H3/C3*100</f>
+        <f t="shared" si="2"/>
         <v>32.227002967359056</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K11" si="1">F3/G3*100</f>
+        <f t="shared" ref="K3:K11" si="3">F3/G3*100</f>
         <v>47.551664878828355</v>
       </c>
     </row>
@@ -2440,15 +2496,15 @@
         <v>119402.1</v>
       </c>
       <c r="H4">
-        <f>C4-G4</f>
+        <f t="shared" si="1"/>
         <v>60796.899999999994</v>
       </c>
       <c r="I4">
-        <f>H4/C4*100</f>
+        <f t="shared" si="2"/>
         <v>33.738755486989383</v>
       </c>
       <c r="K4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>49.082302572567819</v>
       </c>
     </row>
@@ -2470,15 +2526,15 @@
         <v>146758</v>
       </c>
       <c r="H5">
-        <f>C5-G5</f>
+        <f t="shared" si="1"/>
         <v>65798</v>
       </c>
       <c r="I5">
-        <f>H5/C5*100</f>
+        <f t="shared" si="2"/>
         <v>30.955606992980673</v>
       </c>
       <c r="K5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>44.834353152809385</v>
       </c>
     </row>
@@ -2500,15 +2556,15 @@
         <v>187268</v>
       </c>
       <c r="H6">
-        <f>C6-G6</f>
+        <f t="shared" si="1"/>
         <v>89064</v>
       </c>
       <c r="I6">
-        <f>H6/C6*100</f>
+        <f t="shared" si="2"/>
         <v>32.230794840988374</v>
       </c>
       <c r="K6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>47.559647136723839</v>
       </c>
     </row>
@@ -2530,15 +2586,15 @@
         <v>246919</v>
       </c>
       <c r="H7">
-        <f>C7-G7</f>
+        <f t="shared" si="1"/>
         <v>114060</v>
       </c>
       <c r="I7">
-        <f>H7/C7*100</f>
+        <f t="shared" si="2"/>
         <v>31.59740594328202</v>
       </c>
       <c r="K7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>46.19328605737104</v>
       </c>
     </row>
@@ -2560,15 +2616,15 @@
         <v>275201</v>
       </c>
       <c r="H8">
-        <f>C8-G8</f>
+        <f t="shared" si="1"/>
         <v>132082</v>
       </c>
       <c r="I8">
-        <f>H8/C8*100</f>
+        <f t="shared" si="2"/>
         <v>32.430030224684067</v>
       </c>
       <c r="K8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>47.994375020439605</v>
       </c>
     </row>
@@ -2590,15 +2646,15 @@
         <v>307724</v>
       </c>
       <c r="H9">
-        <f>C9-G9</f>
+        <f t="shared" si="1"/>
         <v>139016</v>
       </c>
       <c r="I9">
-        <f>H9/C9*100</f>
+        <f t="shared" si="2"/>
         <v>31.117876169584097</v>
       </c>
       <c r="K9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>45.175546918667372</v>
       </c>
     </row>
@@ -2620,15 +2676,15 @@
         <v>364427</v>
       </c>
       <c r="H10">
-        <f>C10-G10</f>
+        <f t="shared" si="1"/>
         <v>179893</v>
       </c>
       <c r="I10">
-        <f>H10/C10*100</f>
+        <f t="shared" si="2"/>
         <v>33.049125514403293</v>
       </c>
       <c r="K10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>49.363246960296578</v>
       </c>
     </row>
@@ -2650,15 +2706,15 @@
         <v>409111</v>
       </c>
       <c r="H11">
-        <f>C11-G11</f>
+        <f t="shared" si="1"/>
         <v>189954</v>
       </c>
       <c r="I11">
-        <f>H11/C11*100</f>
+        <f t="shared" si="2"/>
         <v>31.708412275796448</v>
       </c>
       <c r="K11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>46.430919725942346</v>
       </c>
     </row>
@@ -2706,7 +2762,7 @@
         <v>89064</v>
       </c>
       <c r="G20">
-        <f t="shared" ref="G20" si="2">SUM(E20:F20)</f>
+        <f t="shared" ref="G20" si="4">SUM(E20:F20)</f>
         <v>187268</v>
       </c>
       <c r="H20">
@@ -2718,7 +2774,7 @@
         <v>32.230794840988374</v>
       </c>
       <c r="K20">
-        <f t="shared" ref="K20:K22" si="3">F20/G20*100</f>
+        <f t="shared" ref="K20:K22" si="5">F20/G20*100</f>
         <v>47.559647136723839</v>
       </c>
     </row>
@@ -2748,7 +2804,7 @@
         <v>36.576878991321429</v>
       </c>
       <c r="K21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>57.670619575996199</v>
       </c>
     </row>
@@ -2778,7 +2834,7 @@
         <v>41.328524295339285</v>
       </c>
       <c r="K22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>70.44001059316065</v>
       </c>
     </row>
@@ -2789,6 +2845,1149 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H103"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1">
+        <v>9724</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F2">
+        <v>8499.65</v>
+      </c>
+      <c r="H2">
+        <f>100-88</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3">
+        <v>7226.73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
+        <v>16.8872</v>
+      </c>
+      <c r="B4">
+        <v>10.0572</v>
+      </c>
+      <c r="F4">
+        <v>6849.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
+        <v>16.717700000000001</v>
+      </c>
+      <c r="B5">
+        <v>19.658999999999999</v>
+      </c>
+      <c r="F5">
+        <v>3245.58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
+        <v>14.3491</v>
+      </c>
+      <c r="B6">
+        <v>1256.5999999999999</v>
+      </c>
+      <c r="F6">
+        <v>2560.3200000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
+        <v>19.017900000000001</v>
+      </c>
+      <c r="B7">
+        <v>566.14200000000005</v>
+      </c>
+      <c r="F7">
+        <v>1930.26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="2">
+        <v>19.449100000000001</v>
+      </c>
+      <c r="B8">
+        <v>36.675699999999999</v>
+      </c>
+      <c r="F8">
+        <v>1688.41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="2">
+        <v>19.925699999999999</v>
+      </c>
+      <c r="B9">
+        <v>71.555700000000002</v>
+      </c>
+      <c r="F9">
+        <v>1256.5999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="2">
+        <v>8.3737999999999992</v>
+      </c>
+      <c r="B10">
+        <v>6.84415</v>
+      </c>
+      <c r="F10">
+        <v>1126.98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="2">
+        <v>16.770499999999998</v>
+      </c>
+      <c r="B11">
+        <v>7.1264000000000003</v>
+      </c>
+      <c r="F11">
+        <v>1005.94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="2">
+        <v>12.1122</v>
+      </c>
+      <c r="B12">
+        <v>393.75900000000001</v>
+      </c>
+      <c r="F12">
+        <v>969.17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="2">
+        <v>15.437900000000001</v>
+      </c>
+      <c r="B13">
+        <v>266.63499999999999</v>
+      </c>
+      <c r="F13">
+        <v>941.00800000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="2">
+        <v>14.6035</v>
+      </c>
+      <c r="B14">
+        <v>192.26499999999999</v>
+      </c>
+      <c r="F14">
+        <v>922.01800000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="2">
+        <v>18.687899999999999</v>
+      </c>
+      <c r="B15">
+        <v>13.6775</v>
+      </c>
+      <c r="F15">
+        <v>920.23199999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="2">
+        <v>17.2393</v>
+      </c>
+      <c r="B16">
+        <v>196.87299999999999</v>
+      </c>
+      <c r="F16">
+        <v>919.69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="2">
+        <v>14.020300000000001</v>
+      </c>
+      <c r="B17">
+        <v>14.1783</v>
+      </c>
+      <c r="F17">
+        <v>566.14200000000005</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="2">
+        <v>16.7607</v>
+      </c>
+      <c r="B18">
+        <v>68.480400000000003</v>
+      </c>
+      <c r="F18">
+        <v>531.27599999999995</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="2">
+        <v>10.1768</v>
+      </c>
+      <c r="B19">
+        <v>6849.9</v>
+      </c>
+      <c r="F19">
+        <v>494.27300000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="2">
+        <v>17.273800000000001</v>
+      </c>
+      <c r="B20">
+        <v>27.359400000000001</v>
+      </c>
+      <c r="F20">
+        <v>437.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="2">
+        <v>11.920500000000001</v>
+      </c>
+      <c r="B21">
+        <v>31.729900000000001</v>
+      </c>
+      <c r="F21">
+        <v>433.87099999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2">
+        <v>7.0134499999999997</v>
+      </c>
+      <c r="B22">
+        <v>27.534099999999999</v>
+      </c>
+      <c r="F22">
+        <v>433.08800000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="2">
+        <v>9.29101</v>
+      </c>
+      <c r="B23">
+        <v>141.685</v>
+      </c>
+      <c r="F23">
+        <v>418.55799999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="2">
+        <v>11.232699999999999</v>
+      </c>
+      <c r="B24">
+        <v>13.4747</v>
+      </c>
+      <c r="F24">
+        <v>409.59300000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="2">
+        <v>13.8042</v>
+      </c>
+      <c r="B25">
+        <v>60.061199999999999</v>
+      </c>
+      <c r="F25">
+        <v>393.75900000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="2">
+        <v>19.9099</v>
+      </c>
+      <c r="B26">
+        <v>14.8324</v>
+      </c>
+      <c r="F26">
+        <v>270.78300000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="2">
+        <v>18.785299999999999</v>
+      </c>
+      <c r="B27">
+        <v>20.833300000000001</v>
+      </c>
+      <c r="F27">
+        <v>266.63499999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="2">
+        <v>18.2075</v>
+      </c>
+      <c r="B28">
+        <v>65.720399999999998</v>
+      </c>
+      <c r="F28">
+        <v>250.92699999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="2">
+        <v>10.3703</v>
+      </c>
+      <c r="B29">
+        <v>437.6</v>
+      </c>
+      <c r="F29">
+        <v>248.87200000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="2">
+        <v>12.1099</v>
+      </c>
+      <c r="B30">
+        <v>969.17</v>
+      </c>
+      <c r="F30">
+        <v>244.589</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="2">
+        <v>19.781300000000002</v>
+      </c>
+      <c r="B31">
+        <v>221.37700000000001</v>
+      </c>
+      <c r="F31">
+        <v>238.74799999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="2">
+        <v>9.81691</v>
+      </c>
+      <c r="B32">
+        <v>922.01800000000003</v>
+      </c>
+      <c r="F32">
+        <v>221.37700000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="2">
+        <v>17.866900000000001</v>
+      </c>
+      <c r="B33">
+        <v>2560.3200000000002</v>
+      </c>
+      <c r="F33">
+        <v>214.501</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="2">
+        <v>17.074000000000002</v>
+      </c>
+      <c r="B34">
+        <v>494.27300000000002</v>
+      </c>
+      <c r="F34">
+        <v>196.87299999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="2">
+        <v>14.13</v>
+      </c>
+      <c r="B35">
+        <v>13.259399999999999</v>
+      </c>
+      <c r="F35">
+        <v>192.26499999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="2">
+        <v>16.306699999999999</v>
+      </c>
+      <c r="B36">
+        <v>6.6954599999999997</v>
+      </c>
+      <c r="F36">
+        <v>189.00899999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="2">
+        <v>17.1709</v>
+      </c>
+      <c r="B37">
+        <v>60.477400000000003</v>
+      </c>
+      <c r="F37">
+        <v>160.761</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="2">
+        <v>18.2758</v>
+      </c>
+      <c r="B38">
+        <v>36.694800000000001</v>
+      </c>
+      <c r="F38">
+        <v>159.26599999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="2">
+        <v>3.8514400000000002</v>
+      </c>
+      <c r="B39">
+        <v>14.6312</v>
+      </c>
+      <c r="F39">
+        <v>143.37799999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="2">
+        <v>14.486499999999999</v>
+      </c>
+      <c r="B40">
+        <v>1126.98</v>
+      </c>
+      <c r="F40">
+        <v>141.685</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="2">
+        <v>13.291700000000001</v>
+      </c>
+      <c r="B41">
+        <v>28.0395</v>
+      </c>
+      <c r="F41">
+        <v>119.854</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="2">
+        <v>16.2517</v>
+      </c>
+      <c r="B42">
+        <v>45.646799999999999</v>
+      </c>
+      <c r="F42">
+        <v>107.79600000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="2">
+        <v>17.966999999999999</v>
+      </c>
+      <c r="B43">
+        <v>9.5161899999999999</v>
+      </c>
+      <c r="F43">
+        <v>96.235100000000003</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="2">
+        <v>19.692299999999999</v>
+      </c>
+      <c r="B44">
+        <v>74.685100000000006</v>
+      </c>
+      <c r="F44">
+        <v>77.927800000000005</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="2">
+        <v>8.3992599999999999</v>
+      </c>
+      <c r="B45">
+        <v>238.74799999999999</v>
+      </c>
+      <c r="F45">
+        <v>74.685100000000006</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="2">
+        <v>8.8238699999999994</v>
+      </c>
+      <c r="B46">
+        <v>214.501</v>
+      </c>
+      <c r="F46">
+        <v>71.555700000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="2">
+        <v>19.676400000000001</v>
+      </c>
+      <c r="B47">
+        <v>42.357399999999998</v>
+      </c>
+      <c r="F47">
+        <v>68.862499999999997</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="2">
+        <v>14.414</v>
+      </c>
+      <c r="B48">
+        <v>46.106299999999997</v>
+      </c>
+      <c r="F48">
+        <v>68.480400000000003</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="2">
+        <v>14.1957</v>
+      </c>
+      <c r="B49">
+        <v>7.0625999999999998</v>
+      </c>
+      <c r="F49">
+        <v>66.868399999999994</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="2">
+        <v>19.353300000000001</v>
+      </c>
+      <c r="B50">
+        <v>8499.65</v>
+      </c>
+      <c r="F50">
+        <v>65.720399999999998</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="2">
+        <v>11.4298</v>
+      </c>
+      <c r="B51">
+        <v>119.854</v>
+      </c>
+      <c r="F51">
+        <v>60.477400000000003</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="2">
+        <v>14.4733</v>
+      </c>
+      <c r="B52">
+        <v>55.388300000000001</v>
+      </c>
+      <c r="F52">
+        <v>60.061199999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="2">
+        <v>19.0565</v>
+      </c>
+      <c r="B53">
+        <v>12.7521</v>
+      </c>
+      <c r="F53">
+        <v>55.388300000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="2">
+        <v>15.3803</v>
+      </c>
+      <c r="B54">
+        <v>38.823799999999999</v>
+      </c>
+      <c r="F54">
+        <v>50.365200000000002</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="2">
+        <v>16.991499999999998</v>
+      </c>
+      <c r="B55">
+        <v>26.792400000000001</v>
+      </c>
+      <c r="F55">
+        <v>50.101999999999997</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="2">
+        <v>18.581499999999998</v>
+      </c>
+      <c r="B56">
+        <v>9724</v>
+      </c>
+      <c r="F56">
+        <v>47.768000000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="2">
+        <v>12.964</v>
+      </c>
+      <c r="B57">
+        <v>77.927800000000005</v>
+      </c>
+      <c r="F57">
+        <v>46.106299999999997</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="2">
+        <v>9.7736599999999996</v>
+      </c>
+      <c r="B58">
+        <v>7226.73</v>
+      </c>
+      <c r="F58">
+        <v>45.646799999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="2">
+        <v>11.5908</v>
+      </c>
+      <c r="B59">
+        <v>143.37799999999999</v>
+      </c>
+      <c r="F59">
+        <v>42.357399999999998</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="2">
+        <v>18.145499999999998</v>
+      </c>
+      <c r="B60">
+        <v>4.9491500000000004</v>
+      </c>
+      <c r="F60">
+        <v>38.823799999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="2">
+        <v>16.674199999999999</v>
+      </c>
+      <c r="B61">
+        <v>159.26599999999999</v>
+      </c>
+      <c r="F61">
+        <v>38.473700000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="2">
+        <v>19.055399999999999</v>
+      </c>
+      <c r="B62">
+        <v>50.365200000000002</v>
+      </c>
+      <c r="F62">
+        <v>36.694800000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="2">
+        <v>19.566299999999998</v>
+      </c>
+      <c r="B63">
+        <v>96.235100000000003</v>
+      </c>
+      <c r="F63">
+        <v>36.675699999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="2">
+        <v>8.2465299999999999</v>
+      </c>
+      <c r="B64">
+        <v>1688.41</v>
+      </c>
+      <c r="F64">
+        <v>31.729900000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="2">
+        <v>11.696999999999999</v>
+      </c>
+      <c r="B65">
+        <v>38.473700000000001</v>
+      </c>
+      <c r="F65">
+        <v>28.0395</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="2">
+        <v>15.4754</v>
+      </c>
+      <c r="B66">
+        <v>15.508100000000001</v>
+      </c>
+      <c r="F66">
+        <v>27.5379</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="2">
+        <v>16.316199999999998</v>
+      </c>
+      <c r="B67">
+        <v>24.7195</v>
+      </c>
+      <c r="F67">
+        <v>27.534099999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="2">
+        <v>12.8378</v>
+      </c>
+      <c r="B68">
+        <v>27.5379</v>
+      </c>
+      <c r="F68">
+        <v>27.359400000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="2">
+        <v>12.439399999999999</v>
+      </c>
+      <c r="B69">
+        <v>6.6589600000000004</v>
+      </c>
+      <c r="F69">
+        <v>27.036300000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="2">
+        <v>16.427600000000002</v>
+      </c>
+      <c r="B70">
+        <v>418.55799999999999</v>
+      </c>
+      <c r="F70">
+        <v>26.792400000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="2">
+        <v>11.4435</v>
+      </c>
+      <c r="B71">
+        <v>107.79600000000001</v>
+      </c>
+      <c r="F71">
+        <v>25.113299999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="2">
+        <v>13.902100000000001</v>
+      </c>
+      <c r="B72">
+        <v>10.2827</v>
+      </c>
+      <c r="F72">
+        <v>24.7195</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="2">
+        <v>19.577100000000002</v>
+      </c>
+      <c r="B73">
+        <v>244.589</v>
+      </c>
+      <c r="F73">
+        <v>20.833300000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="2">
+        <v>15.5901</v>
+      </c>
+      <c r="B74">
+        <v>17.627400000000002</v>
+      </c>
+      <c r="F74">
+        <v>19.658999999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="2">
+        <v>16.95</v>
+      </c>
+      <c r="B75">
+        <v>160.761</v>
+      </c>
+      <c r="F75">
+        <v>17.627400000000002</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="2">
+        <v>18.322700000000001</v>
+      </c>
+      <c r="B76">
+        <v>433.08800000000002</v>
+      </c>
+      <c r="F76">
+        <v>17.4208</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="2">
+        <v>17.9526</v>
+      </c>
+      <c r="B77">
+        <v>27.036300000000001</v>
+      </c>
+      <c r="F77">
+        <v>15.508100000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="2">
+        <v>10.387</v>
+      </c>
+      <c r="B78">
+        <v>14.4842</v>
+      </c>
+      <c r="F78">
+        <v>14.8324</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="2">
+        <v>12.766299999999999</v>
+      </c>
+      <c r="B79">
+        <v>17.4208</v>
+      </c>
+      <c r="F79">
+        <v>14.6312</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="2">
+        <v>11.1594</v>
+      </c>
+      <c r="B80">
+        <v>7.4758800000000001</v>
+      </c>
+      <c r="F80">
+        <v>14.4842</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="2">
+        <v>19.185400000000001</v>
+      </c>
+      <c r="B81">
+        <v>433.87099999999998</v>
+      </c>
+      <c r="F81">
+        <v>14.1783</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="2">
+        <v>19.003699999999998</v>
+      </c>
+      <c r="B82">
+        <v>25.113299999999999</v>
+      </c>
+      <c r="F82">
+        <v>13.6775</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="2">
+        <v>17.9526</v>
+      </c>
+      <c r="B83">
+        <v>50.101999999999997</v>
+      </c>
+      <c r="F83">
+        <v>13.4747</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="2">
+        <v>17.826000000000001</v>
+      </c>
+      <c r="B84">
+        <v>68.862499999999997</v>
+      </c>
+      <c r="F84">
+        <v>13.259399999999999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="2">
+        <v>13.1043</v>
+      </c>
+      <c r="B85">
+        <v>12.509600000000001</v>
+      </c>
+      <c r="F85">
+        <v>12.7521</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="2">
+        <v>14.5047</v>
+      </c>
+      <c r="B86">
+        <v>250.92699999999999</v>
+      </c>
+      <c r="F86">
+        <v>12.509600000000001</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="2">
+        <v>9.5816300000000005</v>
+      </c>
+      <c r="B87">
+        <v>9.6974999999999998</v>
+      </c>
+      <c r="F87">
+        <v>12.290100000000001</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="2">
+        <v>19.084299999999999</v>
+      </c>
+      <c r="B88">
+        <v>5.5611499999999996</v>
+      </c>
+      <c r="F88">
+        <v>10.2827</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="2">
+        <v>9.8898399999999995</v>
+      </c>
+      <c r="B89">
+        <v>12.290100000000001</v>
+      </c>
+      <c r="F89">
+        <v>10.0572</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="2">
+        <v>8.7073599999999995</v>
+      </c>
+      <c r="B90">
+        <v>1930.26</v>
+      </c>
+      <c r="F90">
+        <v>9.6974999999999998</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="2">
+        <v>17.485800000000001</v>
+      </c>
+      <c r="B91">
+        <v>189.00899999999999</v>
+      </c>
+      <c r="F91">
+        <v>9.5161899999999999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="2">
+        <v>18.140999999999998</v>
+      </c>
+      <c r="B92">
+        <v>248.87200000000001</v>
+      </c>
+      <c r="F92">
+        <v>7.4758800000000001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="2">
+        <v>11.694599999999999</v>
+      </c>
+      <c r="B93">
+        <v>920.23199999999997</v>
+      </c>
+      <c r="F93">
+        <v>7.1264000000000003</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="2">
+        <v>16.5334</v>
+      </c>
+      <c r="B94">
+        <v>941.00800000000004</v>
+      </c>
+      <c r="F94">
+        <v>7.0625999999999998</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="2">
+        <v>13.574400000000001</v>
+      </c>
+      <c r="B95">
+        <v>270.78300000000002</v>
+      </c>
+      <c r="F95">
+        <v>7.0369200000000003</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="2">
+        <v>13.8886</v>
+      </c>
+      <c r="B96">
+        <v>919.69</v>
+      </c>
+      <c r="F96">
+        <v>6.84415</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="2">
+        <v>17.266400000000001</v>
+      </c>
+      <c r="B97">
+        <v>531.27599999999995</v>
+      </c>
+      <c r="F97">
+        <v>6.6954599999999997</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="2">
+        <v>16.581700000000001</v>
+      </c>
+      <c r="B98">
+        <v>1005.94</v>
+      </c>
+      <c r="F98">
+        <v>6.6589600000000004</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="2">
+        <v>13.341699999999999</v>
+      </c>
+      <c r="B99">
+        <v>47.768000000000001</v>
+      </c>
+      <c r="F99">
+        <v>5.5611499999999996</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="2">
+        <v>19.9651</v>
+      </c>
+      <c r="B100">
+        <v>3245.58</v>
+      </c>
+      <c r="F100">
+        <v>4.9491500000000004</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="2">
+        <v>16.613399999999999</v>
+      </c>
+      <c r="B101">
+        <v>409.59300000000002</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="2">
+        <v>16.050799999999999</v>
+      </c>
+      <c r="B102">
+        <v>7.0369200000000003</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="2">
+        <v>18.152899999999999</v>
+      </c>
+      <c r="B103">
+        <v>66.868399999999994</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="F1:F103">
+    <sortCondition descending="1" ref="F1:F103"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B19"/>
   <sheetViews>
@@ -2931,6 +4130,233 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>20</v>
+      </c>
+      <c r="B2" s="3">
+        <v>-3.6499999999999998E-10</v>
+      </c>
+      <c r="C2" s="3">
+        <v>-2.2900000000000001E-10</v>
+      </c>
+      <c r="D2" s="3">
+        <f>(B2-C2)/B2*100</f>
+        <v>37.260273972602732</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>50</v>
+      </c>
+      <c r="B3" s="3">
+        <v>-2.3699999999999999E-9</v>
+      </c>
+      <c r="C3" s="3">
+        <v>-4.3400000000000003E-9</v>
+      </c>
+      <c r="D3" s="3">
+        <f>(B3-C3)/B3*100</f>
+        <v>-83.122362869198327</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="3">
+        <v>-3.0900000000000002E-10</v>
+      </c>
+      <c r="C4" s="3">
+        <v>-3.9800000000000002E-10</v>
+      </c>
+      <c r="D4" s="3">
+        <f>(B4-C4)/B4*100</f>
+        <v>-28.802588996763749</v>
+      </c>
+      <c r="E4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="3">
+        <v>-4.2700000000000004E-9</v>
+      </c>
+      <c r="C5" s="3">
+        <v>-3.2500000000000002E-9</v>
+      </c>
+      <c r="D5" s="3">
+        <f>(B5-C5)/B5*100</f>
+        <v>23.887587822014051</v>
+      </c>
+      <c r="E5">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="3">
+        <v>-397007</v>
+      </c>
+      <c r="C6" s="3">
+        <v>-406026</v>
+      </c>
+      <c r="D6" s="3">
+        <f>(B6-C6)/B6*100</f>
+        <v>-2.2717483570818651</v>
+      </c>
+      <c r="E6">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="3">
+        <v>-586281</v>
+      </c>
+      <c r="C7" s="3">
+        <v>-628610</v>
+      </c>
+      <c r="D7" s="3">
+        <f>(B7-C7)/B7*100</f>
+        <v>-7.2199167293499196</v>
+      </c>
+      <c r="E7">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="3">
+        <v>-417959</v>
+      </c>
+      <c r="C8" s="3">
+        <v>-244336</v>
+      </c>
+      <c r="D8" s="3">
+        <f>(B8-C8)/B8*100</f>
+        <v>41.540677434868009</v>
+      </c>
+      <c r="E8">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="3">
+        <v>-395576</v>
+      </c>
+      <c r="C9" s="3">
+        <v>-85357</v>
+      </c>
+      <c r="D9" s="3">
+        <f>(B9-C9)/B9*100</f>
+        <v>78.422098408396863</v>
+      </c>
+      <c r="E9">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="3">
+        <v>-414783</v>
+      </c>
+      <c r="C10" s="3">
+        <v>-246874</v>
+      </c>
+      <c r="D10" s="3">
+        <f>(B10-C10)/B10*100</f>
+        <v>40.481167260953313</v>
+      </c>
+      <c r="E10">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13070,7 +14496,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I103"/>
   <sheetViews>
@@ -14216,7 +15642,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I103"/>
   <sheetViews>
@@ -15358,7 +16784,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I103"/>
   <sheetViews>
@@ -16500,7 +17926,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F103"/>
   <sheetViews>
@@ -17640,7 +19066,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I103"/>
   <sheetViews>
@@ -18773,1149 +20199,6 @@
       </c>
       <c r="B103">
         <v>9.7125900000000005</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState ref="F1:F103">
-    <sortCondition descending="1" ref="F1:F103"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H103"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1">
-        <v>1791.76</v>
-      </c>
-      <c r="H1">
-        <f>100-83</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F2">
-        <v>1567.26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3">
-        <v>1416.98</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
-        <v>19.3962</v>
-      </c>
-      <c r="B4">
-        <v>22.31</v>
-      </c>
-      <c r="F4">
-        <v>1371.46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
-        <v>15.833</v>
-      </c>
-      <c r="B5">
-        <v>19.037700000000001</v>
-      </c>
-      <c r="F5">
-        <v>734.51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
-        <v>11.2636</v>
-      </c>
-      <c r="B6">
-        <v>354.815</v>
-      </c>
-      <c r="F6">
-        <v>731.96699999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
-        <v>14.8089</v>
-      </c>
-      <c r="B7">
-        <v>28.029699999999998</v>
-      </c>
-      <c r="F7">
-        <v>501.22699999999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
-        <v>18.721399999999999</v>
-      </c>
-      <c r="B8">
-        <v>1567.26</v>
-      </c>
-      <c r="F8">
-        <v>425.72399999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
-        <v>19.73</v>
-      </c>
-      <c r="B9">
-        <v>5.7735099999999999</v>
-      </c>
-      <c r="F9">
-        <v>354.815</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="2">
-        <v>11.803699999999999</v>
-      </c>
-      <c r="B10">
-        <v>27.096699999999998</v>
-      </c>
-      <c r="F10">
-        <v>294.54199999999997</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="2">
-        <v>10.517300000000001</v>
-      </c>
-      <c r="B11">
-        <v>14.454800000000001</v>
-      </c>
-      <c r="F11">
-        <v>248.172</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="2">
-        <v>14.5641</v>
-      </c>
-      <c r="B12">
-        <v>734.51</v>
-      </c>
-      <c r="F12">
-        <v>242.62299999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="2">
-        <v>16.481400000000001</v>
-      </c>
-      <c r="B13">
-        <v>10.8721</v>
-      </c>
-      <c r="F13">
-        <v>233.49100000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="2">
-        <v>13.947900000000001</v>
-      </c>
-      <c r="B14">
-        <v>43.749000000000002</v>
-      </c>
-      <c r="F14">
-        <v>218.65100000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="2">
-        <v>14.030200000000001</v>
-      </c>
-      <c r="B15">
-        <v>242.62299999999999</v>
-      </c>
-      <c r="F15">
-        <v>208.49700000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="2">
-        <v>9.88734</v>
-      </c>
-      <c r="B16">
-        <v>125.482</v>
-      </c>
-      <c r="F16">
-        <v>195.66399999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="2">
-        <v>14.820399999999999</v>
-      </c>
-      <c r="B17">
-        <v>17.873799999999999</v>
-      </c>
-      <c r="F17">
-        <v>176.10599999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="2">
-        <v>17.116599999999998</v>
-      </c>
-      <c r="B18">
-        <v>74.378799999999998</v>
-      </c>
-      <c r="F18">
-        <v>168.53800000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="2">
-        <v>13.5943</v>
-      </c>
-      <c r="B19">
-        <v>8.3252400000000009</v>
-      </c>
-      <c r="F19">
-        <v>165.13200000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="2">
-        <v>13.411300000000001</v>
-      </c>
-      <c r="B20">
-        <v>30.789400000000001</v>
-      </c>
-      <c r="F20">
-        <v>164.56899999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="2">
-        <v>19.618200000000002</v>
-      </c>
-      <c r="B21">
-        <v>9.7605599999999999</v>
-      </c>
-      <c r="F21">
-        <v>148.05000000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="2">
-        <v>16.630400000000002</v>
-      </c>
-      <c r="B22">
-        <v>9.1709899999999998</v>
-      </c>
-      <c r="F22">
-        <v>136.60900000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="2">
-        <v>7.5518000000000001</v>
-      </c>
-      <c r="B23">
-        <v>165.13200000000001</v>
-      </c>
-      <c r="F23">
-        <v>129.02500000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="2">
-        <v>11.0791</v>
-      </c>
-      <c r="B24">
-        <v>21.263000000000002</v>
-      </c>
-      <c r="F24">
-        <v>125.482</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="2">
-        <v>12.0351</v>
-      </c>
-      <c r="B25">
-        <v>129.02500000000001</v>
-      </c>
-      <c r="F25">
-        <v>124.992</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="2">
-        <v>18.783899999999999</v>
-      </c>
-      <c r="B26">
-        <v>4.9717399999999996</v>
-      </c>
-      <c r="F26">
-        <v>110.785</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="2">
-        <v>16.2499</v>
-      </c>
-      <c r="B27">
-        <v>9.5507399999999993</v>
-      </c>
-      <c r="F27">
-        <v>96.723699999999994</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="2">
-        <v>16.735099999999999</v>
-      </c>
-      <c r="B28">
-        <v>501.22699999999998</v>
-      </c>
-      <c r="F28">
-        <v>84.702299999999994</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="2">
-        <v>19.101400000000002</v>
-      </c>
-      <c r="B29">
-        <v>148.05000000000001</v>
-      </c>
-      <c r="F29">
-        <v>74.378799999999998</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="2">
-        <v>16.8903</v>
-      </c>
-      <c r="B30">
-        <v>40.990600000000001</v>
-      </c>
-      <c r="F30">
-        <v>69.726200000000006</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="2">
-        <v>17.564499999999999</v>
-      </c>
-      <c r="B31">
-        <v>425.72399999999999</v>
-      </c>
-      <c r="F31">
-        <v>56.3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="2">
-        <v>18.971</v>
-      </c>
-      <c r="B32">
-        <v>42.375100000000003</v>
-      </c>
-      <c r="F32">
-        <v>56.1845</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="2">
-        <v>15.155200000000001</v>
-      </c>
-      <c r="B33">
-        <v>110.785</v>
-      </c>
-      <c r="F33">
-        <v>55.590899999999998</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="2">
-        <v>18.825399999999998</v>
-      </c>
-      <c r="B34">
-        <v>22.6554</v>
-      </c>
-      <c r="F34">
-        <v>53.063600000000001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="2">
-        <v>18.9556</v>
-      </c>
-      <c r="B35">
-        <v>32.972299999999997</v>
-      </c>
-      <c r="F35">
-        <v>52.936399999999999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="2">
-        <v>19.601900000000001</v>
-      </c>
-      <c r="B36">
-        <v>6.0851600000000001</v>
-      </c>
-      <c r="F36">
-        <v>51.410800000000002</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="2">
-        <v>5.9711299999999996</v>
-      </c>
-      <c r="B37">
-        <v>19.756699999999999</v>
-      </c>
-      <c r="F37">
-        <v>50.392800000000001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="2">
-        <v>16.1297</v>
-      </c>
-      <c r="B38">
-        <v>16.385999999999999</v>
-      </c>
-      <c r="F38">
-        <v>50.354700000000001</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="2">
-        <v>13.263500000000001</v>
-      </c>
-      <c r="B39">
-        <v>19.060700000000001</v>
-      </c>
-      <c r="F39">
-        <v>47.783799999999999</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="2">
-        <v>18.672999999999998</v>
-      </c>
-      <c r="B40">
-        <v>11.007</v>
-      </c>
-      <c r="F40">
-        <v>43.774000000000001</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="2">
-        <v>6.7074499999999997</v>
-      </c>
-      <c r="B41">
-        <v>17.422000000000001</v>
-      </c>
-      <c r="F41">
-        <v>43.749000000000002</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="2">
-        <v>12.4168</v>
-      </c>
-      <c r="B42">
-        <v>35.954900000000002</v>
-      </c>
-      <c r="F42">
-        <v>43.673099999999998</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="2">
-        <v>12.0458</v>
-      </c>
-      <c r="B43">
-        <v>34.161099999999998</v>
-      </c>
-      <c r="F43">
-        <v>42.375100000000003</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="2">
-        <v>8.99709</v>
-      </c>
-      <c r="B44">
-        <v>96.723699999999994</v>
-      </c>
-      <c r="F44">
-        <v>41.853000000000002</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="2">
-        <v>19.404</v>
-      </c>
-      <c r="B45">
-        <v>164.56899999999999</v>
-      </c>
-      <c r="F45">
-        <v>40.990600000000001</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="2">
-        <v>12.3253</v>
-      </c>
-      <c r="B46">
-        <v>731.96699999999998</v>
-      </c>
-      <c r="F46">
-        <v>38.739100000000001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="2">
-        <v>6.8195300000000003</v>
-      </c>
-      <c r="B47">
-        <v>136.60900000000001</v>
-      </c>
-      <c r="F47">
-        <v>38.413499999999999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="2">
-        <v>18.247699999999998</v>
-      </c>
-      <c r="B48">
-        <v>8.1303099999999997</v>
-      </c>
-      <c r="F48">
-        <v>36.0931</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="2">
-        <v>16.963000000000001</v>
-      </c>
-      <c r="B49">
-        <v>22.685099999999998</v>
-      </c>
-      <c r="F49">
-        <v>35.954900000000002</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="2">
-        <v>11.2456</v>
-      </c>
-      <c r="B50">
-        <v>1371.46</v>
-      </c>
-      <c r="F50">
-        <v>34.161099999999998</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="2">
-        <v>15.5167</v>
-      </c>
-      <c r="B51">
-        <v>18.1523</v>
-      </c>
-      <c r="F51">
-        <v>33.819000000000003</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="2">
-        <v>10.6092</v>
-      </c>
-      <c r="B52">
-        <v>5.6213600000000001</v>
-      </c>
-      <c r="F52">
-        <v>32.972299999999997</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="2">
-        <v>18.813600000000001</v>
-      </c>
-      <c r="B53">
-        <v>1791.76</v>
-      </c>
-      <c r="F53">
-        <v>31.484200000000001</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="2">
-        <v>19.59</v>
-      </c>
-      <c r="B54">
-        <v>33.819000000000003</v>
-      </c>
-      <c r="F54">
-        <v>30.789400000000001</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="2">
-        <v>19.2592</v>
-      </c>
-      <c r="B55">
-        <v>31.484200000000001</v>
-      </c>
-      <c r="F55">
-        <v>30.1357</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="2">
-        <v>19.293800000000001</v>
-      </c>
-      <c r="B56">
-        <v>12.854200000000001</v>
-      </c>
-      <c r="F56">
-        <v>29.011800000000001</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="2">
-        <v>17.1877</v>
-      </c>
-      <c r="B57">
-        <v>52.936399999999999</v>
-      </c>
-      <c r="F57">
-        <v>28.029699999999998</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="2">
-        <v>14.853300000000001</v>
-      </c>
-      <c r="B58">
-        <v>9.9908800000000006</v>
-      </c>
-      <c r="F58">
-        <v>27.792200000000001</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="2">
-        <v>19.093599999999999</v>
-      </c>
-      <c r="B59">
-        <v>21.146699999999999</v>
-      </c>
-      <c r="F59">
-        <v>27.096699999999998</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="2">
-        <v>9.8219799999999999</v>
-      </c>
-      <c r="B60">
-        <v>1416.98</v>
-      </c>
-      <c r="F60">
-        <v>23.360800000000001</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="2">
-        <v>15.760999999999999</v>
-      </c>
-      <c r="B61">
-        <v>10.839399999999999</v>
-      </c>
-      <c r="F61">
-        <v>22.685099999999998</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="2">
-        <v>18.716100000000001</v>
-      </c>
-      <c r="B62">
-        <v>124.992</v>
-      </c>
-      <c r="F62">
-        <v>22.6554</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="2">
-        <v>6.7595000000000001</v>
-      </c>
-      <c r="B63">
-        <v>7.0536199999999996</v>
-      </c>
-      <c r="F63">
-        <v>22.31</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="2">
-        <v>15.807399999999999</v>
-      </c>
-      <c r="B64">
-        <v>84.702299999999994</v>
-      </c>
-      <c r="F64">
-        <v>21.263000000000002</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="2">
-        <v>14.856299999999999</v>
-      </c>
-      <c r="B65">
-        <v>36.0931</v>
-      </c>
-      <c r="F65">
-        <v>21.146699999999999</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="2">
-        <v>16.256599999999999</v>
-      </c>
-      <c r="B66">
-        <v>56.3</v>
-      </c>
-      <c r="F66">
-        <v>19.756699999999999</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="2">
-        <v>14.0161</v>
-      </c>
-      <c r="B67">
-        <v>176.10599999999999</v>
-      </c>
-      <c r="F67">
-        <v>19.060700000000001</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="2">
-        <v>15.978400000000001</v>
-      </c>
-      <c r="B68">
-        <v>10.5884</v>
-      </c>
-      <c r="F68">
-        <v>19.037700000000001</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="2">
-        <v>12.1487</v>
-      </c>
-      <c r="B69">
-        <v>56.1845</v>
-      </c>
-      <c r="F69">
-        <v>18.271899999999999</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="2">
-        <v>18.5459</v>
-      </c>
-      <c r="B70">
-        <v>50.354700000000001</v>
-      </c>
-      <c r="F70">
-        <v>18.1523</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="2">
-        <v>19.245100000000001</v>
-      </c>
-      <c r="B71">
-        <v>6.6851599999999998</v>
-      </c>
-      <c r="F71">
-        <v>18.113499999999998</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="2">
-        <v>16.4255</v>
-      </c>
-      <c r="B72">
-        <v>9.1786799999999999</v>
-      </c>
-      <c r="F72">
-        <v>17.873799999999999</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="2">
-        <v>16.8034</v>
-      </c>
-      <c r="B73">
-        <v>248.172</v>
-      </c>
-      <c r="F73">
-        <v>17.422000000000001</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="2">
-        <v>14.0128</v>
-      </c>
-      <c r="B74">
-        <v>38.413499999999999</v>
-      </c>
-      <c r="F74">
-        <v>16.385999999999999</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="2">
-        <v>12.975099999999999</v>
-      </c>
-      <c r="B75">
-        <v>23.360800000000001</v>
-      </c>
-      <c r="F75">
-        <v>14.454800000000001</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="2">
-        <v>8.9607500000000009</v>
-      </c>
-      <c r="B76">
-        <v>233.49100000000001</v>
-      </c>
-      <c r="F76">
-        <v>12.854200000000001</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="2">
-        <v>19.064599999999999</v>
-      </c>
-      <c r="B77">
-        <v>69.726200000000006</v>
-      </c>
-      <c r="F77">
-        <v>11.007</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="2">
-        <v>15.279199999999999</v>
-      </c>
-      <c r="B78">
-        <v>168.53800000000001</v>
-      </c>
-      <c r="F78">
-        <v>10.917999999999999</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="2">
-        <v>17.992899999999999</v>
-      </c>
-      <c r="B79">
-        <v>38.739100000000001</v>
-      </c>
-      <c r="F79">
-        <v>10.8721</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="2">
-        <v>17.188300000000002</v>
-      </c>
-      <c r="B80">
-        <v>294.54199999999997</v>
-      </c>
-      <c r="F80">
-        <v>10.839399999999999</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="2">
-        <v>14.3424</v>
-      </c>
-      <c r="B81">
-        <v>43.774000000000001</v>
-      </c>
-      <c r="F81">
-        <v>10.6599</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="2">
-        <v>12.7813</v>
-      </c>
-      <c r="B82">
-        <v>8.2737400000000001</v>
-      </c>
-      <c r="F82">
-        <v>10.5884</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="2">
-        <v>19.7102</v>
-      </c>
-      <c r="B83">
-        <v>27.792200000000001</v>
-      </c>
-      <c r="F83">
-        <v>9.9908800000000006</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="2">
-        <v>18.178799999999999</v>
-      </c>
-      <c r="B84">
-        <v>218.65100000000001</v>
-      </c>
-      <c r="F84">
-        <v>9.7605599999999999</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="2">
-        <v>11.9894</v>
-      </c>
-      <c r="B85">
-        <v>9.49892</v>
-      </c>
-      <c r="F85">
-        <v>9.5507399999999993</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="2">
-        <v>4.7716799999999999</v>
-      </c>
-      <c r="B86">
-        <v>8.0600199999999997</v>
-      </c>
-      <c r="F86">
-        <v>9.49892</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="2">
-        <v>19.6875</v>
-      </c>
-      <c r="B87">
-        <v>29.011800000000001</v>
-      </c>
-      <c r="F87">
-        <v>9.1786799999999999</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="2">
-        <v>18.3795</v>
-      </c>
-      <c r="B88">
-        <v>41.853000000000002</v>
-      </c>
-      <c r="F88">
-        <v>9.1709899999999998</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="2">
-        <v>12.452500000000001</v>
-      </c>
-      <c r="B89">
-        <v>208.49700000000001</v>
-      </c>
-      <c r="F89">
-        <v>8.7152999999999992</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="2">
-        <v>19.6965</v>
-      </c>
-      <c r="B90">
-        <v>10.917999999999999</v>
-      </c>
-      <c r="F90">
-        <v>8.3252400000000009</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="2">
-        <v>17.653500000000001</v>
-      </c>
-      <c r="B91">
-        <v>47.783799999999999</v>
-      </c>
-      <c r="F91">
-        <v>8.2737400000000001</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="2">
-        <v>15.952299999999999</v>
-      </c>
-      <c r="B92">
-        <v>10.6599</v>
-      </c>
-      <c r="F92">
-        <v>8.1303099999999997</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="2">
-        <v>10.572900000000001</v>
-      </c>
-      <c r="B93">
-        <v>30.1357</v>
-      </c>
-      <c r="F93">
-        <v>8.0600199999999997</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="2">
-        <v>16.6525</v>
-      </c>
-      <c r="B94">
-        <v>7.9730999999999996</v>
-      </c>
-      <c r="F94">
-        <v>7.9730999999999996</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="2">
-        <v>19.893999999999998</v>
-      </c>
-      <c r="B95">
-        <v>43.673099999999998</v>
-      </c>
-      <c r="F95">
-        <v>7.0536199999999996</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="2">
-        <v>16.4847</v>
-      </c>
-      <c r="B96">
-        <v>51.410800000000002</v>
-      </c>
-      <c r="F96">
-        <v>6.6851599999999998</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="2">
-        <v>15.3614</v>
-      </c>
-      <c r="B97">
-        <v>55.590899999999998</v>
-      </c>
-      <c r="F97">
-        <v>6.0851600000000001</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="2">
-        <v>7.1000699999999997</v>
-      </c>
-      <c r="B98">
-        <v>18.271899999999999</v>
-      </c>
-      <c r="F98">
-        <v>5.7735099999999999</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="2">
-        <v>15.2813</v>
-      </c>
-      <c r="B99">
-        <v>50.392800000000001</v>
-      </c>
-      <c r="F99">
-        <v>5.6213600000000001</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="2">
-        <v>17.029499999999999</v>
-      </c>
-      <c r="B100">
-        <v>53.063600000000001</v>
-      </c>
-      <c r="F100">
-        <v>4.9717399999999996</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="2">
-        <v>14.0298</v>
-      </c>
-      <c r="B101">
-        <v>195.66399999999999</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="2">
-        <v>13.667</v>
-      </c>
-      <c r="B102">
-        <v>18.113499999999998</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="2">
-        <v>18.246300000000002</v>
-      </c>
-      <c r="B103">
-        <v>8.7152999999999992</v>
       </c>
     </row>
   </sheetData>
@@ -19931,26 +20214,26 @@
   <dimension ref="A1:H103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F1">
-        <v>9724</v>
+        <v>1791.76</v>
+      </c>
+      <c r="H1">
+        <f>100-83</f>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F2">
-        <v>8499.65</v>
-      </c>
-      <c r="H2">
-        <f>100-88</f>
-        <v>12</v>
+        <v>1567.26</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -19967,1098 +20250,1098 @@
         <v>6</v>
       </c>
       <c r="F3">
-        <v>7226.73</v>
+        <v>1416.98</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
-        <v>16.8872</v>
+        <v>19.3962</v>
       </c>
       <c r="B4">
-        <v>10.0572</v>
+        <v>22.31</v>
       </c>
       <c r="F4">
-        <v>6849.9</v>
+        <v>1371.46</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
-        <v>16.717700000000001</v>
+        <v>15.833</v>
       </c>
       <c r="B5">
-        <v>19.658999999999999</v>
+        <v>19.037700000000001</v>
       </c>
       <c r="F5">
-        <v>3245.58</v>
+        <v>734.51</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
-        <v>14.3491</v>
+        <v>11.2636</v>
       </c>
       <c r="B6">
-        <v>1256.5999999999999</v>
+        <v>354.815</v>
       </c>
       <c r="F6">
-        <v>2560.3200000000002</v>
+        <v>731.96699999999998</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
-        <v>19.017900000000001</v>
+        <v>14.8089</v>
       </c>
       <c r="B7">
-        <v>566.14200000000005</v>
+        <v>28.029699999999998</v>
       </c>
       <c r="F7">
-        <v>1930.26</v>
+        <v>501.22699999999998</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
-        <v>19.449100000000001</v>
+        <v>18.721399999999999</v>
       </c>
       <c r="B8">
-        <v>36.675699999999999</v>
+        <v>1567.26</v>
       </c>
       <c r="F8">
-        <v>1688.41</v>
+        <v>425.72399999999999</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
-        <v>19.925699999999999</v>
+        <v>19.73</v>
       </c>
       <c r="B9">
-        <v>71.555700000000002</v>
+        <v>5.7735099999999999</v>
       </c>
       <c r="F9">
-        <v>1256.5999999999999</v>
+        <v>354.815</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
-        <v>8.3737999999999992</v>
+        <v>11.803699999999999</v>
       </c>
       <c r="B10">
-        <v>6.84415</v>
+        <v>27.096699999999998</v>
       </c>
       <c r="F10">
-        <v>1126.98</v>
+        <v>294.54199999999997</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
-        <v>16.770499999999998</v>
+        <v>10.517300000000001</v>
       </c>
       <c r="B11">
-        <v>7.1264000000000003</v>
+        <v>14.454800000000001</v>
       </c>
       <c r="F11">
-        <v>1005.94</v>
+        <v>248.172</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
-        <v>12.1122</v>
+        <v>14.5641</v>
       </c>
       <c r="B12">
-        <v>393.75900000000001</v>
+        <v>734.51</v>
       </c>
       <c r="F12">
-        <v>969.17</v>
+        <v>242.62299999999999</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
-        <v>15.437900000000001</v>
+        <v>16.481400000000001</v>
       </c>
       <c r="B13">
-        <v>266.63499999999999</v>
+        <v>10.8721</v>
       </c>
       <c r="F13">
-        <v>941.00800000000004</v>
+        <v>233.49100000000001</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
-        <v>14.6035</v>
+        <v>13.947900000000001</v>
       </c>
       <c r="B14">
-        <v>192.26499999999999</v>
+        <v>43.749000000000002</v>
       </c>
       <c r="F14">
-        <v>922.01800000000003</v>
+        <v>218.65100000000001</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
-        <v>18.687899999999999</v>
+        <v>14.030200000000001</v>
       </c>
       <c r="B15">
-        <v>13.6775</v>
+        <v>242.62299999999999</v>
       </c>
       <c r="F15">
-        <v>920.23199999999997</v>
+        <v>208.49700000000001</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
-        <v>17.2393</v>
+        <v>9.88734</v>
       </c>
       <c r="B16">
-        <v>196.87299999999999</v>
+        <v>125.482</v>
       </c>
       <c r="F16">
-        <v>919.69</v>
+        <v>195.66399999999999</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
-        <v>14.020300000000001</v>
+        <v>14.820399999999999</v>
       </c>
       <c r="B17">
-        <v>14.1783</v>
+        <v>17.873799999999999</v>
       </c>
       <c r="F17">
-        <v>566.14200000000005</v>
+        <v>176.10599999999999</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
-        <v>16.7607</v>
+        <v>17.116599999999998</v>
       </c>
       <c r="B18">
-        <v>68.480400000000003</v>
+        <v>74.378799999999998</v>
       </c>
       <c r="F18">
-        <v>531.27599999999995</v>
+        <v>168.53800000000001</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
-        <v>10.1768</v>
+        <v>13.5943</v>
       </c>
       <c r="B19">
-        <v>6849.9</v>
+        <v>8.3252400000000009</v>
       </c>
       <c r="F19">
-        <v>494.27300000000002</v>
+        <v>165.13200000000001</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
-        <v>17.273800000000001</v>
+        <v>13.411300000000001</v>
       </c>
       <c r="B20">
-        <v>27.359400000000001</v>
+        <v>30.789400000000001</v>
       </c>
       <c r="F20">
-        <v>437.6</v>
+        <v>164.56899999999999</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
-        <v>11.920500000000001</v>
+        <v>19.618200000000002</v>
       </c>
       <c r="B21">
-        <v>31.729900000000001</v>
+        <v>9.7605599999999999</v>
       </c>
       <c r="F21">
-        <v>433.87099999999998</v>
+        <v>148.05000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
-        <v>7.0134499999999997</v>
+        <v>16.630400000000002</v>
       </c>
       <c r="B22">
-        <v>27.534099999999999</v>
+        <v>9.1709899999999998</v>
       </c>
       <c r="F22">
-        <v>433.08800000000002</v>
+        <v>136.60900000000001</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
-        <v>9.29101</v>
+        <v>7.5518000000000001</v>
       </c>
       <c r="B23">
-        <v>141.685</v>
+        <v>165.13200000000001</v>
       </c>
       <c r="F23">
-        <v>418.55799999999999</v>
+        <v>129.02500000000001</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
-        <v>11.232699999999999</v>
+        <v>11.0791</v>
       </c>
       <c r="B24">
-        <v>13.4747</v>
+        <v>21.263000000000002</v>
       </c>
       <c r="F24">
-        <v>409.59300000000002</v>
+        <v>125.482</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
-        <v>13.8042</v>
+        <v>12.0351</v>
       </c>
       <c r="B25">
-        <v>60.061199999999999</v>
+        <v>129.02500000000001</v>
       </c>
       <c r="F25">
-        <v>393.75900000000001</v>
+        <v>124.992</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
-        <v>19.9099</v>
+        <v>18.783899999999999</v>
       </c>
       <c r="B26">
-        <v>14.8324</v>
+        <v>4.9717399999999996</v>
       </c>
       <c r="F26">
-        <v>270.78300000000002</v>
+        <v>110.785</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
-        <v>18.785299999999999</v>
+        <v>16.2499</v>
       </c>
       <c r="B27">
-        <v>20.833300000000001</v>
+        <v>9.5507399999999993</v>
       </c>
       <c r="F27">
-        <v>266.63499999999999</v>
+        <v>96.723699999999994</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
-        <v>18.2075</v>
+        <v>16.735099999999999</v>
       </c>
       <c r="B28">
-        <v>65.720399999999998</v>
+        <v>501.22699999999998</v>
       </c>
       <c r="F28">
-        <v>250.92699999999999</v>
+        <v>84.702299999999994</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
-        <v>10.3703</v>
+        <v>19.101400000000002</v>
       </c>
       <c r="B29">
-        <v>437.6</v>
+        <v>148.05000000000001</v>
       </c>
       <c r="F29">
-        <v>248.87200000000001</v>
+        <v>74.378799999999998</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
-        <v>12.1099</v>
+        <v>16.8903</v>
       </c>
       <c r="B30">
-        <v>969.17</v>
+        <v>40.990600000000001</v>
       </c>
       <c r="F30">
-        <v>244.589</v>
+        <v>69.726200000000006</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
-        <v>19.781300000000002</v>
+        <v>17.564499999999999</v>
       </c>
       <c r="B31">
-        <v>221.37700000000001</v>
+        <v>425.72399999999999</v>
       </c>
       <c r="F31">
-        <v>238.74799999999999</v>
+        <v>56.3</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
-        <v>9.81691</v>
+        <v>18.971</v>
       </c>
       <c r="B32">
-        <v>922.01800000000003</v>
+        <v>42.375100000000003</v>
       </c>
       <c r="F32">
-        <v>221.37700000000001</v>
+        <v>56.1845</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
-        <v>17.866900000000001</v>
+        <v>15.155200000000001</v>
       </c>
       <c r="B33">
-        <v>2560.3200000000002</v>
+        <v>110.785</v>
       </c>
       <c r="F33">
-        <v>214.501</v>
+        <v>55.590899999999998</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
-        <v>17.074000000000002</v>
+        <v>18.825399999999998</v>
       </c>
       <c r="B34">
-        <v>494.27300000000002</v>
+        <v>22.6554</v>
       </c>
       <c r="F34">
-        <v>196.87299999999999</v>
+        <v>53.063600000000001</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
-        <v>14.13</v>
+        <v>18.9556</v>
       </c>
       <c r="B35">
-        <v>13.259399999999999</v>
+        <v>32.972299999999997</v>
       </c>
       <c r="F35">
-        <v>192.26499999999999</v>
+        <v>52.936399999999999</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
-        <v>16.306699999999999</v>
+        <v>19.601900000000001</v>
       </c>
       <c r="B36">
-        <v>6.6954599999999997</v>
+        <v>6.0851600000000001</v>
       </c>
       <c r="F36">
-        <v>189.00899999999999</v>
+        <v>51.410800000000002</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
-        <v>17.1709</v>
+        <v>5.9711299999999996</v>
       </c>
       <c r="B37">
-        <v>60.477400000000003</v>
+        <v>19.756699999999999</v>
       </c>
       <c r="F37">
-        <v>160.761</v>
+        <v>50.392800000000001</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
-        <v>18.2758</v>
+        <v>16.1297</v>
       </c>
       <c r="B38">
-        <v>36.694800000000001</v>
+        <v>16.385999999999999</v>
       </c>
       <c r="F38">
-        <v>159.26599999999999</v>
+        <v>50.354700000000001</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
-        <v>3.8514400000000002</v>
+        <v>13.263500000000001</v>
       </c>
       <c r="B39">
-        <v>14.6312</v>
+        <v>19.060700000000001</v>
       </c>
       <c r="F39">
-        <v>143.37799999999999</v>
+        <v>47.783799999999999</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
-        <v>14.486499999999999</v>
+        <v>18.672999999999998</v>
       </c>
       <c r="B40">
-        <v>1126.98</v>
+        <v>11.007</v>
       </c>
       <c r="F40">
-        <v>141.685</v>
+        <v>43.774000000000001</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
-        <v>13.291700000000001</v>
+        <v>6.7074499999999997</v>
       </c>
       <c r="B41">
-        <v>28.0395</v>
+        <v>17.422000000000001</v>
       </c>
       <c r="F41">
-        <v>119.854</v>
+        <v>43.749000000000002</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
-        <v>16.2517</v>
+        <v>12.4168</v>
       </c>
       <c r="B42">
-        <v>45.646799999999999</v>
+        <v>35.954900000000002</v>
       </c>
       <c r="F42">
-        <v>107.79600000000001</v>
+        <v>43.673099999999998</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
-        <v>17.966999999999999</v>
+        <v>12.0458</v>
       </c>
       <c r="B43">
-        <v>9.5161899999999999</v>
+        <v>34.161099999999998</v>
       </c>
       <c r="F43">
-        <v>96.235100000000003</v>
+        <v>42.375100000000003</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
-        <v>19.692299999999999</v>
+        <v>8.99709</v>
       </c>
       <c r="B44">
-        <v>74.685100000000006</v>
+        <v>96.723699999999994</v>
       </c>
       <c r="F44">
-        <v>77.927800000000005</v>
+        <v>41.853000000000002</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
-        <v>8.3992599999999999</v>
+        <v>19.404</v>
       </c>
       <c r="B45">
-        <v>238.74799999999999</v>
+        <v>164.56899999999999</v>
       </c>
       <c r="F45">
-        <v>74.685100000000006</v>
+        <v>40.990600000000001</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
-        <v>8.8238699999999994</v>
+        <v>12.3253</v>
       </c>
       <c r="B46">
-        <v>214.501</v>
+        <v>731.96699999999998</v>
       </c>
       <c r="F46">
-        <v>71.555700000000002</v>
+        <v>38.739100000000001</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
-        <v>19.676400000000001</v>
+        <v>6.8195300000000003</v>
       </c>
       <c r="B47">
-        <v>42.357399999999998</v>
+        <v>136.60900000000001</v>
       </c>
       <c r="F47">
-        <v>68.862499999999997</v>
+        <v>38.413499999999999</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
-        <v>14.414</v>
+        <v>18.247699999999998</v>
       </c>
       <c r="B48">
-        <v>46.106299999999997</v>
+        <v>8.1303099999999997</v>
       </c>
       <c r="F48">
-        <v>68.480400000000003</v>
+        <v>36.0931</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
-        <v>14.1957</v>
+        <v>16.963000000000001</v>
       </c>
       <c r="B49">
-        <v>7.0625999999999998</v>
+        <v>22.685099999999998</v>
       </c>
       <c r="F49">
-        <v>66.868399999999994</v>
+        <v>35.954900000000002</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
-        <v>19.353300000000001</v>
+        <v>11.2456</v>
       </c>
       <c r="B50">
-        <v>8499.65</v>
+        <v>1371.46</v>
       </c>
       <c r="F50">
-        <v>65.720399999999998</v>
+        <v>34.161099999999998</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="2">
-        <v>11.4298</v>
+        <v>15.5167</v>
       </c>
       <c r="B51">
-        <v>119.854</v>
+        <v>18.1523</v>
       </c>
       <c r="F51">
-        <v>60.477400000000003</v>
+        <v>33.819000000000003</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="2">
-        <v>14.4733</v>
+        <v>10.6092</v>
       </c>
       <c r="B52">
-        <v>55.388300000000001</v>
+        <v>5.6213600000000001</v>
       </c>
       <c r="F52">
-        <v>60.061199999999999</v>
+        <v>32.972299999999997</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="2">
-        <v>19.0565</v>
+        <v>18.813600000000001</v>
       </c>
       <c r="B53">
-        <v>12.7521</v>
+        <v>1791.76</v>
       </c>
       <c r="F53">
-        <v>55.388300000000001</v>
+        <v>31.484200000000001</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="2">
-        <v>15.3803</v>
+        <v>19.59</v>
       </c>
       <c r="B54">
-        <v>38.823799999999999</v>
+        <v>33.819000000000003</v>
       </c>
       <c r="F54">
-        <v>50.365200000000002</v>
+        <v>30.789400000000001</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="2">
-        <v>16.991499999999998</v>
+        <v>19.2592</v>
       </c>
       <c r="B55">
-        <v>26.792400000000001</v>
+        <v>31.484200000000001</v>
       </c>
       <c r="F55">
-        <v>50.101999999999997</v>
+        <v>30.1357</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="2">
-        <v>18.581499999999998</v>
+        <v>19.293800000000001</v>
       </c>
       <c r="B56">
-        <v>9724</v>
+        <v>12.854200000000001</v>
       </c>
       <c r="F56">
-        <v>47.768000000000001</v>
+        <v>29.011800000000001</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="2">
-        <v>12.964</v>
+        <v>17.1877</v>
       </c>
       <c r="B57">
-        <v>77.927800000000005</v>
+        <v>52.936399999999999</v>
       </c>
       <c r="F57">
-        <v>46.106299999999997</v>
+        <v>28.029699999999998</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="2">
-        <v>9.7736599999999996</v>
+        <v>14.853300000000001</v>
       </c>
       <c r="B58">
-        <v>7226.73</v>
+        <v>9.9908800000000006</v>
       </c>
       <c r="F58">
-        <v>45.646799999999999</v>
+        <v>27.792200000000001</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="2">
-        <v>11.5908</v>
+        <v>19.093599999999999</v>
       </c>
       <c r="B59">
-        <v>143.37799999999999</v>
+        <v>21.146699999999999</v>
       </c>
       <c r="F59">
-        <v>42.357399999999998</v>
+        <v>27.096699999999998</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="2">
-        <v>18.145499999999998</v>
+        <v>9.8219799999999999</v>
       </c>
       <c r="B60">
-        <v>4.9491500000000004</v>
+        <v>1416.98</v>
       </c>
       <c r="F60">
-        <v>38.823799999999999</v>
+        <v>23.360800000000001</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="2">
-        <v>16.674199999999999</v>
+        <v>15.760999999999999</v>
       </c>
       <c r="B61">
-        <v>159.26599999999999</v>
+        <v>10.839399999999999</v>
       </c>
       <c r="F61">
-        <v>38.473700000000001</v>
+        <v>22.685099999999998</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="2">
-        <v>19.055399999999999</v>
+        <v>18.716100000000001</v>
       </c>
       <c r="B62">
-        <v>50.365200000000002</v>
+        <v>124.992</v>
       </c>
       <c r="F62">
-        <v>36.694800000000001</v>
+        <v>22.6554</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="2">
-        <v>19.566299999999998</v>
+        <v>6.7595000000000001</v>
       </c>
       <c r="B63">
-        <v>96.235100000000003</v>
+        <v>7.0536199999999996</v>
       </c>
       <c r="F63">
-        <v>36.675699999999999</v>
+        <v>22.31</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="2">
-        <v>8.2465299999999999</v>
+        <v>15.807399999999999</v>
       </c>
       <c r="B64">
-        <v>1688.41</v>
+        <v>84.702299999999994</v>
       </c>
       <c r="F64">
-        <v>31.729900000000001</v>
+        <v>21.263000000000002</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="2">
-        <v>11.696999999999999</v>
+        <v>14.856299999999999</v>
       </c>
       <c r="B65">
-        <v>38.473700000000001</v>
+        <v>36.0931</v>
       </c>
       <c r="F65">
-        <v>28.0395</v>
+        <v>21.146699999999999</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="2">
-        <v>15.4754</v>
+        <v>16.256599999999999</v>
       </c>
       <c r="B66">
-        <v>15.508100000000001</v>
+        <v>56.3</v>
       </c>
       <c r="F66">
-        <v>27.5379</v>
+        <v>19.756699999999999</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="2">
-        <v>16.316199999999998</v>
+        <v>14.0161</v>
       </c>
       <c r="B67">
-        <v>24.7195</v>
+        <v>176.10599999999999</v>
       </c>
       <c r="F67">
-        <v>27.534099999999999</v>
+        <v>19.060700000000001</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="2">
-        <v>12.8378</v>
+        <v>15.978400000000001</v>
       </c>
       <c r="B68">
-        <v>27.5379</v>
+        <v>10.5884</v>
       </c>
       <c r="F68">
-        <v>27.359400000000001</v>
+        <v>19.037700000000001</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="2">
-        <v>12.439399999999999</v>
+        <v>12.1487</v>
       </c>
       <c r="B69">
-        <v>6.6589600000000004</v>
+        <v>56.1845</v>
       </c>
       <c r="F69">
-        <v>27.036300000000001</v>
+        <v>18.271899999999999</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="2">
-        <v>16.427600000000002</v>
+        <v>18.5459</v>
       </c>
       <c r="B70">
-        <v>418.55799999999999</v>
+        <v>50.354700000000001</v>
       </c>
       <c r="F70">
-        <v>26.792400000000001</v>
+        <v>18.1523</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="2">
-        <v>11.4435</v>
+        <v>19.245100000000001</v>
       </c>
       <c r="B71">
-        <v>107.79600000000001</v>
+        <v>6.6851599999999998</v>
       </c>
       <c r="F71">
-        <v>25.113299999999999</v>
+        <v>18.113499999999998</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="2">
-        <v>13.902100000000001</v>
+        <v>16.4255</v>
       </c>
       <c r="B72">
-        <v>10.2827</v>
+        <v>9.1786799999999999</v>
       </c>
       <c r="F72">
-        <v>24.7195</v>
+        <v>17.873799999999999</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="2">
-        <v>19.577100000000002</v>
+        <v>16.8034</v>
       </c>
       <c r="B73">
-        <v>244.589</v>
+        <v>248.172</v>
       </c>
       <c r="F73">
-        <v>20.833300000000001</v>
+        <v>17.422000000000001</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="2">
-        <v>15.5901</v>
+        <v>14.0128</v>
       </c>
       <c r="B74">
-        <v>17.627400000000002</v>
+        <v>38.413499999999999</v>
       </c>
       <c r="F74">
-        <v>19.658999999999999</v>
+        <v>16.385999999999999</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="2">
-        <v>16.95</v>
+        <v>12.975099999999999</v>
       </c>
       <c r="B75">
-        <v>160.761</v>
+        <v>23.360800000000001</v>
       </c>
       <c r="F75">
-        <v>17.627400000000002</v>
+        <v>14.454800000000001</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="2">
-        <v>18.322700000000001</v>
+        <v>8.9607500000000009</v>
       </c>
       <c r="B76">
-        <v>433.08800000000002</v>
+        <v>233.49100000000001</v>
       </c>
       <c r="F76">
-        <v>17.4208</v>
+        <v>12.854200000000001</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="2">
-        <v>17.9526</v>
+        <v>19.064599999999999</v>
       </c>
       <c r="B77">
-        <v>27.036300000000001</v>
+        <v>69.726200000000006</v>
       </c>
       <c r="F77">
-        <v>15.508100000000001</v>
+        <v>11.007</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="2">
-        <v>10.387</v>
+        <v>15.279199999999999</v>
       </c>
       <c r="B78">
-        <v>14.4842</v>
+        <v>168.53800000000001</v>
       </c>
       <c r="F78">
-        <v>14.8324</v>
+        <v>10.917999999999999</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="2">
-        <v>12.766299999999999</v>
+        <v>17.992899999999999</v>
       </c>
       <c r="B79">
-        <v>17.4208</v>
+        <v>38.739100000000001</v>
       </c>
       <c r="F79">
-        <v>14.6312</v>
+        <v>10.8721</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="2">
-        <v>11.1594</v>
+        <v>17.188300000000002</v>
       </c>
       <c r="B80">
-        <v>7.4758800000000001</v>
+        <v>294.54199999999997</v>
       </c>
       <c r="F80">
-        <v>14.4842</v>
+        <v>10.839399999999999</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="2">
-        <v>19.185400000000001</v>
+        <v>14.3424</v>
       </c>
       <c r="B81">
-        <v>433.87099999999998</v>
+        <v>43.774000000000001</v>
       </c>
       <c r="F81">
-        <v>14.1783</v>
+        <v>10.6599</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="2">
-        <v>19.003699999999998</v>
+        <v>12.7813</v>
       </c>
       <c r="B82">
-        <v>25.113299999999999</v>
+        <v>8.2737400000000001</v>
       </c>
       <c r="F82">
-        <v>13.6775</v>
+        <v>10.5884</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="2">
-        <v>17.9526</v>
+        <v>19.7102</v>
       </c>
       <c r="B83">
-        <v>50.101999999999997</v>
+        <v>27.792200000000001</v>
       </c>
       <c r="F83">
-        <v>13.4747</v>
+        <v>9.9908800000000006</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="2">
-        <v>17.826000000000001</v>
+        <v>18.178799999999999</v>
       </c>
       <c r="B84">
-        <v>68.862499999999997</v>
+        <v>218.65100000000001</v>
       </c>
       <c r="F84">
-        <v>13.259399999999999</v>
+        <v>9.7605599999999999</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="2">
-        <v>13.1043</v>
+        <v>11.9894</v>
       </c>
       <c r="B85">
-        <v>12.509600000000001</v>
+        <v>9.49892</v>
       </c>
       <c r="F85">
-        <v>12.7521</v>
+        <v>9.5507399999999993</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="2">
-        <v>14.5047</v>
+        <v>4.7716799999999999</v>
       </c>
       <c r="B86">
-        <v>250.92699999999999</v>
+        <v>8.0600199999999997</v>
       </c>
       <c r="F86">
-        <v>12.509600000000001</v>
+        <v>9.49892</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="2">
-        <v>9.5816300000000005</v>
+        <v>19.6875</v>
       </c>
       <c r="B87">
-        <v>9.6974999999999998</v>
+        <v>29.011800000000001</v>
       </c>
       <c r="F87">
-        <v>12.290100000000001</v>
+        <v>9.1786799999999999</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="2">
-        <v>19.084299999999999</v>
+        <v>18.3795</v>
       </c>
       <c r="B88">
-        <v>5.5611499999999996</v>
+        <v>41.853000000000002</v>
       </c>
       <c r="F88">
-        <v>10.2827</v>
+        <v>9.1709899999999998</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="2">
-        <v>9.8898399999999995</v>
+        <v>12.452500000000001</v>
       </c>
       <c r="B89">
-        <v>12.290100000000001</v>
+        <v>208.49700000000001</v>
       </c>
       <c r="F89">
-        <v>10.0572</v>
+        <v>8.7152999999999992</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="2">
-        <v>8.7073599999999995</v>
+        <v>19.6965</v>
       </c>
       <c r="B90">
-        <v>1930.26</v>
+        <v>10.917999999999999</v>
       </c>
       <c r="F90">
-        <v>9.6974999999999998</v>
+        <v>8.3252400000000009</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="2">
-        <v>17.485800000000001</v>
+        <v>17.653500000000001</v>
       </c>
       <c r="B91">
-        <v>189.00899999999999</v>
+        <v>47.783799999999999</v>
       </c>
       <c r="F91">
-        <v>9.5161899999999999</v>
+        <v>8.2737400000000001</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="2">
-        <v>18.140999999999998</v>
+        <v>15.952299999999999</v>
       </c>
       <c r="B92">
-        <v>248.87200000000001</v>
+        <v>10.6599</v>
       </c>
       <c r="F92">
-        <v>7.4758800000000001</v>
+        <v>8.1303099999999997</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="2">
-        <v>11.694599999999999</v>
+        <v>10.572900000000001</v>
       </c>
       <c r="B93">
-        <v>920.23199999999997</v>
+        <v>30.1357</v>
       </c>
       <c r="F93">
-        <v>7.1264000000000003</v>
+        <v>8.0600199999999997</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="2">
-        <v>16.5334</v>
+        <v>16.6525</v>
       </c>
       <c r="B94">
-        <v>941.00800000000004</v>
+        <v>7.9730999999999996</v>
       </c>
       <c r="F94">
-        <v>7.0625999999999998</v>
+        <v>7.9730999999999996</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="2">
-        <v>13.574400000000001</v>
+        <v>19.893999999999998</v>
       </c>
       <c r="B95">
-        <v>270.78300000000002</v>
+        <v>43.673099999999998</v>
       </c>
       <c r="F95">
-        <v>7.0369200000000003</v>
+        <v>7.0536199999999996</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="2">
-        <v>13.8886</v>
+        <v>16.4847</v>
       </c>
       <c r="B96">
-        <v>919.69</v>
+        <v>51.410800000000002</v>
       </c>
       <c r="F96">
-        <v>6.84415</v>
+        <v>6.6851599999999998</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="2">
-        <v>17.266400000000001</v>
+        <v>15.3614</v>
       </c>
       <c r="B97">
-        <v>531.27599999999995</v>
+        <v>55.590899999999998</v>
       </c>
       <c r="F97">
-        <v>6.6954599999999997</v>
+        <v>6.0851600000000001</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="2">
-        <v>16.581700000000001</v>
+        <v>7.1000699999999997</v>
       </c>
       <c r="B98">
-        <v>1005.94</v>
+        <v>18.271899999999999</v>
       </c>
       <c r="F98">
-        <v>6.6589600000000004</v>
+        <v>5.7735099999999999</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="2">
-        <v>13.341699999999999</v>
+        <v>15.2813</v>
       </c>
       <c r="B99">
-        <v>47.768000000000001</v>
+        <v>50.392800000000001</v>
       </c>
       <c r="F99">
-        <v>5.5611499999999996</v>
+        <v>5.6213600000000001</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="2">
-        <v>19.9651</v>
+        <v>17.029499999999999</v>
       </c>
       <c r="B100">
-        <v>3245.58</v>
+        <v>53.063600000000001</v>
       </c>
       <c r="F100">
-        <v>4.9491500000000004</v>
+        <v>4.9717399999999996</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="2">
-        <v>16.613399999999999</v>
+        <v>14.0298</v>
       </c>
       <c r="B101">
-        <v>409.59300000000002</v>
+        <v>195.66399999999999</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="2">
-        <v>16.050799999999999</v>
+        <v>13.667</v>
       </c>
       <c r="B102">
-        <v>7.0369200000000003</v>
+        <v>18.113499999999998</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="2">
-        <v>18.152899999999999</v>
+        <v>18.246300000000002</v>
       </c>
       <c r="B103">
-        <v>66.868399999999994</v>
+        <v>8.7152999999999992</v>
       </c>
     </row>
   </sheetData>

--- a/Graphs/Energy_and_equilibrium_study.xlsx
+++ b/Graphs/Energy_and_equilibrium_study.xlsx
@@ -9,20 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
     <sheet name="Ark11" sheetId="11" r:id="rId2"/>
-    <sheet name="Ark2" sheetId="2" r:id="rId3"/>
-    <sheet name="Ark3" sheetId="3" r:id="rId4"/>
-    <sheet name="Ark4" sheetId="4" r:id="rId5"/>
-    <sheet name="Ark5" sheetId="5" r:id="rId6"/>
-    <sheet name="Ark6" sheetId="6" r:id="rId7"/>
-    <sheet name="Ark7" sheetId="7" r:id="rId8"/>
-    <sheet name="Ark8" sheetId="8" r:id="rId9"/>
-    <sheet name="Ark9" sheetId="9" r:id="rId10"/>
-    <sheet name="Ark10" sheetId="10" r:id="rId11"/>
+    <sheet name="Ark12" sheetId="12" r:id="rId3"/>
+    <sheet name="Ark2" sheetId="2" r:id="rId4"/>
+    <sheet name="Ark3" sheetId="3" r:id="rId5"/>
+    <sheet name="Ark4" sheetId="4" r:id="rId6"/>
+    <sheet name="Ark5" sheetId="5" r:id="rId7"/>
+    <sheet name="Ark6" sheetId="6" r:id="rId8"/>
+    <sheet name="Ark7" sheetId="7" r:id="rId9"/>
+    <sheet name="Ark8" sheetId="8" r:id="rId10"/>
+    <sheet name="Ark9" sheetId="9" r:id="rId11"/>
+    <sheet name="Ark10" sheetId="10" r:id="rId12"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="51">
   <si>
     <t>E_kin initial</t>
   </si>
@@ -178,6 +179,15 @@
   </si>
   <si>
     <t>70 (2e4)</t>
+  </si>
+  <si>
+    <t>Deviation</t>
+  </si>
+  <si>
+    <t>Initial</t>
+  </si>
+  <si>
+    <t>Final</t>
   </si>
 </sst>
 </file>
@@ -422,11 +432,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="274325656"/>
-        <c:axId val="274327616"/>
+        <c:axId val="356612976"/>
+        <c:axId val="356607096"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="274325656"/>
+        <c:axId val="356612976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -483,12 +493,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="274327616"/>
+        <c:crossAx val="356607096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="274327616"/>
+        <c:axId val="356607096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -545,7 +555,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="274325656"/>
+        <c:crossAx val="356612976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -758,11 +768,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="274325264"/>
-        <c:axId val="274331144"/>
+        <c:axId val="356611800"/>
+        <c:axId val="356609840"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="274325264"/>
+        <c:axId val="356611800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -819,12 +829,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="274331144"/>
+        <c:crossAx val="356609840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="274331144"/>
+        <c:axId val="356609840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -881,7 +891,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="274325264"/>
+        <c:crossAx val="356611800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2849,26 +2859,26 @@
   <dimension ref="A1:H103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F1">
-        <v>9724</v>
+        <v>1791.76</v>
+      </c>
+      <c r="H1">
+        <f>100-83</f>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F2">
-        <v>8499.65</v>
-      </c>
-      <c r="H2">
-        <f>100-88</f>
-        <v>12</v>
+        <v>1567.26</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -2885,1098 +2895,1098 @@
         <v>6</v>
       </c>
       <c r="F3">
-        <v>7226.73</v>
+        <v>1416.98</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
-        <v>16.8872</v>
+        <v>19.3962</v>
       </c>
       <c r="B4">
-        <v>10.0572</v>
+        <v>22.31</v>
       </c>
       <c r="F4">
-        <v>6849.9</v>
+        <v>1371.46</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
-        <v>16.717700000000001</v>
+        <v>15.833</v>
       </c>
       <c r="B5">
-        <v>19.658999999999999</v>
+        <v>19.037700000000001</v>
       </c>
       <c r="F5">
-        <v>3245.58</v>
+        <v>734.51</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
-        <v>14.3491</v>
+        <v>11.2636</v>
       </c>
       <c r="B6">
-        <v>1256.5999999999999</v>
+        <v>354.815</v>
       </c>
       <c r="F6">
-        <v>2560.3200000000002</v>
+        <v>731.96699999999998</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
-        <v>19.017900000000001</v>
+        <v>14.8089</v>
       </c>
       <c r="B7">
-        <v>566.14200000000005</v>
+        <v>28.029699999999998</v>
       </c>
       <c r="F7">
-        <v>1930.26</v>
+        <v>501.22699999999998</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
-        <v>19.449100000000001</v>
+        <v>18.721399999999999</v>
       </c>
       <c r="B8">
-        <v>36.675699999999999</v>
+        <v>1567.26</v>
       </c>
       <c r="F8">
-        <v>1688.41</v>
+        <v>425.72399999999999</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
-        <v>19.925699999999999</v>
+        <v>19.73</v>
       </c>
       <c r="B9">
-        <v>71.555700000000002</v>
+        <v>5.7735099999999999</v>
       </c>
       <c r="F9">
-        <v>1256.5999999999999</v>
+        <v>354.815</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
-        <v>8.3737999999999992</v>
+        <v>11.803699999999999</v>
       </c>
       <c r="B10">
-        <v>6.84415</v>
+        <v>27.096699999999998</v>
       </c>
       <c r="F10">
-        <v>1126.98</v>
+        <v>294.54199999999997</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
-        <v>16.770499999999998</v>
+        <v>10.517300000000001</v>
       </c>
       <c r="B11">
-        <v>7.1264000000000003</v>
+        <v>14.454800000000001</v>
       </c>
       <c r="F11">
-        <v>1005.94</v>
+        <v>248.172</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
-        <v>12.1122</v>
+        <v>14.5641</v>
       </c>
       <c r="B12">
-        <v>393.75900000000001</v>
+        <v>734.51</v>
       </c>
       <c r="F12">
-        <v>969.17</v>
+        <v>242.62299999999999</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
-        <v>15.437900000000001</v>
+        <v>16.481400000000001</v>
       </c>
       <c r="B13">
-        <v>266.63499999999999</v>
+        <v>10.8721</v>
       </c>
       <c r="F13">
-        <v>941.00800000000004</v>
+        <v>233.49100000000001</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
-        <v>14.6035</v>
+        <v>13.947900000000001</v>
       </c>
       <c r="B14">
-        <v>192.26499999999999</v>
+        <v>43.749000000000002</v>
       </c>
       <c r="F14">
-        <v>922.01800000000003</v>
+        <v>218.65100000000001</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
-        <v>18.687899999999999</v>
+        <v>14.030200000000001</v>
       </c>
       <c r="B15">
-        <v>13.6775</v>
+        <v>242.62299999999999</v>
       </c>
       <c r="F15">
-        <v>920.23199999999997</v>
+        <v>208.49700000000001</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
-        <v>17.2393</v>
+        <v>9.88734</v>
       </c>
       <c r="B16">
-        <v>196.87299999999999</v>
+        <v>125.482</v>
       </c>
       <c r="F16">
-        <v>919.69</v>
+        <v>195.66399999999999</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
-        <v>14.020300000000001</v>
+        <v>14.820399999999999</v>
       </c>
       <c r="B17">
-        <v>14.1783</v>
+        <v>17.873799999999999</v>
       </c>
       <c r="F17">
-        <v>566.14200000000005</v>
+        <v>176.10599999999999</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
-        <v>16.7607</v>
+        <v>17.116599999999998</v>
       </c>
       <c r="B18">
-        <v>68.480400000000003</v>
+        <v>74.378799999999998</v>
       </c>
       <c r="F18">
-        <v>531.27599999999995</v>
+        <v>168.53800000000001</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
-        <v>10.1768</v>
+        <v>13.5943</v>
       </c>
       <c r="B19">
-        <v>6849.9</v>
+        <v>8.3252400000000009</v>
       </c>
       <c r="F19">
-        <v>494.27300000000002</v>
+        <v>165.13200000000001</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
-        <v>17.273800000000001</v>
+        <v>13.411300000000001</v>
       </c>
       <c r="B20">
-        <v>27.359400000000001</v>
+        <v>30.789400000000001</v>
       </c>
       <c r="F20">
-        <v>437.6</v>
+        <v>164.56899999999999</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
-        <v>11.920500000000001</v>
+        <v>19.618200000000002</v>
       </c>
       <c r="B21">
-        <v>31.729900000000001</v>
+        <v>9.7605599999999999</v>
       </c>
       <c r="F21">
-        <v>433.87099999999998</v>
+        <v>148.05000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
-        <v>7.0134499999999997</v>
+        <v>16.630400000000002</v>
       </c>
       <c r="B22">
-        <v>27.534099999999999</v>
+        <v>9.1709899999999998</v>
       </c>
       <c r="F22">
-        <v>433.08800000000002</v>
+        <v>136.60900000000001</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
-        <v>9.29101</v>
+        <v>7.5518000000000001</v>
       </c>
       <c r="B23">
-        <v>141.685</v>
+        <v>165.13200000000001</v>
       </c>
       <c r="F23">
-        <v>418.55799999999999</v>
+        <v>129.02500000000001</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
-        <v>11.232699999999999</v>
+        <v>11.0791</v>
       </c>
       <c r="B24">
-        <v>13.4747</v>
+        <v>21.263000000000002</v>
       </c>
       <c r="F24">
-        <v>409.59300000000002</v>
+        <v>125.482</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
-        <v>13.8042</v>
+        <v>12.0351</v>
       </c>
       <c r="B25">
-        <v>60.061199999999999</v>
+        <v>129.02500000000001</v>
       </c>
       <c r="F25">
-        <v>393.75900000000001</v>
+        <v>124.992</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
-        <v>19.9099</v>
+        <v>18.783899999999999</v>
       </c>
       <c r="B26">
-        <v>14.8324</v>
+        <v>4.9717399999999996</v>
       </c>
       <c r="F26">
-        <v>270.78300000000002</v>
+        <v>110.785</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
-        <v>18.785299999999999</v>
+        <v>16.2499</v>
       </c>
       <c r="B27">
-        <v>20.833300000000001</v>
+        <v>9.5507399999999993</v>
       </c>
       <c r="F27">
-        <v>266.63499999999999</v>
+        <v>96.723699999999994</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
-        <v>18.2075</v>
+        <v>16.735099999999999</v>
       </c>
       <c r="B28">
-        <v>65.720399999999998</v>
+        <v>501.22699999999998</v>
       </c>
       <c r="F28">
-        <v>250.92699999999999</v>
+        <v>84.702299999999994</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
-        <v>10.3703</v>
+        <v>19.101400000000002</v>
       </c>
       <c r="B29">
-        <v>437.6</v>
+        <v>148.05000000000001</v>
       </c>
       <c r="F29">
-        <v>248.87200000000001</v>
+        <v>74.378799999999998</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
-        <v>12.1099</v>
+        <v>16.8903</v>
       </c>
       <c r="B30">
-        <v>969.17</v>
+        <v>40.990600000000001</v>
       </c>
       <c r="F30">
-        <v>244.589</v>
+        <v>69.726200000000006</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
-        <v>19.781300000000002</v>
+        <v>17.564499999999999</v>
       </c>
       <c r="B31">
-        <v>221.37700000000001</v>
+        <v>425.72399999999999</v>
       </c>
       <c r="F31">
-        <v>238.74799999999999</v>
+        <v>56.3</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
-        <v>9.81691</v>
+        <v>18.971</v>
       </c>
       <c r="B32">
-        <v>922.01800000000003</v>
+        <v>42.375100000000003</v>
       </c>
       <c r="F32">
-        <v>221.37700000000001</v>
+        <v>56.1845</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
-        <v>17.866900000000001</v>
+        <v>15.155200000000001</v>
       </c>
       <c r="B33">
-        <v>2560.3200000000002</v>
+        <v>110.785</v>
       </c>
       <c r="F33">
-        <v>214.501</v>
+        <v>55.590899999999998</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
-        <v>17.074000000000002</v>
+        <v>18.825399999999998</v>
       </c>
       <c r="B34">
-        <v>494.27300000000002</v>
+        <v>22.6554</v>
       </c>
       <c r="F34">
-        <v>196.87299999999999</v>
+        <v>53.063600000000001</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
-        <v>14.13</v>
+        <v>18.9556</v>
       </c>
       <c r="B35">
-        <v>13.259399999999999</v>
+        <v>32.972299999999997</v>
       </c>
       <c r="F35">
-        <v>192.26499999999999</v>
+        <v>52.936399999999999</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
-        <v>16.306699999999999</v>
+        <v>19.601900000000001</v>
       </c>
       <c r="B36">
-        <v>6.6954599999999997</v>
+        <v>6.0851600000000001</v>
       </c>
       <c r="F36">
-        <v>189.00899999999999</v>
+        <v>51.410800000000002</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
-        <v>17.1709</v>
+        <v>5.9711299999999996</v>
       </c>
       <c r="B37">
-        <v>60.477400000000003</v>
+        <v>19.756699999999999</v>
       </c>
       <c r="F37">
-        <v>160.761</v>
+        <v>50.392800000000001</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
-        <v>18.2758</v>
+        <v>16.1297</v>
       </c>
       <c r="B38">
-        <v>36.694800000000001</v>
+        <v>16.385999999999999</v>
       </c>
       <c r="F38">
-        <v>159.26599999999999</v>
+        <v>50.354700000000001</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
-        <v>3.8514400000000002</v>
+        <v>13.263500000000001</v>
       </c>
       <c r="B39">
-        <v>14.6312</v>
+        <v>19.060700000000001</v>
       </c>
       <c r="F39">
-        <v>143.37799999999999</v>
+        <v>47.783799999999999</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
-        <v>14.486499999999999</v>
+        <v>18.672999999999998</v>
       </c>
       <c r="B40">
-        <v>1126.98</v>
+        <v>11.007</v>
       </c>
       <c r="F40">
-        <v>141.685</v>
+        <v>43.774000000000001</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
-        <v>13.291700000000001</v>
+        <v>6.7074499999999997</v>
       </c>
       <c r="B41">
-        <v>28.0395</v>
+        <v>17.422000000000001</v>
       </c>
       <c r="F41">
-        <v>119.854</v>
+        <v>43.749000000000002</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
-        <v>16.2517</v>
+        <v>12.4168</v>
       </c>
       <c r="B42">
-        <v>45.646799999999999</v>
+        <v>35.954900000000002</v>
       </c>
       <c r="F42">
-        <v>107.79600000000001</v>
+        <v>43.673099999999998</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
-        <v>17.966999999999999</v>
+        <v>12.0458</v>
       </c>
       <c r="B43">
-        <v>9.5161899999999999</v>
+        <v>34.161099999999998</v>
       </c>
       <c r="F43">
-        <v>96.235100000000003</v>
+        <v>42.375100000000003</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
-        <v>19.692299999999999</v>
+        <v>8.99709</v>
       </c>
       <c r="B44">
-        <v>74.685100000000006</v>
+        <v>96.723699999999994</v>
       </c>
       <c r="F44">
-        <v>77.927800000000005</v>
+        <v>41.853000000000002</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
-        <v>8.3992599999999999</v>
+        <v>19.404</v>
       </c>
       <c r="B45">
-        <v>238.74799999999999</v>
+        <v>164.56899999999999</v>
       </c>
       <c r="F45">
-        <v>74.685100000000006</v>
+        <v>40.990600000000001</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
-        <v>8.8238699999999994</v>
+        <v>12.3253</v>
       </c>
       <c r="B46">
-        <v>214.501</v>
+        <v>731.96699999999998</v>
       </c>
       <c r="F46">
-        <v>71.555700000000002</v>
+        <v>38.739100000000001</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
-        <v>19.676400000000001</v>
+        <v>6.8195300000000003</v>
       </c>
       <c r="B47">
-        <v>42.357399999999998</v>
+        <v>136.60900000000001</v>
       </c>
       <c r="F47">
-        <v>68.862499999999997</v>
+        <v>38.413499999999999</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
-        <v>14.414</v>
+        <v>18.247699999999998</v>
       </c>
       <c r="B48">
-        <v>46.106299999999997</v>
+        <v>8.1303099999999997</v>
       </c>
       <c r="F48">
-        <v>68.480400000000003</v>
+        <v>36.0931</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
-        <v>14.1957</v>
+        <v>16.963000000000001</v>
       </c>
       <c r="B49">
-        <v>7.0625999999999998</v>
+        <v>22.685099999999998</v>
       </c>
       <c r="F49">
-        <v>66.868399999999994</v>
+        <v>35.954900000000002</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
-        <v>19.353300000000001</v>
+        <v>11.2456</v>
       </c>
       <c r="B50">
-        <v>8499.65</v>
+        <v>1371.46</v>
       </c>
       <c r="F50">
-        <v>65.720399999999998</v>
+        <v>34.161099999999998</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="2">
-        <v>11.4298</v>
+        <v>15.5167</v>
       </c>
       <c r="B51">
-        <v>119.854</v>
+        <v>18.1523</v>
       </c>
       <c r="F51">
-        <v>60.477400000000003</v>
+        <v>33.819000000000003</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="2">
-        <v>14.4733</v>
+        <v>10.6092</v>
       </c>
       <c r="B52">
-        <v>55.388300000000001</v>
+        <v>5.6213600000000001</v>
       </c>
       <c r="F52">
-        <v>60.061199999999999</v>
+        <v>32.972299999999997</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="2">
-        <v>19.0565</v>
+        <v>18.813600000000001</v>
       </c>
       <c r="B53">
-        <v>12.7521</v>
+        <v>1791.76</v>
       </c>
       <c r="F53">
-        <v>55.388300000000001</v>
+        <v>31.484200000000001</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="2">
-        <v>15.3803</v>
+        <v>19.59</v>
       </c>
       <c r="B54">
-        <v>38.823799999999999</v>
+        <v>33.819000000000003</v>
       </c>
       <c r="F54">
-        <v>50.365200000000002</v>
+        <v>30.789400000000001</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="2">
-        <v>16.991499999999998</v>
+        <v>19.2592</v>
       </c>
       <c r="B55">
-        <v>26.792400000000001</v>
+        <v>31.484200000000001</v>
       </c>
       <c r="F55">
-        <v>50.101999999999997</v>
+        <v>30.1357</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="2">
-        <v>18.581499999999998</v>
+        <v>19.293800000000001</v>
       </c>
       <c r="B56">
-        <v>9724</v>
+        <v>12.854200000000001</v>
       </c>
       <c r="F56">
-        <v>47.768000000000001</v>
+        <v>29.011800000000001</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="2">
-        <v>12.964</v>
+        <v>17.1877</v>
       </c>
       <c r="B57">
-        <v>77.927800000000005</v>
+        <v>52.936399999999999</v>
       </c>
       <c r="F57">
-        <v>46.106299999999997</v>
+        <v>28.029699999999998</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="2">
-        <v>9.7736599999999996</v>
+        <v>14.853300000000001</v>
       </c>
       <c r="B58">
-        <v>7226.73</v>
+        <v>9.9908800000000006</v>
       </c>
       <c r="F58">
-        <v>45.646799999999999</v>
+        <v>27.792200000000001</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="2">
-        <v>11.5908</v>
+        <v>19.093599999999999</v>
       </c>
       <c r="B59">
-        <v>143.37799999999999</v>
+        <v>21.146699999999999</v>
       </c>
       <c r="F59">
-        <v>42.357399999999998</v>
+        <v>27.096699999999998</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="2">
-        <v>18.145499999999998</v>
+        <v>9.8219799999999999</v>
       </c>
       <c r="B60">
-        <v>4.9491500000000004</v>
+        <v>1416.98</v>
       </c>
       <c r="F60">
-        <v>38.823799999999999</v>
+        <v>23.360800000000001</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="2">
-        <v>16.674199999999999</v>
+        <v>15.760999999999999</v>
       </c>
       <c r="B61">
-        <v>159.26599999999999</v>
+        <v>10.839399999999999</v>
       </c>
       <c r="F61">
-        <v>38.473700000000001</v>
+        <v>22.685099999999998</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="2">
-        <v>19.055399999999999</v>
+        <v>18.716100000000001</v>
       </c>
       <c r="B62">
-        <v>50.365200000000002</v>
+        <v>124.992</v>
       </c>
       <c r="F62">
-        <v>36.694800000000001</v>
+        <v>22.6554</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="2">
-        <v>19.566299999999998</v>
+        <v>6.7595000000000001</v>
       </c>
       <c r="B63">
-        <v>96.235100000000003</v>
+        <v>7.0536199999999996</v>
       </c>
       <c r="F63">
-        <v>36.675699999999999</v>
+        <v>22.31</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="2">
-        <v>8.2465299999999999</v>
+        <v>15.807399999999999</v>
       </c>
       <c r="B64">
-        <v>1688.41</v>
+        <v>84.702299999999994</v>
       </c>
       <c r="F64">
-        <v>31.729900000000001</v>
+        <v>21.263000000000002</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="2">
-        <v>11.696999999999999</v>
+        <v>14.856299999999999</v>
       </c>
       <c r="B65">
-        <v>38.473700000000001</v>
+        <v>36.0931</v>
       </c>
       <c r="F65">
-        <v>28.0395</v>
+        <v>21.146699999999999</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="2">
-        <v>15.4754</v>
+        <v>16.256599999999999</v>
       </c>
       <c r="B66">
-        <v>15.508100000000001</v>
+        <v>56.3</v>
       </c>
       <c r="F66">
-        <v>27.5379</v>
+        <v>19.756699999999999</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="2">
-        <v>16.316199999999998</v>
+        <v>14.0161</v>
       </c>
       <c r="B67">
-        <v>24.7195</v>
+        <v>176.10599999999999</v>
       </c>
       <c r="F67">
-        <v>27.534099999999999</v>
+        <v>19.060700000000001</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="2">
-        <v>12.8378</v>
+        <v>15.978400000000001</v>
       </c>
       <c r="B68">
-        <v>27.5379</v>
+        <v>10.5884</v>
       </c>
       <c r="F68">
-        <v>27.359400000000001</v>
+        <v>19.037700000000001</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="2">
-        <v>12.439399999999999</v>
+        <v>12.1487</v>
       </c>
       <c r="B69">
-        <v>6.6589600000000004</v>
+        <v>56.1845</v>
       </c>
       <c r="F69">
-        <v>27.036300000000001</v>
+        <v>18.271899999999999</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="2">
-        <v>16.427600000000002</v>
+        <v>18.5459</v>
       </c>
       <c r="B70">
-        <v>418.55799999999999</v>
+        <v>50.354700000000001</v>
       </c>
       <c r="F70">
-        <v>26.792400000000001</v>
+        <v>18.1523</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="2">
-        <v>11.4435</v>
+        <v>19.245100000000001</v>
       </c>
       <c r="B71">
-        <v>107.79600000000001</v>
+        <v>6.6851599999999998</v>
       </c>
       <c r="F71">
-        <v>25.113299999999999</v>
+        <v>18.113499999999998</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="2">
-        <v>13.902100000000001</v>
+        <v>16.4255</v>
       </c>
       <c r="B72">
-        <v>10.2827</v>
+        <v>9.1786799999999999</v>
       </c>
       <c r="F72">
-        <v>24.7195</v>
+        <v>17.873799999999999</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="2">
-        <v>19.577100000000002</v>
+        <v>16.8034</v>
       </c>
       <c r="B73">
-        <v>244.589</v>
+        <v>248.172</v>
       </c>
       <c r="F73">
-        <v>20.833300000000001</v>
+        <v>17.422000000000001</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="2">
-        <v>15.5901</v>
+        <v>14.0128</v>
       </c>
       <c r="B74">
-        <v>17.627400000000002</v>
+        <v>38.413499999999999</v>
       </c>
       <c r="F74">
-        <v>19.658999999999999</v>
+        <v>16.385999999999999</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="2">
-        <v>16.95</v>
+        <v>12.975099999999999</v>
       </c>
       <c r="B75">
-        <v>160.761</v>
+        <v>23.360800000000001</v>
       </c>
       <c r="F75">
-        <v>17.627400000000002</v>
+        <v>14.454800000000001</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="2">
-        <v>18.322700000000001</v>
+        <v>8.9607500000000009</v>
       </c>
       <c r="B76">
-        <v>433.08800000000002</v>
+        <v>233.49100000000001</v>
       </c>
       <c r="F76">
-        <v>17.4208</v>
+        <v>12.854200000000001</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="2">
-        <v>17.9526</v>
+        <v>19.064599999999999</v>
       </c>
       <c r="B77">
-        <v>27.036300000000001</v>
+        <v>69.726200000000006</v>
       </c>
       <c r="F77">
-        <v>15.508100000000001</v>
+        <v>11.007</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="2">
-        <v>10.387</v>
+        <v>15.279199999999999</v>
       </c>
       <c r="B78">
-        <v>14.4842</v>
+        <v>168.53800000000001</v>
       </c>
       <c r="F78">
-        <v>14.8324</v>
+        <v>10.917999999999999</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="2">
-        <v>12.766299999999999</v>
+        <v>17.992899999999999</v>
       </c>
       <c r="B79">
-        <v>17.4208</v>
+        <v>38.739100000000001</v>
       </c>
       <c r="F79">
-        <v>14.6312</v>
+        <v>10.8721</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="2">
-        <v>11.1594</v>
+        <v>17.188300000000002</v>
       </c>
       <c r="B80">
-        <v>7.4758800000000001</v>
+        <v>294.54199999999997</v>
       </c>
       <c r="F80">
-        <v>14.4842</v>
+        <v>10.839399999999999</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="2">
-        <v>19.185400000000001</v>
+        <v>14.3424</v>
       </c>
       <c r="B81">
-        <v>433.87099999999998</v>
+        <v>43.774000000000001</v>
       </c>
       <c r="F81">
-        <v>14.1783</v>
+        <v>10.6599</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="2">
-        <v>19.003699999999998</v>
+        <v>12.7813</v>
       </c>
       <c r="B82">
-        <v>25.113299999999999</v>
+        <v>8.2737400000000001</v>
       </c>
       <c r="F82">
-        <v>13.6775</v>
+        <v>10.5884</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="2">
-        <v>17.9526</v>
+        <v>19.7102</v>
       </c>
       <c r="B83">
-        <v>50.101999999999997</v>
+        <v>27.792200000000001</v>
       </c>
       <c r="F83">
-        <v>13.4747</v>
+        <v>9.9908800000000006</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="2">
-        <v>17.826000000000001</v>
+        <v>18.178799999999999</v>
       </c>
       <c r="B84">
-        <v>68.862499999999997</v>
+        <v>218.65100000000001</v>
       </c>
       <c r="F84">
-        <v>13.259399999999999</v>
+        <v>9.7605599999999999</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="2">
-        <v>13.1043</v>
+        <v>11.9894</v>
       </c>
       <c r="B85">
-        <v>12.509600000000001</v>
+        <v>9.49892</v>
       </c>
       <c r="F85">
-        <v>12.7521</v>
+        <v>9.5507399999999993</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="2">
-        <v>14.5047</v>
+        <v>4.7716799999999999</v>
       </c>
       <c r="B86">
-        <v>250.92699999999999</v>
+        <v>8.0600199999999997</v>
       </c>
       <c r="F86">
-        <v>12.509600000000001</v>
+        <v>9.49892</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="2">
-        <v>9.5816300000000005</v>
+        <v>19.6875</v>
       </c>
       <c r="B87">
-        <v>9.6974999999999998</v>
+        <v>29.011800000000001</v>
       </c>
       <c r="F87">
-        <v>12.290100000000001</v>
+        <v>9.1786799999999999</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="2">
-        <v>19.084299999999999</v>
+        <v>18.3795</v>
       </c>
       <c r="B88">
-        <v>5.5611499999999996</v>
+        <v>41.853000000000002</v>
       </c>
       <c r="F88">
-        <v>10.2827</v>
+        <v>9.1709899999999998</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="2">
-        <v>9.8898399999999995</v>
+        <v>12.452500000000001</v>
       </c>
       <c r="B89">
-        <v>12.290100000000001</v>
+        <v>208.49700000000001</v>
       </c>
       <c r="F89">
-        <v>10.0572</v>
+        <v>8.7152999999999992</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="2">
-        <v>8.7073599999999995</v>
+        <v>19.6965</v>
       </c>
       <c r="B90">
-        <v>1930.26</v>
+        <v>10.917999999999999</v>
       </c>
       <c r="F90">
-        <v>9.6974999999999998</v>
+        <v>8.3252400000000009</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="2">
-        <v>17.485800000000001</v>
+        <v>17.653500000000001</v>
       </c>
       <c r="B91">
-        <v>189.00899999999999</v>
+        <v>47.783799999999999</v>
       </c>
       <c r="F91">
-        <v>9.5161899999999999</v>
+        <v>8.2737400000000001</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="2">
-        <v>18.140999999999998</v>
+        <v>15.952299999999999</v>
       </c>
       <c r="B92">
-        <v>248.87200000000001</v>
+        <v>10.6599</v>
       </c>
       <c r="F92">
-        <v>7.4758800000000001</v>
+        <v>8.1303099999999997</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="2">
-        <v>11.694599999999999</v>
+        <v>10.572900000000001</v>
       </c>
       <c r="B93">
-        <v>920.23199999999997</v>
+        <v>30.1357</v>
       </c>
       <c r="F93">
-        <v>7.1264000000000003</v>
+        <v>8.0600199999999997</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="2">
-        <v>16.5334</v>
+        <v>16.6525</v>
       </c>
       <c r="B94">
-        <v>941.00800000000004</v>
+        <v>7.9730999999999996</v>
       </c>
       <c r="F94">
-        <v>7.0625999999999998</v>
+        <v>7.9730999999999996</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="2">
-        <v>13.574400000000001</v>
+        <v>19.893999999999998</v>
       </c>
       <c r="B95">
-        <v>270.78300000000002</v>
+        <v>43.673099999999998</v>
       </c>
       <c r="F95">
-        <v>7.0369200000000003</v>
+        <v>7.0536199999999996</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="2">
-        <v>13.8886</v>
+        <v>16.4847</v>
       </c>
       <c r="B96">
-        <v>919.69</v>
+        <v>51.410800000000002</v>
       </c>
       <c r="F96">
-        <v>6.84415</v>
+        <v>6.6851599999999998</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="2">
-        <v>17.266400000000001</v>
+        <v>15.3614</v>
       </c>
       <c r="B97">
-        <v>531.27599999999995</v>
+        <v>55.590899999999998</v>
       </c>
       <c r="F97">
-        <v>6.6954599999999997</v>
+        <v>6.0851600000000001</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="2">
-        <v>16.581700000000001</v>
+        <v>7.1000699999999997</v>
       </c>
       <c r="B98">
-        <v>1005.94</v>
+        <v>18.271899999999999</v>
       </c>
       <c r="F98">
-        <v>6.6589600000000004</v>
+        <v>5.7735099999999999</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="2">
-        <v>13.341699999999999</v>
+        <v>15.2813</v>
       </c>
       <c r="B99">
-        <v>47.768000000000001</v>
+        <v>50.392800000000001</v>
       </c>
       <c r="F99">
-        <v>5.5611499999999996</v>
+        <v>5.6213600000000001</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="2">
-        <v>19.9651</v>
+        <v>17.029499999999999</v>
       </c>
       <c r="B100">
-        <v>3245.58</v>
+        <v>53.063600000000001</v>
       </c>
       <c r="F100">
-        <v>4.9491500000000004</v>
+        <v>4.9717399999999996</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="2">
-        <v>16.613399999999999</v>
+        <v>14.0298</v>
       </c>
       <c r="B101">
-        <v>409.59300000000002</v>
+        <v>195.66399999999999</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="2">
-        <v>16.050799999999999</v>
+        <v>13.667</v>
       </c>
       <c r="B102">
-        <v>7.0369200000000003</v>
+        <v>18.113499999999998</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="2">
-        <v>18.152899999999999</v>
+        <v>18.246300000000002</v>
       </c>
       <c r="B103">
-        <v>66.868399999999994</v>
+        <v>8.7152999999999992</v>
       </c>
     </row>
   </sheetData>
@@ -3988,6 +3998,1149 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H103"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1">
+        <v>9724</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F2">
+        <v>8499.65</v>
+      </c>
+      <c r="H2">
+        <f>100-88</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3">
+        <v>7226.73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
+        <v>16.8872</v>
+      </c>
+      <c r="B4">
+        <v>10.0572</v>
+      </c>
+      <c r="F4">
+        <v>6849.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
+        <v>16.717700000000001</v>
+      </c>
+      <c r="B5">
+        <v>19.658999999999999</v>
+      </c>
+      <c r="F5">
+        <v>3245.58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
+        <v>14.3491</v>
+      </c>
+      <c r="B6">
+        <v>1256.5999999999999</v>
+      </c>
+      <c r="F6">
+        <v>2560.3200000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
+        <v>19.017900000000001</v>
+      </c>
+      <c r="B7">
+        <v>566.14200000000005</v>
+      </c>
+      <c r="F7">
+        <v>1930.26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="2">
+        <v>19.449100000000001</v>
+      </c>
+      <c r="B8">
+        <v>36.675699999999999</v>
+      </c>
+      <c r="F8">
+        <v>1688.41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="2">
+        <v>19.925699999999999</v>
+      </c>
+      <c r="B9">
+        <v>71.555700000000002</v>
+      </c>
+      <c r="F9">
+        <v>1256.5999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="2">
+        <v>8.3737999999999992</v>
+      </c>
+      <c r="B10">
+        <v>6.84415</v>
+      </c>
+      <c r="F10">
+        <v>1126.98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="2">
+        <v>16.770499999999998</v>
+      </c>
+      <c r="B11">
+        <v>7.1264000000000003</v>
+      </c>
+      <c r="F11">
+        <v>1005.94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="2">
+        <v>12.1122</v>
+      </c>
+      <c r="B12">
+        <v>393.75900000000001</v>
+      </c>
+      <c r="F12">
+        <v>969.17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="2">
+        <v>15.437900000000001</v>
+      </c>
+      <c r="B13">
+        <v>266.63499999999999</v>
+      </c>
+      <c r="F13">
+        <v>941.00800000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="2">
+        <v>14.6035</v>
+      </c>
+      <c r="B14">
+        <v>192.26499999999999</v>
+      </c>
+      <c r="F14">
+        <v>922.01800000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="2">
+        <v>18.687899999999999</v>
+      </c>
+      <c r="B15">
+        <v>13.6775</v>
+      </c>
+      <c r="F15">
+        <v>920.23199999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="2">
+        <v>17.2393</v>
+      </c>
+      <c r="B16">
+        <v>196.87299999999999</v>
+      </c>
+      <c r="F16">
+        <v>919.69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="2">
+        <v>14.020300000000001</v>
+      </c>
+      <c r="B17">
+        <v>14.1783</v>
+      </c>
+      <c r="F17">
+        <v>566.14200000000005</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="2">
+        <v>16.7607</v>
+      </c>
+      <c r="B18">
+        <v>68.480400000000003</v>
+      </c>
+      <c r="F18">
+        <v>531.27599999999995</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="2">
+        <v>10.1768</v>
+      </c>
+      <c r="B19">
+        <v>6849.9</v>
+      </c>
+      <c r="F19">
+        <v>494.27300000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="2">
+        <v>17.273800000000001</v>
+      </c>
+      <c r="B20">
+        <v>27.359400000000001</v>
+      </c>
+      <c r="F20">
+        <v>437.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="2">
+        <v>11.920500000000001</v>
+      </c>
+      <c r="B21">
+        <v>31.729900000000001</v>
+      </c>
+      <c r="F21">
+        <v>433.87099999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2">
+        <v>7.0134499999999997</v>
+      </c>
+      <c r="B22">
+        <v>27.534099999999999</v>
+      </c>
+      <c r="F22">
+        <v>433.08800000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="2">
+        <v>9.29101</v>
+      </c>
+      <c r="B23">
+        <v>141.685</v>
+      </c>
+      <c r="F23">
+        <v>418.55799999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="2">
+        <v>11.232699999999999</v>
+      </c>
+      <c r="B24">
+        <v>13.4747</v>
+      </c>
+      <c r="F24">
+        <v>409.59300000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="2">
+        <v>13.8042</v>
+      </c>
+      <c r="B25">
+        <v>60.061199999999999</v>
+      </c>
+      <c r="F25">
+        <v>393.75900000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="2">
+        <v>19.9099</v>
+      </c>
+      <c r="B26">
+        <v>14.8324</v>
+      </c>
+      <c r="F26">
+        <v>270.78300000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="2">
+        <v>18.785299999999999</v>
+      </c>
+      <c r="B27">
+        <v>20.833300000000001</v>
+      </c>
+      <c r="F27">
+        <v>266.63499999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="2">
+        <v>18.2075</v>
+      </c>
+      <c r="B28">
+        <v>65.720399999999998</v>
+      </c>
+      <c r="F28">
+        <v>250.92699999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="2">
+        <v>10.3703</v>
+      </c>
+      <c r="B29">
+        <v>437.6</v>
+      </c>
+      <c r="F29">
+        <v>248.87200000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="2">
+        <v>12.1099</v>
+      </c>
+      <c r="B30">
+        <v>969.17</v>
+      </c>
+      <c r="F30">
+        <v>244.589</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="2">
+        <v>19.781300000000002</v>
+      </c>
+      <c r="B31">
+        <v>221.37700000000001</v>
+      </c>
+      <c r="F31">
+        <v>238.74799999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="2">
+        <v>9.81691</v>
+      </c>
+      <c r="B32">
+        <v>922.01800000000003</v>
+      </c>
+      <c r="F32">
+        <v>221.37700000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="2">
+        <v>17.866900000000001</v>
+      </c>
+      <c r="B33">
+        <v>2560.3200000000002</v>
+      </c>
+      <c r="F33">
+        <v>214.501</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="2">
+        <v>17.074000000000002</v>
+      </c>
+      <c r="B34">
+        <v>494.27300000000002</v>
+      </c>
+      <c r="F34">
+        <v>196.87299999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="2">
+        <v>14.13</v>
+      </c>
+      <c r="B35">
+        <v>13.259399999999999</v>
+      </c>
+      <c r="F35">
+        <v>192.26499999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="2">
+        <v>16.306699999999999</v>
+      </c>
+      <c r="B36">
+        <v>6.6954599999999997</v>
+      </c>
+      <c r="F36">
+        <v>189.00899999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="2">
+        <v>17.1709</v>
+      </c>
+      <c r="B37">
+        <v>60.477400000000003</v>
+      </c>
+      <c r="F37">
+        <v>160.761</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="2">
+        <v>18.2758</v>
+      </c>
+      <c r="B38">
+        <v>36.694800000000001</v>
+      </c>
+      <c r="F38">
+        <v>159.26599999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="2">
+        <v>3.8514400000000002</v>
+      </c>
+      <c r="B39">
+        <v>14.6312</v>
+      </c>
+      <c r="F39">
+        <v>143.37799999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="2">
+        <v>14.486499999999999</v>
+      </c>
+      <c r="B40">
+        <v>1126.98</v>
+      </c>
+      <c r="F40">
+        <v>141.685</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="2">
+        <v>13.291700000000001</v>
+      </c>
+      <c r="B41">
+        <v>28.0395</v>
+      </c>
+      <c r="F41">
+        <v>119.854</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="2">
+        <v>16.2517</v>
+      </c>
+      <c r="B42">
+        <v>45.646799999999999</v>
+      </c>
+      <c r="F42">
+        <v>107.79600000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="2">
+        <v>17.966999999999999</v>
+      </c>
+      <c r="B43">
+        <v>9.5161899999999999</v>
+      </c>
+      <c r="F43">
+        <v>96.235100000000003</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="2">
+        <v>19.692299999999999</v>
+      </c>
+      <c r="B44">
+        <v>74.685100000000006</v>
+      </c>
+      <c r="F44">
+        <v>77.927800000000005</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="2">
+        <v>8.3992599999999999</v>
+      </c>
+      <c r="B45">
+        <v>238.74799999999999</v>
+      </c>
+      <c r="F45">
+        <v>74.685100000000006</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="2">
+        <v>8.8238699999999994</v>
+      </c>
+      <c r="B46">
+        <v>214.501</v>
+      </c>
+      <c r="F46">
+        <v>71.555700000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="2">
+        <v>19.676400000000001</v>
+      </c>
+      <c r="B47">
+        <v>42.357399999999998</v>
+      </c>
+      <c r="F47">
+        <v>68.862499999999997</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="2">
+        <v>14.414</v>
+      </c>
+      <c r="B48">
+        <v>46.106299999999997</v>
+      </c>
+      <c r="F48">
+        <v>68.480400000000003</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="2">
+        <v>14.1957</v>
+      </c>
+      <c r="B49">
+        <v>7.0625999999999998</v>
+      </c>
+      <c r="F49">
+        <v>66.868399999999994</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="2">
+        <v>19.353300000000001</v>
+      </c>
+      <c r="B50">
+        <v>8499.65</v>
+      </c>
+      <c r="F50">
+        <v>65.720399999999998</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="2">
+        <v>11.4298</v>
+      </c>
+      <c r="B51">
+        <v>119.854</v>
+      </c>
+      <c r="F51">
+        <v>60.477400000000003</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="2">
+        <v>14.4733</v>
+      </c>
+      <c r="B52">
+        <v>55.388300000000001</v>
+      </c>
+      <c r="F52">
+        <v>60.061199999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="2">
+        <v>19.0565</v>
+      </c>
+      <c r="B53">
+        <v>12.7521</v>
+      </c>
+      <c r="F53">
+        <v>55.388300000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="2">
+        <v>15.3803</v>
+      </c>
+      <c r="B54">
+        <v>38.823799999999999</v>
+      </c>
+      <c r="F54">
+        <v>50.365200000000002</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="2">
+        <v>16.991499999999998</v>
+      </c>
+      <c r="B55">
+        <v>26.792400000000001</v>
+      </c>
+      <c r="F55">
+        <v>50.101999999999997</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="2">
+        <v>18.581499999999998</v>
+      </c>
+      <c r="B56">
+        <v>9724</v>
+      </c>
+      <c r="F56">
+        <v>47.768000000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="2">
+        <v>12.964</v>
+      </c>
+      <c r="B57">
+        <v>77.927800000000005</v>
+      </c>
+      <c r="F57">
+        <v>46.106299999999997</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="2">
+        <v>9.7736599999999996</v>
+      </c>
+      <c r="B58">
+        <v>7226.73</v>
+      </c>
+      <c r="F58">
+        <v>45.646799999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="2">
+        <v>11.5908</v>
+      </c>
+      <c r="B59">
+        <v>143.37799999999999</v>
+      </c>
+      <c r="F59">
+        <v>42.357399999999998</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="2">
+        <v>18.145499999999998</v>
+      </c>
+      <c r="B60">
+        <v>4.9491500000000004</v>
+      </c>
+      <c r="F60">
+        <v>38.823799999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="2">
+        <v>16.674199999999999</v>
+      </c>
+      <c r="B61">
+        <v>159.26599999999999</v>
+      </c>
+      <c r="F61">
+        <v>38.473700000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="2">
+        <v>19.055399999999999</v>
+      </c>
+      <c r="B62">
+        <v>50.365200000000002</v>
+      </c>
+      <c r="F62">
+        <v>36.694800000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="2">
+        <v>19.566299999999998</v>
+      </c>
+      <c r="B63">
+        <v>96.235100000000003</v>
+      </c>
+      <c r="F63">
+        <v>36.675699999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="2">
+        <v>8.2465299999999999</v>
+      </c>
+      <c r="B64">
+        <v>1688.41</v>
+      </c>
+      <c r="F64">
+        <v>31.729900000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="2">
+        <v>11.696999999999999</v>
+      </c>
+      <c r="B65">
+        <v>38.473700000000001</v>
+      </c>
+      <c r="F65">
+        <v>28.0395</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="2">
+        <v>15.4754</v>
+      </c>
+      <c r="B66">
+        <v>15.508100000000001</v>
+      </c>
+      <c r="F66">
+        <v>27.5379</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="2">
+        <v>16.316199999999998</v>
+      </c>
+      <c r="B67">
+        <v>24.7195</v>
+      </c>
+      <c r="F67">
+        <v>27.534099999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="2">
+        <v>12.8378</v>
+      </c>
+      <c r="B68">
+        <v>27.5379</v>
+      </c>
+      <c r="F68">
+        <v>27.359400000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="2">
+        <v>12.439399999999999</v>
+      </c>
+      <c r="B69">
+        <v>6.6589600000000004</v>
+      </c>
+      <c r="F69">
+        <v>27.036300000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="2">
+        <v>16.427600000000002</v>
+      </c>
+      <c r="B70">
+        <v>418.55799999999999</v>
+      </c>
+      <c r="F70">
+        <v>26.792400000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="2">
+        <v>11.4435</v>
+      </c>
+      <c r="B71">
+        <v>107.79600000000001</v>
+      </c>
+      <c r="F71">
+        <v>25.113299999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="2">
+        <v>13.902100000000001</v>
+      </c>
+      <c r="B72">
+        <v>10.2827</v>
+      </c>
+      <c r="F72">
+        <v>24.7195</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="2">
+        <v>19.577100000000002</v>
+      </c>
+      <c r="B73">
+        <v>244.589</v>
+      </c>
+      <c r="F73">
+        <v>20.833300000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="2">
+        <v>15.5901</v>
+      </c>
+      <c r="B74">
+        <v>17.627400000000002</v>
+      </c>
+      <c r="F74">
+        <v>19.658999999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="2">
+        <v>16.95</v>
+      </c>
+      <c r="B75">
+        <v>160.761</v>
+      </c>
+      <c r="F75">
+        <v>17.627400000000002</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="2">
+        <v>18.322700000000001</v>
+      </c>
+      <c r="B76">
+        <v>433.08800000000002</v>
+      </c>
+      <c r="F76">
+        <v>17.4208</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="2">
+        <v>17.9526</v>
+      </c>
+      <c r="B77">
+        <v>27.036300000000001</v>
+      </c>
+      <c r="F77">
+        <v>15.508100000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="2">
+        <v>10.387</v>
+      </c>
+      <c r="B78">
+        <v>14.4842</v>
+      </c>
+      <c r="F78">
+        <v>14.8324</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="2">
+        <v>12.766299999999999</v>
+      </c>
+      <c r="B79">
+        <v>17.4208</v>
+      </c>
+      <c r="F79">
+        <v>14.6312</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="2">
+        <v>11.1594</v>
+      </c>
+      <c r="B80">
+        <v>7.4758800000000001</v>
+      </c>
+      <c r="F80">
+        <v>14.4842</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="2">
+        <v>19.185400000000001</v>
+      </c>
+      <c r="B81">
+        <v>433.87099999999998</v>
+      </c>
+      <c r="F81">
+        <v>14.1783</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="2">
+        <v>19.003699999999998</v>
+      </c>
+      <c r="B82">
+        <v>25.113299999999999</v>
+      </c>
+      <c r="F82">
+        <v>13.6775</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="2">
+        <v>17.9526</v>
+      </c>
+      <c r="B83">
+        <v>50.101999999999997</v>
+      </c>
+      <c r="F83">
+        <v>13.4747</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="2">
+        <v>17.826000000000001</v>
+      </c>
+      <c r="B84">
+        <v>68.862499999999997</v>
+      </c>
+      <c r="F84">
+        <v>13.259399999999999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="2">
+        <v>13.1043</v>
+      </c>
+      <c r="B85">
+        <v>12.509600000000001</v>
+      </c>
+      <c r="F85">
+        <v>12.7521</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="2">
+        <v>14.5047</v>
+      </c>
+      <c r="B86">
+        <v>250.92699999999999</v>
+      </c>
+      <c r="F86">
+        <v>12.509600000000001</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="2">
+        <v>9.5816300000000005</v>
+      </c>
+      <c r="B87">
+        <v>9.6974999999999998</v>
+      </c>
+      <c r="F87">
+        <v>12.290100000000001</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="2">
+        <v>19.084299999999999</v>
+      </c>
+      <c r="B88">
+        <v>5.5611499999999996</v>
+      </c>
+      <c r="F88">
+        <v>10.2827</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="2">
+        <v>9.8898399999999995</v>
+      </c>
+      <c r="B89">
+        <v>12.290100000000001</v>
+      </c>
+      <c r="F89">
+        <v>10.0572</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="2">
+        <v>8.7073599999999995</v>
+      </c>
+      <c r="B90">
+        <v>1930.26</v>
+      </c>
+      <c r="F90">
+        <v>9.6974999999999998</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="2">
+        <v>17.485800000000001</v>
+      </c>
+      <c r="B91">
+        <v>189.00899999999999</v>
+      </c>
+      <c r="F91">
+        <v>9.5161899999999999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="2">
+        <v>18.140999999999998</v>
+      </c>
+      <c r="B92">
+        <v>248.87200000000001</v>
+      </c>
+      <c r="F92">
+        <v>7.4758800000000001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="2">
+        <v>11.694599999999999</v>
+      </c>
+      <c r="B93">
+        <v>920.23199999999997</v>
+      </c>
+      <c r="F93">
+        <v>7.1264000000000003</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="2">
+        <v>16.5334</v>
+      </c>
+      <c r="B94">
+        <v>941.00800000000004</v>
+      </c>
+      <c r="F94">
+        <v>7.0625999999999998</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="2">
+        <v>13.574400000000001</v>
+      </c>
+      <c r="B95">
+        <v>270.78300000000002</v>
+      </c>
+      <c r="F95">
+        <v>7.0369200000000003</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="2">
+        <v>13.8886</v>
+      </c>
+      <c r="B96">
+        <v>919.69</v>
+      </c>
+      <c r="F96">
+        <v>6.84415</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="2">
+        <v>17.266400000000001</v>
+      </c>
+      <c r="B97">
+        <v>531.27599999999995</v>
+      </c>
+      <c r="F97">
+        <v>6.6954599999999997</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="2">
+        <v>16.581700000000001</v>
+      </c>
+      <c r="B98">
+        <v>1005.94</v>
+      </c>
+      <c r="F98">
+        <v>6.6589600000000004</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="2">
+        <v>13.341699999999999</v>
+      </c>
+      <c r="B99">
+        <v>47.768000000000001</v>
+      </c>
+      <c r="F99">
+        <v>5.5611499999999996</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="2">
+        <v>19.9651</v>
+      </c>
+      <c r="B100">
+        <v>3245.58</v>
+      </c>
+      <c r="F100">
+        <v>4.9491500000000004</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="2">
+        <v>16.613399999999999</v>
+      </c>
+      <c r="B101">
+        <v>409.59300000000002</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="2">
+        <v>16.050799999999999</v>
+      </c>
+      <c r="B102">
+        <v>7.0369200000000003</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="2">
+        <v>18.152899999999999</v>
+      </c>
+      <c r="B103">
+        <v>66.868399999999994</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="F1:F103">
+    <sortCondition descending="1" ref="F1:F103"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B19"/>
   <sheetViews>
@@ -4132,8 +5285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4170,7 +5323,7 @@
         <v>-2.2900000000000001E-10</v>
       </c>
       <c r="D2" s="3">
-        <f>(B2-C2)/B2*100</f>
+        <f t="shared" ref="D2:D10" si="0">(B2-C2)/B2*100</f>
         <v>37.260273972602732</v>
       </c>
     </row>
@@ -4185,7 +5338,7 @@
         <v>-4.3400000000000003E-9</v>
       </c>
       <c r="D3" s="3">
-        <f>(B3-C3)/B3*100</f>
+        <f t="shared" si="0"/>
         <v>-83.122362869198327</v>
       </c>
     </row>
@@ -4200,7 +5353,7 @@
         <v>-3.9800000000000002E-10</v>
       </c>
       <c r="D4" s="3">
-        <f>(B4-C4)/B4*100</f>
+        <f t="shared" si="0"/>
         <v>-28.802588996763749</v>
       </c>
       <c r="E4">
@@ -4218,7 +5371,7 @@
         <v>-3.2500000000000002E-9</v>
       </c>
       <c r="D5" s="3">
-        <f>(B5-C5)/B5*100</f>
+        <f t="shared" si="0"/>
         <v>23.887587822014051</v>
       </c>
       <c r="E5">
@@ -4236,7 +5389,7 @@
         <v>-406026</v>
       </c>
       <c r="D6" s="3">
-        <f>(B6-C6)/B6*100</f>
+        <f t="shared" si="0"/>
         <v>-2.2717483570818651</v>
       </c>
       <c r="E6">
@@ -4254,7 +5407,7 @@
         <v>-628610</v>
       </c>
       <c r="D7" s="3">
-        <f>(B7-C7)/B7*100</f>
+        <f t="shared" si="0"/>
         <v>-7.2199167293499196</v>
       </c>
       <c r="E7">
@@ -4272,7 +5425,7 @@
         <v>-244336</v>
       </c>
       <c r="D8" s="3">
-        <f>(B8-C8)/B8*100</f>
+        <f t="shared" si="0"/>
         <v>41.540677434868009</v>
       </c>
       <c r="E8">
@@ -4290,7 +5443,7 @@
         <v>-85357</v>
       </c>
       <c r="D9" s="3">
-        <f>(B9-C9)/B9*100</f>
+        <f t="shared" si="0"/>
         <v>78.422098408396863</v>
       </c>
       <c r="E9">
@@ -4308,7 +5461,7 @@
         <v>-246874</v>
       </c>
       <c r="D10" s="3">
-        <f>(B10-C10)/B10*100</f>
+        <f t="shared" si="0"/>
         <v>40.481167260953313</v>
       </c>
       <c r="E10">
@@ -4356,6 +5509,107 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:D7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>-128598</v>
+      </c>
+      <c r="C3">
+        <v>-350502</v>
+      </c>
+      <c r="D3">
+        <f>(B3-C3)/B3*100</f>
+        <v>-172.55633835673962</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>-93455.9</v>
+      </c>
+      <c r="C4">
+        <v>-160034</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D7" si="0">(B4-C4)/B4*100</f>
+        <v>-71.240125021534226</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>-128779</v>
+      </c>
+      <c r="C5">
+        <v>-142811</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>-10.896186490033314</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>-105082</v>
+      </c>
+      <c r="C6">
+        <v>-154686</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>-47.205039873622503</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>-109737</v>
+      </c>
+      <c r="C7">
+        <v>-186738</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>-70.168676016293503</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3101"/>
   <sheetViews>
@@ -14496,7 +15750,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I103"/>
   <sheetViews>
@@ -15642,7 +16896,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I103"/>
   <sheetViews>
@@ -16784,7 +18038,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I103"/>
   <sheetViews>
@@ -17926,7 +19180,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F103"/>
   <sheetViews>
@@ -19066,7 +20320,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I103"/>
   <sheetViews>
@@ -20207,1147 +21461,4 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H103"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1">
-        <v>1791.76</v>
-      </c>
-      <c r="H1">
-        <f>100-83</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F2">
-        <v>1567.26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3">
-        <v>1416.98</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
-        <v>19.3962</v>
-      </c>
-      <c r="B4">
-        <v>22.31</v>
-      </c>
-      <c r="F4">
-        <v>1371.46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
-        <v>15.833</v>
-      </c>
-      <c r="B5">
-        <v>19.037700000000001</v>
-      </c>
-      <c r="F5">
-        <v>734.51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
-        <v>11.2636</v>
-      </c>
-      <c r="B6">
-        <v>354.815</v>
-      </c>
-      <c r="F6">
-        <v>731.96699999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
-        <v>14.8089</v>
-      </c>
-      <c r="B7">
-        <v>28.029699999999998</v>
-      </c>
-      <c r="F7">
-        <v>501.22699999999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
-        <v>18.721399999999999</v>
-      </c>
-      <c r="B8">
-        <v>1567.26</v>
-      </c>
-      <c r="F8">
-        <v>425.72399999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
-        <v>19.73</v>
-      </c>
-      <c r="B9">
-        <v>5.7735099999999999</v>
-      </c>
-      <c r="F9">
-        <v>354.815</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="2">
-        <v>11.803699999999999</v>
-      </c>
-      <c r="B10">
-        <v>27.096699999999998</v>
-      </c>
-      <c r="F10">
-        <v>294.54199999999997</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="2">
-        <v>10.517300000000001</v>
-      </c>
-      <c r="B11">
-        <v>14.454800000000001</v>
-      </c>
-      <c r="F11">
-        <v>248.172</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="2">
-        <v>14.5641</v>
-      </c>
-      <c r="B12">
-        <v>734.51</v>
-      </c>
-      <c r="F12">
-        <v>242.62299999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="2">
-        <v>16.481400000000001</v>
-      </c>
-      <c r="B13">
-        <v>10.8721</v>
-      </c>
-      <c r="F13">
-        <v>233.49100000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="2">
-        <v>13.947900000000001</v>
-      </c>
-      <c r="B14">
-        <v>43.749000000000002</v>
-      </c>
-      <c r="F14">
-        <v>218.65100000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="2">
-        <v>14.030200000000001</v>
-      </c>
-      <c r="B15">
-        <v>242.62299999999999</v>
-      </c>
-      <c r="F15">
-        <v>208.49700000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="2">
-        <v>9.88734</v>
-      </c>
-      <c r="B16">
-        <v>125.482</v>
-      </c>
-      <c r="F16">
-        <v>195.66399999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="2">
-        <v>14.820399999999999</v>
-      </c>
-      <c r="B17">
-        <v>17.873799999999999</v>
-      </c>
-      <c r="F17">
-        <v>176.10599999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="2">
-        <v>17.116599999999998</v>
-      </c>
-      <c r="B18">
-        <v>74.378799999999998</v>
-      </c>
-      <c r="F18">
-        <v>168.53800000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="2">
-        <v>13.5943</v>
-      </c>
-      <c r="B19">
-        <v>8.3252400000000009</v>
-      </c>
-      <c r="F19">
-        <v>165.13200000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="2">
-        <v>13.411300000000001</v>
-      </c>
-      <c r="B20">
-        <v>30.789400000000001</v>
-      </c>
-      <c r="F20">
-        <v>164.56899999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="2">
-        <v>19.618200000000002</v>
-      </c>
-      <c r="B21">
-        <v>9.7605599999999999</v>
-      </c>
-      <c r="F21">
-        <v>148.05000000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="2">
-        <v>16.630400000000002</v>
-      </c>
-      <c r="B22">
-        <v>9.1709899999999998</v>
-      </c>
-      <c r="F22">
-        <v>136.60900000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="2">
-        <v>7.5518000000000001</v>
-      </c>
-      <c r="B23">
-        <v>165.13200000000001</v>
-      </c>
-      <c r="F23">
-        <v>129.02500000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="2">
-        <v>11.0791</v>
-      </c>
-      <c r="B24">
-        <v>21.263000000000002</v>
-      </c>
-      <c r="F24">
-        <v>125.482</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="2">
-        <v>12.0351</v>
-      </c>
-      <c r="B25">
-        <v>129.02500000000001</v>
-      </c>
-      <c r="F25">
-        <v>124.992</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="2">
-        <v>18.783899999999999</v>
-      </c>
-      <c r="B26">
-        <v>4.9717399999999996</v>
-      </c>
-      <c r="F26">
-        <v>110.785</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="2">
-        <v>16.2499</v>
-      </c>
-      <c r="B27">
-        <v>9.5507399999999993</v>
-      </c>
-      <c r="F27">
-        <v>96.723699999999994</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="2">
-        <v>16.735099999999999</v>
-      </c>
-      <c r="B28">
-        <v>501.22699999999998</v>
-      </c>
-      <c r="F28">
-        <v>84.702299999999994</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="2">
-        <v>19.101400000000002</v>
-      </c>
-      <c r="B29">
-        <v>148.05000000000001</v>
-      </c>
-      <c r="F29">
-        <v>74.378799999999998</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="2">
-        <v>16.8903</v>
-      </c>
-      <c r="B30">
-        <v>40.990600000000001</v>
-      </c>
-      <c r="F30">
-        <v>69.726200000000006</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="2">
-        <v>17.564499999999999</v>
-      </c>
-      <c r="B31">
-        <v>425.72399999999999</v>
-      </c>
-      <c r="F31">
-        <v>56.3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="2">
-        <v>18.971</v>
-      </c>
-      <c r="B32">
-        <v>42.375100000000003</v>
-      </c>
-      <c r="F32">
-        <v>56.1845</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="2">
-        <v>15.155200000000001</v>
-      </c>
-      <c r="B33">
-        <v>110.785</v>
-      </c>
-      <c r="F33">
-        <v>55.590899999999998</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="2">
-        <v>18.825399999999998</v>
-      </c>
-      <c r="B34">
-        <v>22.6554</v>
-      </c>
-      <c r="F34">
-        <v>53.063600000000001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="2">
-        <v>18.9556</v>
-      </c>
-      <c r="B35">
-        <v>32.972299999999997</v>
-      </c>
-      <c r="F35">
-        <v>52.936399999999999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="2">
-        <v>19.601900000000001</v>
-      </c>
-      <c r="B36">
-        <v>6.0851600000000001</v>
-      </c>
-      <c r="F36">
-        <v>51.410800000000002</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="2">
-        <v>5.9711299999999996</v>
-      </c>
-      <c r="B37">
-        <v>19.756699999999999</v>
-      </c>
-      <c r="F37">
-        <v>50.392800000000001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="2">
-        <v>16.1297</v>
-      </c>
-      <c r="B38">
-        <v>16.385999999999999</v>
-      </c>
-      <c r="F38">
-        <v>50.354700000000001</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="2">
-        <v>13.263500000000001</v>
-      </c>
-      <c r="B39">
-        <v>19.060700000000001</v>
-      </c>
-      <c r="F39">
-        <v>47.783799999999999</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="2">
-        <v>18.672999999999998</v>
-      </c>
-      <c r="B40">
-        <v>11.007</v>
-      </c>
-      <c r="F40">
-        <v>43.774000000000001</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="2">
-        <v>6.7074499999999997</v>
-      </c>
-      <c r="B41">
-        <v>17.422000000000001</v>
-      </c>
-      <c r="F41">
-        <v>43.749000000000002</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="2">
-        <v>12.4168</v>
-      </c>
-      <c r="B42">
-        <v>35.954900000000002</v>
-      </c>
-      <c r="F42">
-        <v>43.673099999999998</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="2">
-        <v>12.0458</v>
-      </c>
-      <c r="B43">
-        <v>34.161099999999998</v>
-      </c>
-      <c r="F43">
-        <v>42.375100000000003</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="2">
-        <v>8.99709</v>
-      </c>
-      <c r="B44">
-        <v>96.723699999999994</v>
-      </c>
-      <c r="F44">
-        <v>41.853000000000002</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="2">
-        <v>19.404</v>
-      </c>
-      <c r="B45">
-        <v>164.56899999999999</v>
-      </c>
-      <c r="F45">
-        <v>40.990600000000001</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="2">
-        <v>12.3253</v>
-      </c>
-      <c r="B46">
-        <v>731.96699999999998</v>
-      </c>
-      <c r="F46">
-        <v>38.739100000000001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="2">
-        <v>6.8195300000000003</v>
-      </c>
-      <c r="B47">
-        <v>136.60900000000001</v>
-      </c>
-      <c r="F47">
-        <v>38.413499999999999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="2">
-        <v>18.247699999999998</v>
-      </c>
-      <c r="B48">
-        <v>8.1303099999999997</v>
-      </c>
-      <c r="F48">
-        <v>36.0931</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="2">
-        <v>16.963000000000001</v>
-      </c>
-      <c r="B49">
-        <v>22.685099999999998</v>
-      </c>
-      <c r="F49">
-        <v>35.954900000000002</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="2">
-        <v>11.2456</v>
-      </c>
-      <c r="B50">
-        <v>1371.46</v>
-      </c>
-      <c r="F50">
-        <v>34.161099999999998</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="2">
-        <v>15.5167</v>
-      </c>
-      <c r="B51">
-        <v>18.1523</v>
-      </c>
-      <c r="F51">
-        <v>33.819000000000003</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="2">
-        <v>10.6092</v>
-      </c>
-      <c r="B52">
-        <v>5.6213600000000001</v>
-      </c>
-      <c r="F52">
-        <v>32.972299999999997</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="2">
-        <v>18.813600000000001</v>
-      </c>
-      <c r="B53">
-        <v>1791.76</v>
-      </c>
-      <c r="F53">
-        <v>31.484200000000001</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="2">
-        <v>19.59</v>
-      </c>
-      <c r="B54">
-        <v>33.819000000000003</v>
-      </c>
-      <c r="F54">
-        <v>30.789400000000001</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="2">
-        <v>19.2592</v>
-      </c>
-      <c r="B55">
-        <v>31.484200000000001</v>
-      </c>
-      <c r="F55">
-        <v>30.1357</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="2">
-        <v>19.293800000000001</v>
-      </c>
-      <c r="B56">
-        <v>12.854200000000001</v>
-      </c>
-      <c r="F56">
-        <v>29.011800000000001</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="2">
-        <v>17.1877</v>
-      </c>
-      <c r="B57">
-        <v>52.936399999999999</v>
-      </c>
-      <c r="F57">
-        <v>28.029699999999998</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="2">
-        <v>14.853300000000001</v>
-      </c>
-      <c r="B58">
-        <v>9.9908800000000006</v>
-      </c>
-      <c r="F58">
-        <v>27.792200000000001</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="2">
-        <v>19.093599999999999</v>
-      </c>
-      <c r="B59">
-        <v>21.146699999999999</v>
-      </c>
-      <c r="F59">
-        <v>27.096699999999998</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="2">
-        <v>9.8219799999999999</v>
-      </c>
-      <c r="B60">
-        <v>1416.98</v>
-      </c>
-      <c r="F60">
-        <v>23.360800000000001</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="2">
-        <v>15.760999999999999</v>
-      </c>
-      <c r="B61">
-        <v>10.839399999999999</v>
-      </c>
-      <c r="F61">
-        <v>22.685099999999998</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="2">
-        <v>18.716100000000001</v>
-      </c>
-      <c r="B62">
-        <v>124.992</v>
-      </c>
-      <c r="F62">
-        <v>22.6554</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="2">
-        <v>6.7595000000000001</v>
-      </c>
-      <c r="B63">
-        <v>7.0536199999999996</v>
-      </c>
-      <c r="F63">
-        <v>22.31</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="2">
-        <v>15.807399999999999</v>
-      </c>
-      <c r="B64">
-        <v>84.702299999999994</v>
-      </c>
-      <c r="F64">
-        <v>21.263000000000002</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="2">
-        <v>14.856299999999999</v>
-      </c>
-      <c r="B65">
-        <v>36.0931</v>
-      </c>
-      <c r="F65">
-        <v>21.146699999999999</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="2">
-        <v>16.256599999999999</v>
-      </c>
-      <c r="B66">
-        <v>56.3</v>
-      </c>
-      <c r="F66">
-        <v>19.756699999999999</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="2">
-        <v>14.0161</v>
-      </c>
-      <c r="B67">
-        <v>176.10599999999999</v>
-      </c>
-      <c r="F67">
-        <v>19.060700000000001</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="2">
-        <v>15.978400000000001</v>
-      </c>
-      <c r="B68">
-        <v>10.5884</v>
-      </c>
-      <c r="F68">
-        <v>19.037700000000001</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="2">
-        <v>12.1487</v>
-      </c>
-      <c r="B69">
-        <v>56.1845</v>
-      </c>
-      <c r="F69">
-        <v>18.271899999999999</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="2">
-        <v>18.5459</v>
-      </c>
-      <c r="B70">
-        <v>50.354700000000001</v>
-      </c>
-      <c r="F70">
-        <v>18.1523</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="2">
-        <v>19.245100000000001</v>
-      </c>
-      <c r="B71">
-        <v>6.6851599999999998</v>
-      </c>
-      <c r="F71">
-        <v>18.113499999999998</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="2">
-        <v>16.4255</v>
-      </c>
-      <c r="B72">
-        <v>9.1786799999999999</v>
-      </c>
-      <c r="F72">
-        <v>17.873799999999999</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="2">
-        <v>16.8034</v>
-      </c>
-      <c r="B73">
-        <v>248.172</v>
-      </c>
-      <c r="F73">
-        <v>17.422000000000001</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="2">
-        <v>14.0128</v>
-      </c>
-      <c r="B74">
-        <v>38.413499999999999</v>
-      </c>
-      <c r="F74">
-        <v>16.385999999999999</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="2">
-        <v>12.975099999999999</v>
-      </c>
-      <c r="B75">
-        <v>23.360800000000001</v>
-      </c>
-      <c r="F75">
-        <v>14.454800000000001</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="2">
-        <v>8.9607500000000009</v>
-      </c>
-      <c r="B76">
-        <v>233.49100000000001</v>
-      </c>
-      <c r="F76">
-        <v>12.854200000000001</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="2">
-        <v>19.064599999999999</v>
-      </c>
-      <c r="B77">
-        <v>69.726200000000006</v>
-      </c>
-      <c r="F77">
-        <v>11.007</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="2">
-        <v>15.279199999999999</v>
-      </c>
-      <c r="B78">
-        <v>168.53800000000001</v>
-      </c>
-      <c r="F78">
-        <v>10.917999999999999</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="2">
-        <v>17.992899999999999</v>
-      </c>
-      <c r="B79">
-        <v>38.739100000000001</v>
-      </c>
-      <c r="F79">
-        <v>10.8721</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="2">
-        <v>17.188300000000002</v>
-      </c>
-      <c r="B80">
-        <v>294.54199999999997</v>
-      </c>
-      <c r="F80">
-        <v>10.839399999999999</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="2">
-        <v>14.3424</v>
-      </c>
-      <c r="B81">
-        <v>43.774000000000001</v>
-      </c>
-      <c r="F81">
-        <v>10.6599</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="2">
-        <v>12.7813</v>
-      </c>
-      <c r="B82">
-        <v>8.2737400000000001</v>
-      </c>
-      <c r="F82">
-        <v>10.5884</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="2">
-        <v>19.7102</v>
-      </c>
-      <c r="B83">
-        <v>27.792200000000001</v>
-      </c>
-      <c r="F83">
-        <v>9.9908800000000006</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="2">
-        <v>18.178799999999999</v>
-      </c>
-      <c r="B84">
-        <v>218.65100000000001</v>
-      </c>
-      <c r="F84">
-        <v>9.7605599999999999</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="2">
-        <v>11.9894</v>
-      </c>
-      <c r="B85">
-        <v>9.49892</v>
-      </c>
-      <c r="F85">
-        <v>9.5507399999999993</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="2">
-        <v>4.7716799999999999</v>
-      </c>
-      <c r="B86">
-        <v>8.0600199999999997</v>
-      </c>
-      <c r="F86">
-        <v>9.49892</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="2">
-        <v>19.6875</v>
-      </c>
-      <c r="B87">
-        <v>29.011800000000001</v>
-      </c>
-      <c r="F87">
-        <v>9.1786799999999999</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="2">
-        <v>18.3795</v>
-      </c>
-      <c r="B88">
-        <v>41.853000000000002</v>
-      </c>
-      <c r="F88">
-        <v>9.1709899999999998</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="2">
-        <v>12.452500000000001</v>
-      </c>
-      <c r="B89">
-        <v>208.49700000000001</v>
-      </c>
-      <c r="F89">
-        <v>8.7152999999999992</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="2">
-        <v>19.6965</v>
-      </c>
-      <c r="B90">
-        <v>10.917999999999999</v>
-      </c>
-      <c r="F90">
-        <v>8.3252400000000009</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="2">
-        <v>17.653500000000001</v>
-      </c>
-      <c r="B91">
-        <v>47.783799999999999</v>
-      </c>
-      <c r="F91">
-        <v>8.2737400000000001</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="2">
-        <v>15.952299999999999</v>
-      </c>
-      <c r="B92">
-        <v>10.6599</v>
-      </c>
-      <c r="F92">
-        <v>8.1303099999999997</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="2">
-        <v>10.572900000000001</v>
-      </c>
-      <c r="B93">
-        <v>30.1357</v>
-      </c>
-      <c r="F93">
-        <v>8.0600199999999997</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="2">
-        <v>16.6525</v>
-      </c>
-      <c r="B94">
-        <v>7.9730999999999996</v>
-      </c>
-      <c r="F94">
-        <v>7.9730999999999996</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="2">
-        <v>19.893999999999998</v>
-      </c>
-      <c r="B95">
-        <v>43.673099999999998</v>
-      </c>
-      <c r="F95">
-        <v>7.0536199999999996</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="2">
-        <v>16.4847</v>
-      </c>
-      <c r="B96">
-        <v>51.410800000000002</v>
-      </c>
-      <c r="F96">
-        <v>6.6851599999999998</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="2">
-        <v>15.3614</v>
-      </c>
-      <c r="B97">
-        <v>55.590899999999998</v>
-      </c>
-      <c r="F97">
-        <v>6.0851600000000001</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="2">
-        <v>7.1000699999999997</v>
-      </c>
-      <c r="B98">
-        <v>18.271899999999999</v>
-      </c>
-      <c r="F98">
-        <v>5.7735099999999999</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="2">
-        <v>15.2813</v>
-      </c>
-      <c r="B99">
-        <v>50.392800000000001</v>
-      </c>
-      <c r="F99">
-        <v>5.6213600000000001</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="2">
-        <v>17.029499999999999</v>
-      </c>
-      <c r="B100">
-        <v>53.063600000000001</v>
-      </c>
-      <c r="F100">
-        <v>4.9717399999999996</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="2">
-        <v>14.0298</v>
-      </c>
-      <c r="B101">
-        <v>195.66399999999999</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="2">
-        <v>13.667</v>
-      </c>
-      <c r="B102">
-        <v>18.113499999999998</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="2">
-        <v>18.246300000000002</v>
-      </c>
-      <c r="B103">
-        <v>8.7152999999999992</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState ref="F1:F103">
-    <sortCondition descending="1" ref="F1:F103"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>